--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7E4EFC-659D-4E16-ADB7-F5138F174170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC99616-3F07-49EF-B1C3-C6B26B43807F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
   <si>
     <t>SCWAD</t>
   </si>
@@ -303,6 +303,15 @@
   </si>
   <si>
     <t>Parameter 6</t>
+  </si>
+  <si>
+    <t>Cost per Ton of Material Removed</t>
+  </si>
+  <si>
+    <t>Cost per ton of waste material removed</t>
+  </si>
+  <si>
+    <t>$ / ton</t>
   </si>
 </sst>
 </file>
@@ -580,19 +589,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="114">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="116">
     <dxf>
       <fill>
         <patternFill>
@@ -612,6 +609,332 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -630,18 +953,330 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -662,6 +1297,349 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -687,6 +1665,313 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -705,6 +1990,313 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -716,1883 +2308,318 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2621,134 +2648,134 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="105"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="104"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="103"/>
-    <tableColumn id="14" xr3:uid="{D27F5CDB-A68A-4129-930A-F29B15C22636}" name="Parameter 5" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{0AB42936-B3F8-4E7C-8152-8CB99EFF7215}" name="Parameter 6" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{1D961365-C163-4709-AB34-FA18998E1C0C}" name="Lower Limit" dataDxfId="102"/>
-    <tableColumn id="12" xr3:uid="{DD91A285-8CA3-48CC-8B2D-6AD307B1829A}" name="Upper Limit" dataDxfId="101"/>
-    <tableColumn id="13" xr3:uid="{289708CC-2479-44B9-8E21-211759607199}" name="Step" dataDxfId="100"/>
+    <tableColumn id="14" xr3:uid="{D27F5CDB-A68A-4129-930A-F29B15C22636}" name="Parameter 5" dataDxfId="102"/>
+    <tableColumn id="15" xr3:uid="{0AB42936-B3F8-4E7C-8152-8CB99EFF7215}" name="Parameter 6" dataDxfId="101"/>
+    <tableColumn id="11" xr3:uid="{1D961365-C163-4709-AB34-FA18998E1C0C}" name="Lower Limit" dataDxfId="100"/>
+    <tableColumn id="12" xr3:uid="{DD91A285-8CA3-48CC-8B2D-6AD307B1829A}" name="Upper Limit" dataDxfId="99"/>
+    <tableColumn id="13" xr3:uid="{289708CC-2479-44B9-8E21-211759607199}" name="Step" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="95">
   <autoFilter ref="A1:O4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Internal" dataDxfId="98"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="96"/>
-    <tableColumn id="10" xr3:uid="{E238511C-0575-407F-83C7-4D6E37CAA1C8}" name="Description" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="89"/>
-    <tableColumn id="14" xr3:uid="{0CCC8750-3EB9-4A09-95AB-3BEC14F064B0}" name="Parameter 5" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{8430512F-5835-4882-88A6-3BDD8313812B}" name="Parameter 6" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{1D5D06E3-C2FF-4E33-A67E-846C813585DD}" name="Lower Limit" dataDxfId="88"/>
-    <tableColumn id="12" xr3:uid="{59B419A3-4B50-4E25-9295-12F6E479C7C1}" name="Upper Limit" dataDxfId="87"/>
-    <tableColumn id="13" xr3:uid="{B44B2162-0D76-4003-8141-9F91F7CB1D51}" name="Step" dataDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Internal" dataDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="92"/>
+    <tableColumn id="10" xr3:uid="{E238511C-0575-407F-83C7-4D6E37CAA1C8}" name="Description" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="85"/>
+    <tableColumn id="14" xr3:uid="{0CCC8750-3EB9-4A09-95AB-3BEC14F064B0}" name="Parameter 5" dataDxfId="84"/>
+    <tableColumn id="15" xr3:uid="{8430512F-5835-4882-88A6-3BDD8313812B}" name="Parameter 6" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{1D5D06E3-C2FF-4E33-A67E-846C813585DD}" name="Lower Limit" dataDxfId="82"/>
+    <tableColumn id="12" xr3:uid="{59B419A3-4B50-4E25-9295-12F6E479C7C1}" name="Upper Limit" dataDxfId="81"/>
+    <tableColumn id="13" xr3:uid="{B44B2162-0D76-4003-8141-9F91F7CB1D51}" name="Step" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="76">
   <autoFilter ref="A1:O4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Internal" dataDxfId="84"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="82"/>
-    <tableColumn id="10" xr3:uid="{82317EA3-EFA1-4204-866F-27AD4E7F4565}" name="Description" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="77"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="76"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="75"/>
-    <tableColumn id="14" xr3:uid="{66AAE767-9060-4329-9FA8-8309678C711A}" name="Parameter 5" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{EB2740C5-3F80-408E-8F68-D65D3DE04CB6}" name="Parameter 6" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{D8432F00-68F0-499E-8310-7BEAF2D5BFFA}" name="Lower Limit" dataDxfId="74"/>
-    <tableColumn id="12" xr3:uid="{BCED7806-F146-4B52-AF53-D5DE4EBA4D11}" name="Upper Limit" dataDxfId="73"/>
-    <tableColumn id="13" xr3:uid="{A3158C91-CCDA-42BB-98F8-B1415C87FD9F}" name="Step" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Internal" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{82317EA3-EFA1-4204-866F-27AD4E7F4565}" name="Description" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="66"/>
+    <tableColumn id="14" xr3:uid="{66AAE767-9060-4329-9FA8-8309678C711A}" name="Parameter 5" dataDxfId="65"/>
+    <tableColumn id="15" xr3:uid="{EB2740C5-3F80-408E-8F68-D65D3DE04CB6}" name="Parameter 6" dataDxfId="64"/>
+    <tableColumn id="11" xr3:uid="{D8432F00-68F0-499E-8310-7BEAF2D5BFFA}" name="Lower Limit" dataDxfId="63"/>
+    <tableColumn id="12" xr3:uid="{BCED7806-F146-4B52-AF53-D5DE4EBA4D11}" name="Upper Limit" dataDxfId="62"/>
+    <tableColumn id="13" xr3:uid="{A3158C91-CCDA-42BB-98F8-B1415C87FD9F}" name="Step" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O6" totalsRowShown="0" headerRowBorderDxfId="71" tableBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O6" totalsRowShown="0" headerRowBorderDxfId="56" tableBorderDxfId="55">
   <autoFilter ref="A1:O6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Internal" dataDxfId="69"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="67"/>
-    <tableColumn id="10" xr3:uid="{832C45C5-9E76-4B8A-83B0-2EB32C68E2FD}" name="Description" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="60"/>
-    <tableColumn id="14" xr3:uid="{1289F8CF-6170-44F2-AD7D-9E9A4F12BCD1}" name="Parameter 5" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{6D5C8F75-1A51-48AD-90E7-17A2F3986BE7}" name="Parameter 6" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{DB8C4311-5A85-4D8D-A5C2-F47C77E8643D}" name="Lower Limit" dataDxfId="59"/>
-    <tableColumn id="12" xr3:uid="{96A08B49-5A79-4F13-BC86-FC5E2B426E49}" name="Upper Limit" dataDxfId="58"/>
-    <tableColumn id="13" xr3:uid="{D4252238-C1B7-4D7A-B8C5-A52164228F94}" name="Step" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Internal" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{832C45C5-9E76-4B8A-83B0-2EB32C68E2FD}" name="Description" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="45"/>
+    <tableColumn id="14" xr3:uid="{1289F8CF-6170-44F2-AD7D-9E9A4F12BCD1}" name="Parameter 5" dataDxfId="44"/>
+    <tableColumn id="15" xr3:uid="{6D5C8F75-1A51-48AD-90E7-17A2F3986BE7}" name="Parameter 6" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{DB8C4311-5A85-4D8D-A5C2-F47C77E8643D}" name="Lower Limit" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{96A08B49-5A79-4F13-BC86-FC5E2B426E49}" name="Upper Limit" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{D4252238-C1B7-4D7A-B8C5-A52164228F94}" name="Step" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O2" insertRow="1" totalsRowShown="0" headerRowBorderDxfId="56" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table15793" displayName="Table15793" ref="A1:O2" insertRow="1" totalsRowShown="0" headerRowBorderDxfId="37" tableBorderDxfId="36">
   <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Internal" dataDxfId="54"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{68CD65C3-6212-4FBA-A45A-955FEEA37D44}" name="Description" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="45"/>
-    <tableColumn id="14" xr3:uid="{1F17DA93-9339-412C-A9EB-998C91FA539E}" name="Parameter 5" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{E2C25246-3008-4DA4-B275-8F5614EBCDDF}" name="Parameter 6" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{95D767C7-80C3-48E6-8676-E360CD889508}" name="Lower Limit" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{9CA92EEE-1C69-4662-9FC6-F69DA0AE3671}" name="Upper Limit" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{6140CBF1-6BD2-40E0-9B39-5EA769B73A3B}" name="Step" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Internal" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Category" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{68CD65C3-6212-4FBA-A45A-955FEEA37D44}" name="Description" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Units" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Distribution Type" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Parameter 1" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Parameter 2" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Parameter 3" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Parameter 4" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{1F17DA93-9339-412C-A9EB-998C91FA539E}" name="Parameter 5" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{E2C25246-3008-4DA4-B275-8F5614EBCDDF}" name="Parameter 6" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{95D767C7-80C3-48E6-8676-E360CD889508}" name="Lower Limit" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{9CA92EEE-1C69-4662-9FC6-F69DA0AE3671}" name="Upper Limit" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{6140CBF1-6BD2-40E0-9B39-5EA769B73A3B}" name="Step" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O2" totalsRowShown="0" headerRowBorderDxfId="41" tableBorderDxfId="40">
-  <autoFilter ref="A1:O2" xr:uid="{C58E5582-2A25-434F-8C6A-2EF9AC741C58}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O3" totalsRowShown="0" headerRowBorderDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A1:O3" xr:uid="{C58E5582-2A25-434F-8C6A-2EF9AC741C58}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
     <sortCondition ref="B1:B2"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Internal" dataDxfId="39"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{63BA373B-667A-4A36-BB6C-997B9631910B}" name="Description" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{64E7458C-1D65-4712-ABFC-9DAF3D21B670}" name="Parameter 5" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{ABD8345F-8CFE-4FF4-A3F7-F6DB1042FE28}" name="Parameter 6" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{B286B466-1F40-4449-900C-61ACE92313F0}" name="Lower Limit" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{4CAE3350-4ABC-40B6-B059-3A8198700CE1}" name="Upper Limit" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{BC38CFEA-8053-4CB7-B237-C848302F26B7}" name="Step" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Internal" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{63BA373B-667A-4A36-BB6C-997B9631910B}" name="Description" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{64E7458C-1D65-4712-ABFC-9DAF3D21B670}" name="Parameter 5" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{ABD8345F-8CFE-4FF4-A3F7-F6DB1042FE28}" name="Parameter 6" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{B286B466-1F40-4449-900C-61ACE92313F0}" name="Lower Limit" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{4CAE3350-4ABC-40B6-B059-3A8198700CE1}" name="Upper Limit" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{BC38CFEA-8053-4CB7-B237-C848302F26B7}" name="Step" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3387,7 +3414,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -3521,10 +3548,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L3">
-    <cfRule type="expression" dxfId="15" priority="33">
+    <cfRule type="expression" dxfId="115" priority="33">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="34">
+    <cfRule type="expression" dxfId="114" priority="34">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3546,7 +3573,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -3713,12 +3740,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L4">
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="97" priority="17">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L4">
-    <cfRule type="expression" dxfId="12" priority="34">
+    <cfRule type="expression" dxfId="96" priority="34">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3739,7 +3766,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -3906,17 +3933,17 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L4">
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="79" priority="19">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L3 A4:C4 E4:L4">
-    <cfRule type="expression" dxfId="10" priority="32">
+    <cfRule type="expression" dxfId="78" priority="32">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="77" priority="1">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3937,7 +3964,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -4170,22 +4197,22 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L6">
-    <cfRule type="expression" dxfId="8" priority="23">
+    <cfRule type="expression" dxfId="60" priority="23">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L5 A2:C2 E2:L2 A6:C6 E6:L6">
-    <cfRule type="expression" dxfId="7" priority="32">
+    <cfRule type="expression" dxfId="59" priority="32">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>ISBLANK($F6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4290,12 +4317,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L2">
-    <cfRule type="expression" dxfId="4" priority="24">
+    <cfRule type="expression" dxfId="39" priority="24">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L2">
-    <cfRule type="expression" dxfId="3" priority="29">
+    <cfRule type="expression" dxfId="38" priority="29">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4314,10 +4341,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,20 +4441,47 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:L2">
-    <cfRule type="expression" dxfId="2" priority="27">
+  <conditionalFormatting sqref="G2:L3">
+    <cfRule type="expression" dxfId="20" priority="27">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L2">
-    <cfRule type="expression" dxfId="1" priority="28">
+  <conditionalFormatting sqref="A2:L3">
+    <cfRule type="expression" dxfId="19" priority="28">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\EPA\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC5E490-DC0B-4F8A-AE17-992E6A7E9B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B200BA9-1C76-4046-9920-64940E54B2A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="142">
   <si>
     <t>SCWAD</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>Dependent Variable</t>
+  </si>
+  <si>
+    <t>Parameter 7</t>
   </si>
 </sst>
 </file>
@@ -747,7 +750,19 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="166">
+  <dxfs count="172">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <i/>
@@ -803,6 +818,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -814,13 +836,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -911,6 +926,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -922,13 +958,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -983,6 +1012,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -994,36 +1037,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1042,20 +1055,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1074,13 +1073,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1099,6 +1091,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1162,6 +1161,96 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3431,178 +3520,185 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:P4" totalsRowShown="0" tableBorderDxfId="67">
-  <autoFilter ref="A1:P4" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
-  <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="66"/>
-    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="62"/>
-    <tableColumn id="16" xr3:uid="{F53AF906-8DA2-4F8A-8B2C-B716247EEA39}" name="Notes" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="57"/>
-    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="56"/>
-    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="54"/>
-    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="53"/>
-    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:Q4" totalsRowShown="0" tableBorderDxfId="73">
+  <autoFilter ref="A1:Q4" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
+  <tableColumns count="17">
+    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="68"/>
+    <tableColumn id="16" xr3:uid="{F53AF906-8DA2-4F8A-8B2C-B716247EEA39}" name="Notes" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="64"/>
+    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="63"/>
+    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="62"/>
+    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="61"/>
+    <tableColumn id="17" xr3:uid="{A57DECD4-8229-4172-AA85-114E7177A2B6}" name="Parameter 7"/>
+    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="59"/>
+    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B77B7895-2678-4EA1-91B2-B6248E05AA0A}" name="Table156810" displayName="Table156810" ref="A1:P8" totalsRowShown="0" tableBorderDxfId="83">
-  <autoFilter ref="A1:P8" xr:uid="{60C5A2AF-4D3E-4976-AA8F-8961FE4EE49E}"/>
-  <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{DF77AA95-0523-4660-B964-676ECCB79418}" name="Phase" dataDxfId="82"/>
-    <tableColumn id="1" xr3:uid="{423292BC-9F1E-4EDC-9CC2-9890D4B1F00A}" name="Category" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{916CDEF4-7288-42C6-AD00-C6D0D8F8D560}" name="Name" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{C69B0C1F-B3A6-4CB4-B855-8A573BA536A2}" name="Description" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{23E3372F-48DE-4E64-88D3-C7EE1A32F34A}" name="Units" dataDxfId="78"/>
-    <tableColumn id="16" xr3:uid="{47D22AA2-1052-467B-855F-D3E336C9A1BA}" name="Notes" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{9D790DCF-5822-477B-8DCC-93F90CAB183B}" name="Distribution Type" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{337DB99B-F988-4680-87F5-A4BCFAF1A3C2}" name="Parameter 1" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{8C90C787-B669-453A-8F0E-A46E3018D380}" name="Parameter 2" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{041FF432-9543-4EE3-A9CF-1500CC344FFA}" name="Parameter 3" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{CDC02AC4-4C95-4220-B404-681CADF416D2}" name="Parameter 4" dataDxfId="73"/>
-    <tableColumn id="14" xr3:uid="{97B53FFA-4984-4D47-817E-8D167978BD8D}" name="Parameter 5" dataDxfId="72"/>
-    <tableColumn id="15" xr3:uid="{823939D4-F4DD-4DB0-89DB-EF0A01ECB48B}" name="Parameter 6" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{20A93856-0EFF-4271-832C-04F7E9AC0A1E}" name="Lower Limit" dataDxfId="70"/>
-    <tableColumn id="12" xr3:uid="{A36F5215-EB9D-448B-AE9F-58A4F8E9D0C7}" name="Upper Limit" dataDxfId="69"/>
-    <tableColumn id="13" xr3:uid="{39173C83-06DA-436D-B107-9D64D97B7F39}" name="Step" dataDxfId="68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B77B7895-2678-4EA1-91B2-B6248E05AA0A}" name="Table156810" displayName="Table156810" ref="A1:Q8" totalsRowShown="0" tableBorderDxfId="89">
+  <autoFilter ref="A1:Q8" xr:uid="{60C5A2AF-4D3E-4976-AA8F-8961FE4EE49E}"/>
+  <tableColumns count="17">
+    <tableColumn id="9" xr3:uid="{DF77AA95-0523-4660-B964-676ECCB79418}" name="Phase" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{423292BC-9F1E-4EDC-9CC2-9890D4B1F00A}" name="Category" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{916CDEF4-7288-42C6-AD00-C6D0D8F8D560}" name="Name" dataDxfId="86"/>
+    <tableColumn id="10" xr3:uid="{C69B0C1F-B3A6-4CB4-B855-8A573BA536A2}" name="Description" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{23E3372F-48DE-4E64-88D3-C7EE1A32F34A}" name="Units" dataDxfId="84"/>
+    <tableColumn id="16" xr3:uid="{47D22AA2-1052-467B-855F-D3E336C9A1BA}" name="Notes" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{9D790DCF-5822-477B-8DCC-93F90CAB183B}" name="Distribution Type" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{337DB99B-F988-4680-87F5-A4BCFAF1A3C2}" name="Parameter 1" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{8C90C787-B669-453A-8F0E-A46E3018D380}" name="Parameter 2" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{041FF432-9543-4EE3-A9CF-1500CC344FFA}" name="Parameter 3" dataDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{CDC02AC4-4C95-4220-B404-681CADF416D2}" name="Parameter 4" dataDxfId="79"/>
+    <tableColumn id="14" xr3:uid="{97B53FFA-4984-4D47-817E-8D167978BD8D}" name="Parameter 5" dataDxfId="78"/>
+    <tableColumn id="15" xr3:uid="{823939D4-F4DD-4DB0-89DB-EF0A01ECB48B}" name="Parameter 6" dataDxfId="77"/>
+    <tableColumn id="17" xr3:uid="{BE3DF7EB-D49F-4DDE-A86D-B7735A6890C6}" name="Parameter 7" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{20A93856-0EFF-4271-832C-04F7E9AC0A1E}" name="Lower Limit" dataDxfId="76"/>
+    <tableColumn id="12" xr3:uid="{A36F5215-EB9D-448B-AE9F-58A4F8E9D0C7}" name="Upper Limit" dataDxfId="75"/>
+    <tableColumn id="13" xr3:uid="{39173C83-06DA-436D-B107-9D64D97B7F39}" name="Step" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:P3" totalsRowShown="0" tableBorderDxfId="165">
-  <autoFilter ref="A1:P3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="164"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="163"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="162"/>
-    <tableColumn id="10" xr3:uid="{115A314C-6A1B-4509-AD17-EBA48B227F1D}" name="Description" dataDxfId="161"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="160"/>
-    <tableColumn id="16" xr3:uid="{8CA48522-E269-47F7-AB4F-A0B53480306B}" name="Notes" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="159"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="158"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="157"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="156"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="155"/>
-    <tableColumn id="14" xr3:uid="{D27F5CDB-A68A-4129-930A-F29B15C22636}" name="Parameter 5" dataDxfId="154"/>
-    <tableColumn id="15" xr3:uid="{0AB42936-B3F8-4E7C-8152-8CB99EFF7215}" name="Parameter 6" dataDxfId="153"/>
-    <tableColumn id="11" xr3:uid="{1D961365-C163-4709-AB34-FA18998E1C0C}" name="Lower Limit" dataDxfId="152"/>
-    <tableColumn id="12" xr3:uid="{DD91A285-8CA3-48CC-8B2D-6AD307B1829A}" name="Upper Limit" dataDxfId="151"/>
-    <tableColumn id="13" xr3:uid="{289708CC-2479-44B9-8E21-211759607199}" name="Step" dataDxfId="150"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:Q3" totalsRowShown="0" tableBorderDxfId="171">
+  <autoFilter ref="A1:Q3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="170"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="169"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="168"/>
+    <tableColumn id="10" xr3:uid="{115A314C-6A1B-4509-AD17-EBA48B227F1D}" name="Description" dataDxfId="167"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="166"/>
+    <tableColumn id="16" xr3:uid="{8CA48522-E269-47F7-AB4F-A0B53480306B}" name="Notes" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="165"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="164"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="163"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="162"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="161"/>
+    <tableColumn id="14" xr3:uid="{D27F5CDB-A68A-4129-930A-F29B15C22636}" name="Parameter 5" dataDxfId="160"/>
+    <tableColumn id="15" xr3:uid="{0AB42936-B3F8-4E7C-8152-8CB99EFF7215}" name="Parameter 6" dataDxfId="159"/>
+    <tableColumn id="17" xr3:uid="{A2F41808-5B98-4F78-A6E2-0A2796A552B3}" name="Parameter 7" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{1D961365-C163-4709-AB34-FA18998E1C0C}" name="Lower Limit" dataDxfId="158"/>
+    <tableColumn id="12" xr3:uid="{DD91A285-8CA3-48CC-8B2D-6AD307B1829A}" name="Upper Limit" dataDxfId="157"/>
+    <tableColumn id="13" xr3:uid="{289708CC-2479-44B9-8E21-211759607199}" name="Step" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:P4" totalsRowShown="0" tableBorderDxfId="149">
-  <autoFilter ref="A1:P4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="148"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="146"/>
-    <tableColumn id="10" xr3:uid="{E238511C-0575-407F-83C7-4D6E37CAA1C8}" name="Description" dataDxfId="145"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="144"/>
-    <tableColumn id="16" xr3:uid="{3AF040ED-2D4F-41AD-9714-FE54F686DA23}" name="Notes" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="143"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="142"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="141"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="140"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="139"/>
-    <tableColumn id="14" xr3:uid="{0CCC8750-3EB9-4A09-95AB-3BEC14F064B0}" name="Parameter 5" dataDxfId="138"/>
-    <tableColumn id="15" xr3:uid="{8430512F-5835-4882-88A6-3BDD8313812B}" name="Parameter 6" dataDxfId="137"/>
-    <tableColumn id="11" xr3:uid="{1D5D06E3-C2FF-4E33-A67E-846C813585DD}" name="Lower Limit" dataDxfId="136"/>
-    <tableColumn id="12" xr3:uid="{59B419A3-4B50-4E25-9295-12F6E479C7C1}" name="Upper Limit" dataDxfId="135"/>
-    <tableColumn id="13" xr3:uid="{B44B2162-0D76-4003-8141-9F91F7CB1D51}" name="Step" dataDxfId="134"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:Q4" totalsRowShown="0" tableBorderDxfId="155">
+  <autoFilter ref="A1:Q4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="154"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="152"/>
+    <tableColumn id="10" xr3:uid="{E238511C-0575-407F-83C7-4D6E37CAA1C8}" name="Description" dataDxfId="151"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="150"/>
+    <tableColumn id="16" xr3:uid="{3AF040ED-2D4F-41AD-9714-FE54F686DA23}" name="Notes" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="149"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="148"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="147"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="146"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="145"/>
+    <tableColumn id="14" xr3:uid="{0CCC8750-3EB9-4A09-95AB-3BEC14F064B0}" name="Parameter 5" dataDxfId="144"/>
+    <tableColumn id="15" xr3:uid="{8430512F-5835-4882-88A6-3BDD8313812B}" name="Parameter 6" dataDxfId="143"/>
+    <tableColumn id="17" xr3:uid="{10C1E54A-C737-4956-92E2-EE13E1A7CACC}" name="Parameter 7" dataDxfId="48"/>
+    <tableColumn id="11" xr3:uid="{1D5D06E3-C2FF-4E33-A67E-846C813585DD}" name="Lower Limit" dataDxfId="142"/>
+    <tableColumn id="12" xr3:uid="{59B419A3-4B50-4E25-9295-12F6E479C7C1}" name="Upper Limit" dataDxfId="141"/>
+    <tableColumn id="13" xr3:uid="{B44B2162-0D76-4003-8141-9F91F7CB1D51}" name="Step" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:P4" totalsRowShown="0" tableBorderDxfId="133">
-  <autoFilter ref="A1:P4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Internal" dataDxfId="132"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="131"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="130"/>
-    <tableColumn id="10" xr3:uid="{82317EA3-EFA1-4204-866F-27AD4E7F4565}" name="Description" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="128"/>
-    <tableColumn id="16" xr3:uid="{DF03E324-1E5E-4D8E-A1B6-A4B0C189A15A}" name="Notes" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="127"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="126"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="125"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="124"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="123"/>
-    <tableColumn id="14" xr3:uid="{66AAE767-9060-4329-9FA8-8309678C711A}" name="Parameter 5" dataDxfId="122"/>
-    <tableColumn id="15" xr3:uid="{EB2740C5-3F80-408E-8F68-D65D3DE04CB6}" name="Parameter 6" dataDxfId="121"/>
-    <tableColumn id="11" xr3:uid="{D8432F00-68F0-499E-8310-7BEAF2D5BFFA}" name="Lower Limit" dataDxfId="120"/>
-    <tableColumn id="12" xr3:uid="{BCED7806-F146-4B52-AF53-D5DE4EBA4D11}" name="Upper Limit" dataDxfId="119"/>
-    <tableColumn id="13" xr3:uid="{A3158C91-CCDA-42BB-98F8-B1415C87FD9F}" name="Step" dataDxfId="118"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:Q4" totalsRowShown="0" tableBorderDxfId="139">
+  <autoFilter ref="A1:Q4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Internal" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="137"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="136"/>
+    <tableColumn id="10" xr3:uid="{82317EA3-EFA1-4204-866F-27AD4E7F4565}" name="Description" dataDxfId="135"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="134"/>
+    <tableColumn id="16" xr3:uid="{DF03E324-1E5E-4D8E-A1B6-A4B0C189A15A}" name="Notes" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="133"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="132"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="131"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="130"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="129"/>
+    <tableColumn id="14" xr3:uid="{66AAE767-9060-4329-9FA8-8309678C711A}" name="Parameter 5" dataDxfId="128"/>
+    <tableColumn id="15" xr3:uid="{EB2740C5-3F80-408E-8F68-D65D3DE04CB6}" name="Parameter 6" dataDxfId="127"/>
+    <tableColumn id="17" xr3:uid="{E7CBD621-3EAB-410B-B049-AF8ED63D19BF}" name="Parameter 7" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{D8432F00-68F0-499E-8310-7BEAF2D5BFFA}" name="Lower Limit" dataDxfId="126"/>
+    <tableColumn id="12" xr3:uid="{BCED7806-F146-4B52-AF53-D5DE4EBA4D11}" name="Upper Limit" dataDxfId="125"/>
+    <tableColumn id="13" xr3:uid="{A3158C91-CCDA-42BB-98F8-B1415C87FD9F}" name="Step" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:P6" totalsRowShown="0" headerRowBorderDxfId="117" tableBorderDxfId="116">
-  <autoFilter ref="A1:P6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Internal" dataDxfId="115"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="113"/>
-    <tableColumn id="10" xr3:uid="{832C45C5-9E76-4B8A-83B0-2EB32C68E2FD}" name="Description" dataDxfId="112"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="111"/>
-    <tableColumn id="16" xr3:uid="{A76C293E-4F8D-48E8-8E9B-1F8E969B63DA}" name="Notes" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="110"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="109"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="108"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="107"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="106"/>
-    <tableColumn id="14" xr3:uid="{1289F8CF-6170-44F2-AD7D-9E9A4F12BCD1}" name="Parameter 5" dataDxfId="105"/>
-    <tableColumn id="15" xr3:uid="{6D5C8F75-1A51-48AD-90E7-17A2F3986BE7}" name="Parameter 6" dataDxfId="104"/>
-    <tableColumn id="11" xr3:uid="{DB8C4311-5A85-4D8D-A5C2-F47C77E8643D}" name="Lower Limit" dataDxfId="103"/>
-    <tableColumn id="12" xr3:uid="{96A08B49-5A79-4F13-BC86-FC5E2B426E49}" name="Upper Limit" dataDxfId="102"/>
-    <tableColumn id="13" xr3:uid="{D4252238-C1B7-4D7A-B8C5-A52164228F94}" name="Step" dataDxfId="101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:Q6" totalsRowShown="0" headerRowBorderDxfId="123" tableBorderDxfId="122">
+  <autoFilter ref="A1:Q6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Internal" dataDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="119"/>
+    <tableColumn id="10" xr3:uid="{832C45C5-9E76-4B8A-83B0-2EB32C68E2FD}" name="Description" dataDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="117"/>
+    <tableColumn id="16" xr3:uid="{A76C293E-4F8D-48E8-8E9B-1F8E969B63DA}" name="Notes" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="115"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="113"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="112"/>
+    <tableColumn id="14" xr3:uid="{1289F8CF-6170-44F2-AD7D-9E9A4F12BCD1}" name="Parameter 5" dataDxfId="111"/>
+    <tableColumn id="15" xr3:uid="{6D5C8F75-1A51-48AD-90E7-17A2F3986BE7}" name="Parameter 6" dataDxfId="110"/>
+    <tableColumn id="17" xr3:uid="{E2911AC1-4B61-46E6-92D6-047FCE0DFBB6}" name="Parameter 7" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{DB8C4311-5A85-4D8D-A5C2-F47C77E8643D}" name="Lower Limit" dataDxfId="109"/>
+    <tableColumn id="12" xr3:uid="{96A08B49-5A79-4F13-BC86-FC5E2B426E49}" name="Upper Limit" dataDxfId="108"/>
+    <tableColumn id="13" xr3:uid="{D4252238-C1B7-4D7A-B8C5-A52164228F94}" name="Step" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:P3" totalsRowShown="0" headerRowBorderDxfId="100" tableBorderDxfId="99">
-  <autoFilter ref="A1:P3" xr:uid="{C58E5582-2A25-434F-8C6A-2EF9AC741C58}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:Q3" totalsRowShown="0" headerRowBorderDxfId="106" tableBorderDxfId="105">
+  <autoFilter ref="A1:Q3" xr:uid="{C58E5582-2A25-434F-8C6A-2EF9AC741C58}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K2">
     <sortCondition ref="B1:B2"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Internal" dataDxfId="98"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="96"/>
-    <tableColumn id="10" xr3:uid="{63BA373B-667A-4A36-BB6C-997B9631910B}" name="Description" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="94"/>
-    <tableColumn id="16" xr3:uid="{D3234437-8633-4633-A761-859E090311B3}" name="Notes" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="89"/>
-    <tableColumn id="14" xr3:uid="{64E7458C-1D65-4712-ABFC-9DAF3D21B670}" name="Parameter 5" dataDxfId="88"/>
-    <tableColumn id="15" xr3:uid="{ABD8345F-8CFE-4FF4-A3F7-F6DB1042FE28}" name="Parameter 6" dataDxfId="87"/>
-    <tableColumn id="11" xr3:uid="{B286B466-1F40-4449-900C-61ACE92313F0}" name="Lower Limit" dataDxfId="86"/>
-    <tableColumn id="12" xr3:uid="{4CAE3350-4ABC-40B6-B059-3A8198700CE1}" name="Upper Limit" dataDxfId="85"/>
-    <tableColumn id="13" xr3:uid="{BC38CFEA-8053-4CB7-B237-C848302F26B7}" name="Step" dataDxfId="84"/>
+  <tableColumns count="17">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Internal" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="102"/>
+    <tableColumn id="10" xr3:uid="{63BA373B-667A-4A36-BB6C-997B9631910B}" name="Description" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="100"/>
+    <tableColumn id="16" xr3:uid="{D3234437-8633-4633-A761-859E090311B3}" name="Notes" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="96"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="95"/>
+    <tableColumn id="14" xr3:uid="{64E7458C-1D65-4712-ABFC-9DAF3D21B670}" name="Parameter 5" dataDxfId="94"/>
+    <tableColumn id="15" xr3:uid="{ABD8345F-8CFE-4FF4-A3F7-F6DB1042FE28}" name="Parameter 6" dataDxfId="93"/>
+    <tableColumn id="17" xr3:uid="{7A8E236B-9AF4-42BB-B2D7-1F94DA03337A}" name="Parameter 7" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{B286B466-1F40-4449-900C-61ACE92313F0}" name="Lower Limit" dataDxfId="92"/>
+    <tableColumn id="12" xr3:uid="{4CAE3350-4ABC-40B6-B059-3A8198700CE1}" name="Upper Limit" dataDxfId="91"/>
+    <tableColumn id="13" xr3:uid="{BC38CFEA-8053-4CB7-B237-C848302F26B7}" name="Step" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3930,10 +4026,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3941,10 +4037,10 @@
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="16" width="15.7109375" customWidth="1"/>
+    <col min="5" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -3985,16 +4081,19 @@
         <v>86</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>138</v>
       </c>
@@ -4020,17 +4119,18 @@
       <c r="K2" s="3"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="15">
+      <c r="N2" s="17"/>
+      <c r="O2" s="15">
         <v>20</v>
       </c>
-      <c r="O2" s="15">
+      <c r="P2" s="15">
         <v>500</v>
       </c>
-      <c r="P2" s="15">
+      <c r="Q2" s="15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>138</v>
       </c>
@@ -4056,36 +4156,37 @@
       <c r="K3" s="14"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="13"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H2:M3">
-    <cfRule type="expression" dxfId="30" priority="33">
+  <conditionalFormatting sqref="H2:N3">
+    <cfRule type="expression" dxfId="8" priority="33">
       <formula>NOT((COLUMN(H2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:M3">
-    <cfRule type="expression" dxfId="29" priority="34">
+  <conditionalFormatting sqref="B2:N3">
+    <cfRule type="expression" dxfId="7" priority="34">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>ISBLANK($G3)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>NOT((COLUMN(A3)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>NOT((COLUMN(A2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>ISBLANK($G3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>NOT((COLUMN(A3)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4105,7 +4206,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -4536,10 +4637,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097870CC-1A0F-461E-BDFD-29BDDFDDF05C}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4547,10 +4648,10 @@
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="16" width="15.7109375" customWidth="1"/>
+    <col min="5" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -4591,16 +4692,19 @@
         <v>86</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>113</v>
       </c>
@@ -4626,17 +4730,18 @@
       <c r="K2" s="7"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="19">
+      <c r="N2" s="3"/>
+      <c r="O2" s="19">
         <v>10000</v>
       </c>
-      <c r="O2" s="19">
+      <c r="P2" s="19">
         <v>50000000</v>
       </c>
-      <c r="P2" s="19">
+      <c r="Q2" s="19">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>114</v>
       </c>
@@ -4662,17 +4767,18 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="20">
+      <c r="N3" s="14"/>
+      <c r="O3" s="20">
         <v>10000</v>
       </c>
-      <c r="O3" s="20">
+      <c r="P3" s="20">
         <v>50000000</v>
       </c>
-      <c r="P3" s="20">
+      <c r="Q3" s="20">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>115</v>
       </c>
@@ -4698,18 +4804,20 @@
       <c r="K4" s="14"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="20">
+      <c r="N4" s="17"/>
+      <c r="O4" s="20">
         <v>10000</v>
       </c>
-      <c r="O4" s="20">
+      <c r="P4" s="20">
         <v>50000000</v>
       </c>
-      <c r="P4" s="20">
+      <c r="Q4" s="20">
         <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:M4">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A2:N4">
     <cfRule type="expression" dxfId="45" priority="1">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
@@ -4731,21 +4839,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E755C4-38C6-4293-91DA-AE4F2174B63E}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="16" width="15.7109375" customWidth="1"/>
+    <col min="5" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -4786,16 +4892,19 @@
         <v>86</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>114</v>
       </c>
@@ -4821,17 +4930,18 @@
       <c r="K2" s="7"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="19">
+      <c r="N2" s="3"/>
+      <c r="O2" s="19">
         <v>0</v>
       </c>
-      <c r="O2" s="19">
+      <c r="P2" s="19">
         <v>1</v>
       </c>
-      <c r="P2" s="19">
+      <c r="Q2" s="19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>114</v>
       </c>
@@ -4857,17 +4967,18 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="20">
+      <c r="N3" s="14"/>
+      <c r="O3" s="20">
         <v>0</v>
       </c>
-      <c r="O3" s="20">
+      <c r="P3" s="20">
         <v>1</v>
       </c>
-      <c r="P3" s="20">
+      <c r="Q3" s="20">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>114</v>
       </c>
@@ -4893,17 +5004,18 @@
       <c r="K4" s="14"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="19">
+      <c r="N4" s="17"/>
+      <c r="O4" s="19">
         <v>0</v>
       </c>
-      <c r="O4" s="19">
+      <c r="P4" s="19">
         <v>1</v>
       </c>
-      <c r="P4" s="19">
+      <c r="Q4" s="19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>114</v>
       </c>
@@ -4929,17 +5041,18 @@
       <c r="K5" s="14"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="19">
+      <c r="N5" s="17"/>
+      <c r="O5" s="19">
         <v>0</v>
       </c>
-      <c r="O5" s="19">
+      <c r="P5" s="19">
         <v>1</v>
       </c>
-      <c r="P5" s="19">
+      <c r="Q5" s="19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>114</v>
       </c>
@@ -4965,17 +5078,18 @@
       <c r="K6" s="14"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
-      <c r="N6" s="19">
+      <c r="N6" s="17"/>
+      <c r="O6" s="19">
         <v>0</v>
       </c>
-      <c r="O6" s="19">
+      <c r="P6" s="19">
         <v>1</v>
       </c>
-      <c r="P6" s="19">
+      <c r="Q6" s="19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>114</v>
       </c>
@@ -5001,17 +5115,18 @@
       <c r="K7" s="14"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
-      <c r="N7" s="19">
+      <c r="N7" s="17"/>
+      <c r="O7" s="19">
         <v>0</v>
       </c>
-      <c r="O7" s="19">
+      <c r="P7" s="19">
         <v>1</v>
       </c>
-      <c r="P7" s="19">
+      <c r="Q7" s="19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>114</v>
       </c>
@@ -5037,18 +5152,20 @@
       <c r="K8" s="14"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
-      <c r="N8" s="19">
+      <c r="N8" s="17"/>
+      <c r="O8" s="19">
         <v>0</v>
       </c>
-      <c r="O8" s="19">
+      <c r="P8" s="19">
         <v>1</v>
       </c>
-      <c r="P8" s="19">
+      <c r="Q8" s="19">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:M8">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A2:N8">
     <cfRule type="expression" dxfId="43" priority="1">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
@@ -5071,21 +5188,19 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="16" width="15.7109375" customWidth="1"/>
+    <col min="5" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -5126,16 +5241,19 @@
         <v>86</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>138</v>
       </c>
@@ -5161,17 +5279,18 @@
       <c r="K2" s="7"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="1">
+      <c r="N2" s="3"/>
+      <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>10</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>138</v>
       </c>
@@ -5197,19 +5316,20 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="13">
+      <c r="N3" s="14"/>
+      <c r="O3" s="13">
         <v>0</v>
       </c>
-      <c r="O3" s="13">
+      <c r="P3" s="13">
         <v>10</v>
       </c>
-      <c r="P3" s="13">
+      <c r="Q3" s="13">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:M3">
+  <conditionalFormatting sqref="A2:N3">
     <cfRule type="expression" dxfId="41" priority="33">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
@@ -5233,21 +5353,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="16" width="15.7109375" customWidth="1"/>
+    <col min="5" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -5288,16 +5406,19 @@
         <v>86</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>138</v>
       </c>
@@ -5323,17 +5444,18 @@
       <c r="K2" s="7"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="1">
+      <c r="N2" s="3"/>
+      <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>20</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>138</v>
       </c>
@@ -5359,17 +5481,18 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="10">
+      <c r="N3" s="11"/>
+      <c r="O3" s="10">
         <v>0</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="10">
         <v>20</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>138</v>
       </c>
@@ -5395,49 +5518,50 @@
       <c r="K4" s="11"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="13">
+      <c r="N4" s="14"/>
+      <c r="O4" s="13">
         <v>0</v>
       </c>
-      <c r="O4" s="13">
+      <c r="P4" s="13">
         <v>48</v>
       </c>
-      <c r="P4" s="13">
+      <c r="Q4" s="13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H2:M4">
+  <conditionalFormatting sqref="H2:N4">
     <cfRule type="expression" dxfId="39" priority="23">
       <formula>NOT((COLUMN(H2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:M4">
+  <conditionalFormatting sqref="B2:N4">
     <cfRule type="expression" dxfId="38" priority="40">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="27" priority="5">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="36" priority="6">
       <formula>NOT((COLUMN(A2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="35" priority="3">
       <formula>ISBLANK($G3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>NOT((COLUMN(A3)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>ISBLANK($G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>NOT((COLUMN(A4)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5456,10 +5580,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5467,10 +5591,10 @@
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="16" width="15.7109375" customWidth="1"/>
+    <col min="5" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5511,16 +5635,19 @@
         <v>86</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>138</v>
       </c>
@@ -5546,17 +5673,18 @@
       <c r="K2" s="7"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="1">
+      <c r="N2" s="3"/>
+      <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>10</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>138</v>
       </c>
@@ -5582,17 +5710,18 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="10">
+      <c r="N3" s="11"/>
+      <c r="O3" s="10">
         <v>0</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="10">
         <v>10000</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>138</v>
       </c>
@@ -5618,54 +5747,55 @@
       <c r="K4" s="11"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="13">
+      <c r="N4" s="14"/>
+      <c r="O4" s="13">
         <v>0</v>
       </c>
-      <c r="O4" s="13">
+      <c r="P4" s="13">
         <v>10</v>
       </c>
-      <c r="P4" s="13">
+      <c r="Q4" s="13">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H2:M4">
-    <cfRule type="expression" dxfId="37" priority="25">
+  <conditionalFormatting sqref="H2:N4">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>NOT((COLUMN(H2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C4 E4:M4 B2:M3">
-    <cfRule type="expression" dxfId="36" priority="38">
+  <conditionalFormatting sqref="B4:C4 E4:N4 B2:N3">
+    <cfRule type="expression" dxfId="30" priority="38">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="35" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>ISBLANK($G4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="21" priority="5">
+    <cfRule type="expression" dxfId="28" priority="5">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>NOT((COLUMN(A2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>ISBLANK($G3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>NOT((COLUMN(A3)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>ISBLANK($G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>NOT((COLUMN(A4)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5684,10 +5814,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5695,10 +5825,10 @@
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="16" width="15.7109375" customWidth="1"/>
+    <col min="5" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5739,16 +5869,19 @@
         <v>86</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>138</v>
       </c>
@@ -5774,17 +5907,18 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="1">
+      <c r="N2" s="3"/>
+      <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>10</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>138</v>
       </c>
@@ -5810,17 +5944,18 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="10">
+      <c r="N3" s="11"/>
+      <c r="O3" s="10">
         <v>100</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="10">
         <v>2000</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>138</v>
       </c>
@@ -5846,17 +5981,18 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="10">
+      <c r="N4" s="11"/>
+      <c r="O4" s="10">
         <v>100</v>
       </c>
-      <c r="O4" s="10">
+      <c r="P4" s="10">
         <v>2000</v>
       </c>
-      <c r="P4" s="10">
+      <c r="Q4" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
@@ -5882,17 +6018,18 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="10">
+      <c r="N5" s="11"/>
+      <c r="O5" s="10">
         <v>0</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <v>1</v>
       </c>
-      <c r="P5" s="10">
+      <c r="Q5" s="10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>138</v>
       </c>
@@ -5918,75 +6055,76 @@
       <c r="K6" s="11"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="13">
+      <c r="N6" s="14"/>
+      <c r="O6" s="13">
         <v>0</v>
       </c>
-      <c r="O6" s="13">
+      <c r="P6" s="13">
         <v>10</v>
       </c>
-      <c r="P6" s="13">
+      <c r="Q6" s="13">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H2:M6">
-    <cfRule type="expression" dxfId="34" priority="33">
+  <conditionalFormatting sqref="H2:N6">
+    <cfRule type="expression" dxfId="22" priority="33">
       <formula>NOT((COLUMN(H2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2 E2:M2 B6:C6 E6:M6 B3:M5">
-    <cfRule type="expression" dxfId="33" priority="42">
+  <conditionalFormatting sqref="B2:C2 E2:N2 B6:C6 E6:N6 B3:N5">
+    <cfRule type="expression" dxfId="21" priority="42">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="31" priority="11">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>ISBLANK($G6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>NOT((COLUMN(A2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>ISBLANK($G3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>NOT((COLUMN(A3)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>ISBLANK($G4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>NOT((COLUMN(A4)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>ISBLANK($G5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>NOT((COLUMN(A5)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G5, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>ISBLANK($G6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>NOT((COLUMN(A6)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G6, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\EPA\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B200BA9-1C76-4046-9920-64940E54B2A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94096A9C-973A-4A08-9C16-514CFB20D764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="136">
   <si>
     <t>SCWAD</t>
   </si>
@@ -423,24 +423,6 @@
     <t>UniformXDependent</t>
   </si>
   <si>
-    <t>Slope (m)</t>
-  </si>
-  <si>
-    <t>Y Intercept (b)</t>
-  </si>
-  <si>
-    <t>Starting Point X</t>
-  </si>
-  <si>
-    <t>Starting Point Y</t>
-  </si>
-  <si>
-    <t>Ending Point X</t>
-  </si>
-  <si>
-    <t>Ending Point Y</t>
-  </si>
-  <si>
     <t>BimodalTruncatedNormal</t>
   </si>
   <si>
@@ -456,19 +438,19 @@
     <t>Std Dev 2</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Indoor;Underground;Outdoor</t>
   </si>
   <si>
-    <t>Param 7 Description</t>
-  </si>
-  <si>
     <t>Dependent Variable</t>
   </si>
   <si>
-    <t>Parameter 7</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -750,18 +732,13 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="172">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+  <dxfs count="157">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -811,20 +788,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -836,6 +799,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -908,6 +878,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -919,34 +910,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -958,6 +921,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -994,6 +964,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1012,20 +996,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1037,6 +1007,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1084,20 +1061,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1109,6 +1072,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1145,810 +1115,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -3129,6 +2295,598 @@
           <color indexed="64"/>
         </right>
         <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
@@ -3520,185 +3278,171 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:Q4" totalsRowShown="0" tableBorderDxfId="73">
-  <autoFilter ref="A1:Q4" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
-  <tableColumns count="17">
-    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="72"/>
-    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="68"/>
-    <tableColumn id="16" xr3:uid="{F53AF906-8DA2-4F8A-8B2C-B716247EEA39}" name="Notes" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="63"/>
-    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="62"/>
-    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="61"/>
-    <tableColumn id="17" xr3:uid="{A57DECD4-8229-4172-AA85-114E7177A2B6}" name="Parameter 7"/>
-    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="60"/>
-    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="59"/>
-    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="156">
+  <autoFilter ref="A1:O4" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
+  <tableColumns count="15">
+    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="155"/>
+    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="153"/>
+    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="150"/>
+    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="149"/>
+    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="148"/>
+    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="147"/>
+    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="146"/>
+    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="145"/>
+    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="144"/>
+    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="143"/>
+    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="142"/>
+    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B77B7895-2678-4EA1-91B2-B6248E05AA0A}" name="Table156810" displayName="Table156810" ref="A1:Q8" totalsRowShown="0" tableBorderDxfId="89">
-  <autoFilter ref="A1:Q8" xr:uid="{60C5A2AF-4D3E-4976-AA8F-8961FE4EE49E}"/>
-  <tableColumns count="17">
-    <tableColumn id="9" xr3:uid="{DF77AA95-0523-4660-B964-676ECCB79418}" name="Phase" dataDxfId="88"/>
-    <tableColumn id="1" xr3:uid="{423292BC-9F1E-4EDC-9CC2-9890D4B1F00A}" name="Category" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{916CDEF4-7288-42C6-AD00-C6D0D8F8D560}" name="Name" dataDxfId="86"/>
-    <tableColumn id="10" xr3:uid="{C69B0C1F-B3A6-4CB4-B855-8A573BA536A2}" name="Description" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{23E3372F-48DE-4E64-88D3-C7EE1A32F34A}" name="Units" dataDxfId="84"/>
-    <tableColumn id="16" xr3:uid="{47D22AA2-1052-467B-855F-D3E336C9A1BA}" name="Notes" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{9D790DCF-5822-477B-8DCC-93F90CAB183B}" name="Distribution Type" dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{337DB99B-F988-4680-87F5-A4BCFAF1A3C2}" name="Parameter 1" dataDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{8C90C787-B669-453A-8F0E-A46E3018D380}" name="Parameter 2" dataDxfId="81"/>
-    <tableColumn id="7" xr3:uid="{041FF432-9543-4EE3-A9CF-1500CC344FFA}" name="Parameter 3" dataDxfId="80"/>
-    <tableColumn id="8" xr3:uid="{CDC02AC4-4C95-4220-B404-681CADF416D2}" name="Parameter 4" dataDxfId="79"/>
-    <tableColumn id="14" xr3:uid="{97B53FFA-4984-4D47-817E-8D167978BD8D}" name="Parameter 5" dataDxfId="78"/>
-    <tableColumn id="15" xr3:uid="{823939D4-F4DD-4DB0-89DB-EF0A01ECB48B}" name="Parameter 6" dataDxfId="77"/>
-    <tableColumn id="17" xr3:uid="{BE3DF7EB-D49F-4DDE-A86D-B7735A6890C6}" name="Parameter 7" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{20A93856-0EFF-4271-832C-04F7E9AC0A1E}" name="Lower Limit" dataDxfId="76"/>
-    <tableColumn id="12" xr3:uid="{A36F5215-EB9D-448B-AE9F-58A4F8E9D0C7}" name="Upper Limit" dataDxfId="75"/>
-    <tableColumn id="13" xr3:uid="{39173C83-06DA-436D-B107-9D64D97B7F39}" name="Step" dataDxfId="74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B77B7895-2678-4EA1-91B2-B6248E05AA0A}" name="Table156810" displayName="Table156810" ref="A1:O8" totalsRowShown="0" tableBorderDxfId="140">
+  <autoFilter ref="A1:O8" xr:uid="{60C5A2AF-4D3E-4976-AA8F-8961FE4EE49E}"/>
+  <tableColumns count="15">
+    <tableColumn id="9" xr3:uid="{DF77AA95-0523-4660-B964-676ECCB79418}" name="Phase" dataDxfId="139"/>
+    <tableColumn id="1" xr3:uid="{423292BC-9F1E-4EDC-9CC2-9890D4B1F00A}" name="Category" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{916CDEF4-7288-42C6-AD00-C6D0D8F8D560}" name="Name" dataDxfId="137"/>
+    <tableColumn id="10" xr3:uid="{C69B0C1F-B3A6-4CB4-B855-8A573BA536A2}" name="Description" dataDxfId="136"/>
+    <tableColumn id="3" xr3:uid="{23E3372F-48DE-4E64-88D3-C7EE1A32F34A}" name="Units" dataDxfId="135"/>
+    <tableColumn id="4" xr3:uid="{9D790DCF-5822-477B-8DCC-93F90CAB183B}" name="Distribution Type" dataDxfId="134"/>
+    <tableColumn id="5" xr3:uid="{337DB99B-F988-4680-87F5-A4BCFAF1A3C2}" name="Parameter 1" dataDxfId="133"/>
+    <tableColumn id="6" xr3:uid="{8C90C787-B669-453A-8F0E-A46E3018D380}" name="Parameter 2" dataDxfId="132"/>
+    <tableColumn id="7" xr3:uid="{041FF432-9543-4EE3-A9CF-1500CC344FFA}" name="Parameter 3" dataDxfId="131"/>
+    <tableColumn id="8" xr3:uid="{CDC02AC4-4C95-4220-B404-681CADF416D2}" name="Parameter 4" dataDxfId="130"/>
+    <tableColumn id="14" xr3:uid="{97B53FFA-4984-4D47-817E-8D167978BD8D}" name="Parameter 5" dataDxfId="129"/>
+    <tableColumn id="15" xr3:uid="{823939D4-F4DD-4DB0-89DB-EF0A01ECB48B}" name="Parameter 6" dataDxfId="128"/>
+    <tableColumn id="11" xr3:uid="{20A93856-0EFF-4271-832C-04F7E9AC0A1E}" name="Lower Limit" dataDxfId="127"/>
+    <tableColumn id="12" xr3:uid="{A36F5215-EB9D-448B-AE9F-58A4F8E9D0C7}" name="Upper Limit" dataDxfId="126"/>
+    <tableColumn id="13" xr3:uid="{39173C83-06DA-436D-B107-9D64D97B7F39}" name="Step" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:Q3" totalsRowShown="0" tableBorderDxfId="171">
-  <autoFilter ref="A1:Q3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="17">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="170"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="169"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="168"/>
-    <tableColumn id="10" xr3:uid="{115A314C-6A1B-4509-AD17-EBA48B227F1D}" name="Description" dataDxfId="167"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="166"/>
-    <tableColumn id="16" xr3:uid="{8CA48522-E269-47F7-AB4F-A0B53480306B}" name="Notes" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="165"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="164"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="163"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="162"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="161"/>
-    <tableColumn id="14" xr3:uid="{D27F5CDB-A68A-4129-930A-F29B15C22636}" name="Parameter 5" dataDxfId="160"/>
-    <tableColumn id="15" xr3:uid="{0AB42936-B3F8-4E7C-8152-8CB99EFF7215}" name="Parameter 6" dataDxfId="159"/>
-    <tableColumn id="17" xr3:uid="{A2F41808-5B98-4F78-A6E2-0A2796A552B3}" name="Parameter 7" dataDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{1D961365-C163-4709-AB34-FA18998E1C0C}" name="Lower Limit" dataDxfId="158"/>
-    <tableColumn id="12" xr3:uid="{DD91A285-8CA3-48CC-8B2D-6AD307B1829A}" name="Upper Limit" dataDxfId="157"/>
-    <tableColumn id="13" xr3:uid="{289708CC-2479-44B9-8E21-211759607199}" name="Step" dataDxfId="156"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="124">
+  <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="123"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="121"/>
+    <tableColumn id="10" xr3:uid="{115A314C-6A1B-4509-AD17-EBA48B227F1D}" name="Description" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="118"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="117"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="116"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="115"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="114"/>
+    <tableColumn id="14" xr3:uid="{D27F5CDB-A68A-4129-930A-F29B15C22636}" name="Parameter 5" dataDxfId="113"/>
+    <tableColumn id="15" xr3:uid="{0AB42936-B3F8-4E7C-8152-8CB99EFF7215}" name="Parameter 6" dataDxfId="112"/>
+    <tableColumn id="11" xr3:uid="{1D961365-C163-4709-AB34-FA18998E1C0C}" name="Lower Limit" dataDxfId="111"/>
+    <tableColumn id="12" xr3:uid="{DD91A285-8CA3-48CC-8B2D-6AD307B1829A}" name="Upper Limit" dataDxfId="110"/>
+    <tableColumn id="13" xr3:uid="{289708CC-2479-44B9-8E21-211759607199}" name="Step" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:Q4" totalsRowShown="0" tableBorderDxfId="155">
-  <autoFilter ref="A1:Q4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="17">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="154"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="153"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="152"/>
-    <tableColumn id="10" xr3:uid="{E238511C-0575-407F-83C7-4D6E37CAA1C8}" name="Description" dataDxfId="151"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="150"/>
-    <tableColumn id="16" xr3:uid="{3AF040ED-2D4F-41AD-9714-FE54F686DA23}" name="Notes" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="149"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="148"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="147"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="146"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="145"/>
-    <tableColumn id="14" xr3:uid="{0CCC8750-3EB9-4A09-95AB-3BEC14F064B0}" name="Parameter 5" dataDxfId="144"/>
-    <tableColumn id="15" xr3:uid="{8430512F-5835-4882-88A6-3BDD8313812B}" name="Parameter 6" dataDxfId="143"/>
-    <tableColumn id="17" xr3:uid="{10C1E54A-C737-4956-92E2-EE13E1A7CACC}" name="Parameter 7" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{1D5D06E3-C2FF-4E33-A67E-846C813585DD}" name="Lower Limit" dataDxfId="142"/>
-    <tableColumn id="12" xr3:uid="{59B419A3-4B50-4E25-9295-12F6E479C7C1}" name="Upper Limit" dataDxfId="141"/>
-    <tableColumn id="13" xr3:uid="{B44B2162-0D76-4003-8141-9F91F7CB1D51}" name="Step" dataDxfId="140"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="108">
+  <autoFilter ref="A1:O4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="107"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="105"/>
+    <tableColumn id="10" xr3:uid="{E238511C-0575-407F-83C7-4D6E37CAA1C8}" name="Description" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="98"/>
+    <tableColumn id="14" xr3:uid="{0CCC8750-3EB9-4A09-95AB-3BEC14F064B0}" name="Parameter 5" dataDxfId="97"/>
+    <tableColumn id="15" xr3:uid="{8430512F-5835-4882-88A6-3BDD8313812B}" name="Parameter 6" dataDxfId="96"/>
+    <tableColumn id="11" xr3:uid="{1D5D06E3-C2FF-4E33-A67E-846C813585DD}" name="Lower Limit" dataDxfId="95"/>
+    <tableColumn id="12" xr3:uid="{59B419A3-4B50-4E25-9295-12F6E479C7C1}" name="Upper Limit" dataDxfId="94"/>
+    <tableColumn id="13" xr3:uid="{B44B2162-0D76-4003-8141-9F91F7CB1D51}" name="Step" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:Q4" totalsRowShown="0" tableBorderDxfId="139">
-  <autoFilter ref="A1:Q4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="17">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Internal" dataDxfId="138"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="137"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="136"/>
-    <tableColumn id="10" xr3:uid="{82317EA3-EFA1-4204-866F-27AD4E7F4565}" name="Description" dataDxfId="135"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="134"/>
-    <tableColumn id="16" xr3:uid="{DF03E324-1E5E-4D8E-A1B6-A4B0C189A15A}" name="Notes" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="133"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="132"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="131"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="130"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="129"/>
-    <tableColumn id="14" xr3:uid="{66AAE767-9060-4329-9FA8-8309678C711A}" name="Parameter 5" dataDxfId="128"/>
-    <tableColumn id="15" xr3:uid="{EB2740C5-3F80-408E-8F68-D65D3DE04CB6}" name="Parameter 6" dataDxfId="127"/>
-    <tableColumn id="17" xr3:uid="{E7CBD621-3EAB-410B-B049-AF8ED63D19BF}" name="Parameter 7" dataDxfId="47"/>
-    <tableColumn id="11" xr3:uid="{D8432F00-68F0-499E-8310-7BEAF2D5BFFA}" name="Lower Limit" dataDxfId="126"/>
-    <tableColumn id="12" xr3:uid="{BCED7806-F146-4B52-AF53-D5DE4EBA4D11}" name="Upper Limit" dataDxfId="125"/>
-    <tableColumn id="13" xr3:uid="{A3158C91-CCDA-42BB-98F8-B1415C87FD9F}" name="Step" dataDxfId="124"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="92">
+  <autoFilter ref="A1:O4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Internal" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="89"/>
+    <tableColumn id="10" xr3:uid="{82317EA3-EFA1-4204-866F-27AD4E7F4565}" name="Description" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="85"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="83"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="82"/>
+    <tableColumn id="14" xr3:uid="{66AAE767-9060-4329-9FA8-8309678C711A}" name="Parameter 5" dataDxfId="81"/>
+    <tableColumn id="15" xr3:uid="{EB2740C5-3F80-408E-8F68-D65D3DE04CB6}" name="Parameter 6" dataDxfId="80"/>
+    <tableColumn id="11" xr3:uid="{D8432F00-68F0-499E-8310-7BEAF2D5BFFA}" name="Lower Limit" dataDxfId="79"/>
+    <tableColumn id="12" xr3:uid="{BCED7806-F146-4B52-AF53-D5DE4EBA4D11}" name="Upper Limit" dataDxfId="78"/>
+    <tableColumn id="13" xr3:uid="{A3158C91-CCDA-42BB-98F8-B1415C87FD9F}" name="Step" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:Q6" totalsRowShown="0" headerRowBorderDxfId="123" tableBorderDxfId="122">
-  <autoFilter ref="A1:Q6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="17">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Internal" dataDxfId="121"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="119"/>
-    <tableColumn id="10" xr3:uid="{832C45C5-9E76-4B8A-83B0-2EB32C68E2FD}" name="Description" dataDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="117"/>
-    <tableColumn id="16" xr3:uid="{A76C293E-4F8D-48E8-8E9B-1F8E969B63DA}" name="Notes" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="115"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="114"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="113"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="112"/>
-    <tableColumn id="14" xr3:uid="{1289F8CF-6170-44F2-AD7D-9E9A4F12BCD1}" name="Parameter 5" dataDxfId="111"/>
-    <tableColumn id="15" xr3:uid="{6D5C8F75-1A51-48AD-90E7-17A2F3986BE7}" name="Parameter 6" dataDxfId="110"/>
-    <tableColumn id="17" xr3:uid="{E2911AC1-4B61-46E6-92D6-047FCE0DFBB6}" name="Parameter 7" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{DB8C4311-5A85-4D8D-A5C2-F47C77E8643D}" name="Lower Limit" dataDxfId="109"/>
-    <tableColumn id="12" xr3:uid="{96A08B49-5A79-4F13-BC86-FC5E2B426E49}" name="Upper Limit" dataDxfId="108"/>
-    <tableColumn id="13" xr3:uid="{D4252238-C1B7-4D7A-B8C5-A52164228F94}" name="Step" dataDxfId="107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O6" totalsRowShown="0" headerRowBorderDxfId="76" tableBorderDxfId="75">
+  <autoFilter ref="A1:O6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Internal" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{832C45C5-9E76-4B8A-83B0-2EB32C68E2FD}" name="Description" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="65"/>
+    <tableColumn id="14" xr3:uid="{1289F8CF-6170-44F2-AD7D-9E9A4F12BCD1}" name="Parameter 5" dataDxfId="64"/>
+    <tableColumn id="15" xr3:uid="{6D5C8F75-1A51-48AD-90E7-17A2F3986BE7}" name="Parameter 6" dataDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{DB8C4311-5A85-4D8D-A5C2-F47C77E8643D}" name="Lower Limit" dataDxfId="62"/>
+    <tableColumn id="12" xr3:uid="{96A08B49-5A79-4F13-BC86-FC5E2B426E49}" name="Upper Limit" dataDxfId="61"/>
+    <tableColumn id="13" xr3:uid="{D4252238-C1B7-4D7A-B8C5-A52164228F94}" name="Step" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:Q3" totalsRowShown="0" headerRowBorderDxfId="106" tableBorderDxfId="105">
-  <autoFilter ref="A1:Q3" xr:uid="{C58E5582-2A25-434F-8C6A-2EF9AC741C58}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O3" totalsRowShown="0" headerRowBorderDxfId="59" tableBorderDxfId="58">
+  <autoFilter ref="A1:O3" xr:uid="{C58E5582-2A25-434F-8C6A-2EF9AC741C58}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
     <sortCondition ref="B1:B2"/>
   </sortState>
-  <tableColumns count="17">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Internal" dataDxfId="104"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="102"/>
-    <tableColumn id="10" xr3:uid="{63BA373B-667A-4A36-BB6C-997B9631910B}" name="Description" dataDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="100"/>
-    <tableColumn id="16" xr3:uid="{D3234437-8633-4633-A761-859E090311B3}" name="Notes" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="99"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="98"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="97"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="96"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="95"/>
-    <tableColumn id="14" xr3:uid="{64E7458C-1D65-4712-ABFC-9DAF3D21B670}" name="Parameter 5" dataDxfId="94"/>
-    <tableColumn id="15" xr3:uid="{ABD8345F-8CFE-4FF4-A3F7-F6DB1042FE28}" name="Parameter 6" dataDxfId="93"/>
-    <tableColumn id="17" xr3:uid="{7A8E236B-9AF4-42BB-B2D7-1F94DA03337A}" name="Parameter 7" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{B286B466-1F40-4449-900C-61ACE92313F0}" name="Lower Limit" dataDxfId="92"/>
-    <tableColumn id="12" xr3:uid="{4CAE3350-4ABC-40B6-B059-3A8198700CE1}" name="Upper Limit" dataDxfId="91"/>
-    <tableColumn id="13" xr3:uid="{BC38CFEA-8053-4CB7-B237-C848302F26B7}" name="Step" dataDxfId="90"/>
+  <tableColumns count="15">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Internal" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{63BA373B-667A-4A36-BB6C-997B9631910B}" name="Description" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="48"/>
+    <tableColumn id="14" xr3:uid="{64E7458C-1D65-4712-ABFC-9DAF3D21B670}" name="Parameter 5" dataDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{ABD8345F-8CFE-4FF4-A3F7-F6DB1042FE28}" name="Parameter 6" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{B286B466-1F40-4449-900C-61ACE92313F0}" name="Lower Limit" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{4CAE3350-4ABC-40B6-B059-3A8198700CE1}" name="Upper Limit" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{BC38CFEA-8053-4CB7-B237-C848302F26B7}" name="Step" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4026,10 +3770,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4037,10 +3781,10 @@
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="17" width="15.7109375" customWidth="1"/>
+    <col min="5" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4057,45 +3801,39 @@
         <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
@@ -4109,30 +3847,28 @@
       <c r="E2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="M2" s="15">
+        <v>20</v>
+      </c>
+      <c r="N2" s="15">
+        <v>500</v>
+      </c>
       <c r="O2" s="15">
-        <v>20</v>
-      </c>
-      <c r="P2" s="15">
-        <v>500</v>
-      </c>
-      <c r="Q2" s="15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>31</v>
@@ -4146,51 +3882,49 @@
       <c r="E3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
       <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H2:N3">
-    <cfRule type="expression" dxfId="8" priority="33">
-      <formula>NOT((COLUMN(H2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:N3">
-    <cfRule type="expression" dxfId="7" priority="34">
-      <formula>ISBLANK($G2)</formula>
+  <conditionalFormatting sqref="G2:L3">
+    <cfRule type="expression" dxfId="5" priority="33">
+      <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>ISBLANK($G3)</formula>
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>NOT((COLUMN(A3)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>ISBLANK($G2)</formula>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>NOT((COLUMN(A2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:L3">
+    <cfRule type="expression" dxfId="0" priority="50">
+      <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -4204,10 +3938,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4215,10 +3949,9 @@
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -4243,11 +3976,8 @@
       <c r="H1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -4262,9 +3992,8 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4281,9 +4010,8 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>74</v>
       </c>
@@ -4304,9 +4032,8 @@
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>77</v>
       </c>
@@ -4325,9 +4052,8 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>79</v>
       </c>
@@ -4344,9 +4070,8 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>80</v>
       </c>
@@ -4367,9 +4092,8 @@
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>118</v>
       </c>
@@ -4386,9 +4110,8 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>120</v>
       </c>
@@ -4407,9 +4130,8 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>122</v>
       </c>
@@ -4426,9 +4148,8 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>125</v>
       </c>
@@ -4436,45 +4157,38 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="B12" s="10">
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>72</v>
@@ -4482,7 +4196,6 @@
       <c r="H12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4637,10 +4350,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097870CC-1A0F-461E-BDFD-29BDDFDDF05C}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4648,10 +4361,10 @@
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="17" width="15.7109375" customWidth="1"/>
+    <col min="5" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -4668,43 +4381,37 @@
         <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>113</v>
       </c>
@@ -4720,28 +4427,26 @@
       <c r="E2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="19">
+        <v>10000</v>
+      </c>
+      <c r="N2" s="19">
+        <v>50000000</v>
+      </c>
       <c r="O2" s="19">
         <v>10000</v>
       </c>
-      <c r="P2" s="19">
-        <v>50000000</v>
-      </c>
-      <c r="Q2" s="19">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>114</v>
       </c>
@@ -4757,28 +4462,26 @@
       <c r="E3" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="M3" s="20">
+        <v>10000</v>
+      </c>
+      <c r="N3" s="20">
+        <v>50000000</v>
+      </c>
       <c r="O3" s="20">
         <v>10000</v>
       </c>
-      <c r="P3" s="20">
-        <v>50000000</v>
-      </c>
-      <c r="Q3" s="20">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>115</v>
       </c>
@@ -4794,39 +4497,37 @@
       <c r="E4" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="20">
+        <v>10000</v>
+      </c>
+      <c r="N4" s="20">
+        <v>50000000</v>
+      </c>
       <c r="O4" s="20">
         <v>10000</v>
       </c>
-      <c r="P4" s="20">
-        <v>50000000</v>
-      </c>
-      <c r="Q4" s="20">
-        <v>10000</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:N4">
-    <cfRule type="expression" dxfId="45" priority="1">
-      <formula>ISBLANK($G2)</formula>
+  <conditionalFormatting sqref="A2:L4">
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="2">
-      <formula>NOT((COLUMN(A2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="41" priority="44">
+      <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{330BE9FB-867A-4350-A3CC-F1598E7F7C5E}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{330BE9FB-867A-4350-A3CC-F1598E7F7C5E}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -4839,19 +4540,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E755C4-38C6-4293-91DA-AE4F2174B63E}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="17" width="15.7109375" customWidth="1"/>
+    <col min="5" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -4868,43 +4571,37 @@
         <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>114</v>
       </c>
@@ -4920,28 +4617,26 @@
       <c r="E2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="19">
+        <v>0</v>
+      </c>
+      <c r="N2" s="19">
+        <v>1</v>
+      </c>
       <c r="O2" s="19">
-        <v>0</v>
-      </c>
-      <c r="P2" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>114</v>
       </c>
@@ -4957,28 +4652,26 @@
       <c r="E3" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="20">
+        <v>0</v>
+      </c>
+      <c r="N3" s="20">
+        <v>1</v>
+      </c>
       <c r="O3" s="20">
-        <v>0</v>
-      </c>
-      <c r="P3" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="20">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>114</v>
       </c>
@@ -4994,28 +4687,26 @@
       <c r="E4" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="19">
+        <v>0</v>
+      </c>
+      <c r="N4" s="19">
+        <v>1</v>
+      </c>
       <c r="O4" s="19">
-        <v>0</v>
-      </c>
-      <c r="P4" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>114</v>
       </c>
@@ -5031,28 +4722,26 @@
       <c r="E5" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="19">
+        <v>0</v>
+      </c>
+      <c r="N5" s="19">
+        <v>1</v>
+      </c>
       <c r="O5" s="19">
-        <v>0</v>
-      </c>
-      <c r="P5" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>114</v>
       </c>
@@ -5068,28 +4757,26 @@
       <c r="E6" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="19">
+        <v>0</v>
+      </c>
+      <c r="N6" s="19">
+        <v>1</v>
+      </c>
       <c r="O6" s="19">
-        <v>0</v>
-      </c>
-      <c r="P6" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>114</v>
       </c>
@@ -5105,28 +4792,26 @@
       <c r="E7" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>1</v>
+      </c>
       <c r="O7" s="19">
-        <v>0</v>
-      </c>
-      <c r="P7" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>114</v>
       </c>
@@ -5142,39 +4827,37 @@
       <c r="E8" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="19">
+        <v>0</v>
+      </c>
+      <c r="N8" s="19">
+        <v>1</v>
+      </c>
       <c r="O8" s="19">
-        <v>0</v>
-      </c>
-      <c r="P8" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="19">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:N8">
-    <cfRule type="expression" dxfId="43" priority="1">
-      <formula>ISBLANK($G2)</formula>
+  <conditionalFormatting sqref="A2:L8">
+    <cfRule type="expression" dxfId="40" priority="45">
+      <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="2">
-      <formula>NOT((COLUMN(A2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="39" priority="46">
+      <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G8" xr:uid="{698F0607-DC03-45F0-A4F2-E36B0A9EB77D}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F8" xr:uid="{698F0607-DC03-45F0-A4F2-E36B0A9EB77D}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -5188,19 +4871,21 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="17" width="15.7109375" customWidth="1"/>
+    <col min="5" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -5217,45 +4902,39 @@
         <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>30</v>
@@ -5269,30 +4948,28 @@
       <c r="E2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>10</v>
+      </c>
       <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>31</v>
@@ -5306,39 +4983,37 @@
       <c r="E3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>10</v>
+      </c>
       <c r="O3" s="13">
-        <v>0</v>
-      </c>
-      <c r="P3" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="13">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:N3">
-    <cfRule type="expression" dxfId="41" priority="33">
-      <formula>ISBLANK($G2)</formula>
+  <conditionalFormatting sqref="A2:L3">
+    <cfRule type="expression" dxfId="38" priority="47">
+      <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="34">
-      <formula>NOT((COLUMN(A2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="37" priority="48">
+      <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -5353,19 +5028,21 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="17" width="15.7109375" customWidth="1"/>
+    <col min="5" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -5382,45 +5059,39 @@
         <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>31</v>
@@ -5434,30 +5105,28 @@
       <c r="E2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>20</v>
+      </c>
       <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>38</v>
@@ -5471,30 +5140,28 @@
       <c r="E3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>20</v>
+      </c>
       <c r="O3" s="10">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>31</v>
@@ -5508,65 +5175,63 @@
       <c r="E4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>48</v>
+      </c>
       <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H2:N4">
-    <cfRule type="expression" dxfId="39" priority="23">
-      <formula>NOT((COLUMN(H2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:N4">
-    <cfRule type="expression" dxfId="38" priority="40">
-      <formula>ISBLANK($G2)</formula>
+  <conditionalFormatting sqref="G2:L4">
+    <cfRule type="expression" dxfId="36" priority="23">
+      <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="37" priority="5">
-      <formula>ISBLANK($G2)</formula>
+    <cfRule type="expression" dxfId="35" priority="5">
+      <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="6">
-      <formula>NOT((COLUMN(A2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="34" priority="6">
+      <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="35" priority="3">
-      <formula>ISBLANK($G3)</formula>
+    <cfRule type="expression" dxfId="33" priority="3">
+      <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="4">
-      <formula>NOT((COLUMN(A3)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="32" priority="4">
+      <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="33" priority="1">
-      <formula>ISBLANK($G4)</formula>
+    <cfRule type="expression" dxfId="31" priority="1">
+      <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="2">
-      <formula>NOT((COLUMN(A4)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="30" priority="2">
+      <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:L4">
+    <cfRule type="expression" dxfId="29" priority="49">
+      <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -5580,10 +5245,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5591,10 +5256,10 @@
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="17" width="15.7109375" customWidth="1"/>
+    <col min="5" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5611,45 +5276,39 @@
         <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>30</v>
@@ -5663,30 +5322,28 @@
       <c r="E2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>10</v>
+      </c>
       <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>43</v>
@@ -5700,30 +5357,28 @@
       <c r="E3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>10000</v>
+      </c>
       <c r="O3" s="10">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10">
-        <v>10000</v>
-      </c>
-      <c r="Q3" s="10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>38</v>
@@ -5737,70 +5392,68 @@
       <c r="E4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>10</v>
+      </c>
       <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="13">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H2:N4">
-    <cfRule type="expression" dxfId="31" priority="25">
-      <formula>NOT((COLUMN(H2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+  <conditionalFormatting sqref="G2:L4">
+    <cfRule type="expression" dxfId="28" priority="25">
+      <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C4 E4:N4 B2:N3">
-    <cfRule type="expression" dxfId="30" priority="38">
-      <formula>ISBLANK($G2)</formula>
+  <conditionalFormatting sqref="B4:C4 E4:L4 B2:L3">
+    <cfRule type="expression" dxfId="27" priority="38">
+      <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="29" priority="7">
-      <formula>ISBLANK($G4)</formula>
+    <cfRule type="expression" dxfId="26" priority="7">
+      <formula>ISBLANK($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="28" priority="5">
-      <formula>ISBLANK($G2)</formula>
+    <cfRule type="expression" dxfId="25" priority="5">
+      <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
-      <formula>NOT((COLUMN(A2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="24" priority="6">
+      <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="26" priority="3">
-      <formula>ISBLANK($G3)</formula>
+    <cfRule type="expression" dxfId="23" priority="3">
+      <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="4">
-      <formula>NOT((COLUMN(A3)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="22" priority="4">
+      <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="24" priority="1">
-      <formula>ISBLANK($G4)</formula>
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="2">
-      <formula>NOT((COLUMN(A4)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -5814,10 +5467,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5825,10 +5478,10 @@
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="17" width="15.7109375" customWidth="1"/>
+    <col min="5" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5845,45 +5498,39 @@
         <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
@@ -5897,30 +5544,28 @@
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>10</v>
+      </c>
       <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>31</v>
@@ -5934,30 +5579,28 @@
       <c r="E3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="M3" s="10">
+        <v>100</v>
+      </c>
+      <c r="N3" s="10">
+        <v>2000</v>
+      </c>
       <c r="O3" s="10">
-        <v>100</v>
-      </c>
-      <c r="P3" s="10">
-        <v>2000</v>
-      </c>
-      <c r="Q3" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>31</v>
@@ -5971,30 +5614,28 @@
       <c r="E4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="M4" s="10">
+        <v>100</v>
+      </c>
+      <c r="N4" s="10">
+        <v>2000</v>
+      </c>
       <c r="O4" s="10">
-        <v>100</v>
-      </c>
-      <c r="P4" s="10">
-        <v>2000</v>
-      </c>
-      <c r="Q4" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>31</v>
@@ -6008,30 +5649,28 @@
       <c r="E5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1</v>
+      </c>
       <c r="O5" s="10">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>38</v>
@@ -6045,91 +5684,89 @@
       <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>10</v>
+      </c>
       <c r="O6" s="13">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="13">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H2:N6">
-    <cfRule type="expression" dxfId="22" priority="33">
-      <formula>NOT((COLUMN(H2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+  <conditionalFormatting sqref="G2:L6">
+    <cfRule type="expression" dxfId="19" priority="33">
+      <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2 E2:N2 B6:C6 E6:N6 B3:N5">
-    <cfRule type="expression" dxfId="21" priority="42">
-      <formula>ISBLANK($G2)</formula>
+  <conditionalFormatting sqref="B2:C2 E2:L2 B6:C6 E6:L6 B3:L5">
+    <cfRule type="expression" dxfId="18" priority="42">
+      <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="20" priority="12">
-      <formula>ISBLANK($G2)</formula>
+    <cfRule type="expression" dxfId="17" priority="12">
+      <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="19" priority="11">
-      <formula>ISBLANK($G6)</formula>
+    <cfRule type="expression" dxfId="16" priority="11">
+      <formula>ISBLANK($F6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="18" priority="9">
-      <formula>ISBLANK($G2)</formula>
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="10">
-      <formula>NOT((COLUMN(A2)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="16" priority="7">
-      <formula>ISBLANK($G3)</formula>
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="8">
-      <formula>NOT((COLUMN(A3)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="14" priority="5">
-      <formula>ISBLANK($G4)</formula>
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6">
-      <formula>NOT((COLUMN(A4)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>ISBLANK($G5)</formula>
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>ISBLANK($F5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="4">
-      <formula>NOT((COLUMN(A5)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G5, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>NOT((COLUMN(A5)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F5, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>ISBLANK($G6)</formula>
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>ISBLANK($F6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>NOT((COLUMN(A6)-COLUMN($G:$G))&lt;=IFERROR(VLOOKUP($G6, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>NOT((COLUMN(A6)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F6, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\EPA\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94096A9C-973A-4A08-9C16-514CFB20D764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A41AE93-BF8E-4E71-81BD-3952684F538B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4353,7 +4353,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\EPA\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A41AE93-BF8E-4E71-81BD-3952684F538B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7162408C-DA9D-47CF-9E0D-071FAC8BF6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,8 +25,8 @@
     <sheet name="Cost per Parameter" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="Validation_Distribution_Parameter_Count">'Internal - Data Validation'!$A$2:$B$12</definedName>
-    <definedName name="Validation_Distribution_Types">'Internal - Data Validation'!$A$2:$A$12</definedName>
+    <definedName name="Validation_Distribution_Parameter_Count">'Internal - Data Validation'!$A$2:$B$11</definedName>
+    <definedName name="Validation_Distribution_Types">'Internal - Data Validation'!$A$2:$A$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="134">
   <si>
     <t>SCWAD</t>
   </si>
@@ -267,27 +267,15 @@
     <t>Max (b)</t>
   </si>
   <si>
-    <t>TruncatedNormal</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
     <t>Std</t>
   </si>
   <si>
-    <t>PERT</t>
-  </si>
-  <si>
     <t>Mode</t>
   </si>
   <si>
-    <t>LogUniform</t>
-  </si>
-  <si>
-    <t>TruncatedLogNormal</t>
-  </si>
-  <si>
     <t>Parameter 1</t>
   </si>
   <si>
@@ -399,33 +387,15 @@
     <t>The total underground surface area contaminated</t>
   </si>
   <si>
-    <t>Lognormal</t>
-  </si>
-  <si>
     <t>Std Dev</t>
   </si>
   <si>
-    <t>Triang</t>
-  </si>
-  <si>
-    <t>Peak (c)</t>
-  </si>
-  <si>
-    <t>WeibullMin</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
     <t>Lambda</t>
   </si>
   <si>
-    <t>UniformXDependent</t>
-  </si>
-  <si>
-    <t>BimodalTruncatedNormal</t>
-  </si>
-  <si>
     <t>Mean 1</t>
   </si>
   <si>
@@ -451,6 +421,30 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Truncated Normal</t>
+  </si>
+  <si>
+    <t>Beta PERT</t>
+  </si>
+  <si>
+    <t>Log Uniform</t>
+  </si>
+  <si>
+    <t>Truncated Log Normal</t>
+  </si>
+  <si>
+    <t>Log Normal</t>
+  </si>
+  <si>
+    <t>Weibull</t>
+  </si>
+  <si>
+    <t>Uniform X Dependent</t>
+  </si>
+  <si>
+    <t>Bimodal Truncated Normal</t>
   </si>
 </sst>
 </file>
@@ -3773,7 +3767,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3804,22 +3798,22 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>62</v>
@@ -3833,7 +3827,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
@@ -3868,19 +3862,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>3</v>
@@ -3891,9 +3885,15 @@
       <c r="J3" s="14"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="M3" s="13">
+        <v>20</v>
+      </c>
+      <c r="N3" s="13">
+        <v>500</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3938,10 +3938,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="B4" s="10">
         <v>4</v>
@@ -4025,17 +4025,17 @@
         <v>73</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B5" s="10">
         <v>3</v>
@@ -4047,7 +4047,7 @@
         <v>73</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="B6" s="10">
         <v>2</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B7" s="10">
         <v>4</v>
@@ -4085,26 +4085,26 @@
         <v>73</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B8" s="10">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -4113,30 +4113,28 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B9" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>121</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B10" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>123</v>
@@ -4144,56 +4142,38 @@
       <c r="D10" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B11" s="10">
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="10">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4353,7 +4333,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4366,7 +4346,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>26</v>
@@ -4384,22 +4364,22 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>62</v>
@@ -4413,19 +4393,19 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -4448,19 +4428,19 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>94</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>3</v>
@@ -4483,19 +4463,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>3</v>
@@ -4556,7 +4536,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>26</v>
@@ -4574,22 +4554,22 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>62</v>
@@ -4603,19 +4583,19 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -4638,19 +4618,19 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>3</v>
@@ -4673,19 +4653,19 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>3</v>
@@ -4708,19 +4688,19 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>3</v>
@@ -4743,19 +4723,19 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>3</v>
@@ -4778,19 +4758,19 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>3</v>
@@ -4813,19 +4793,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>3</v>
@@ -4874,7 +4854,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4887,7 +4867,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>26</v>
@@ -4905,22 +4885,22 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>62</v>
@@ -4934,7 +4914,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>30</v>
@@ -4969,7 +4949,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>31</v>
@@ -5031,7 +5011,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5044,7 +5024,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>26</v>
@@ -5062,22 +5042,22 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>62</v>
@@ -5091,7 +5071,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>31</v>
@@ -5126,7 +5106,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>38</v>
@@ -5161,7 +5141,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>31</v>
@@ -5279,22 +5259,22 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>62</v>
@@ -5308,7 +5288,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>30</v>
@@ -5343,7 +5323,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>43</v>
@@ -5378,7 +5358,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>38</v>
@@ -5470,7 +5450,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5501,22 +5481,22 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>62</v>
@@ -5530,7 +5510,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
@@ -5565,7 +5545,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>31</v>
@@ -5600,7 +5580,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>31</v>
@@ -5635,7 +5615,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>31</v>
@@ -5670,7 +5650,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>38</v>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\EPA\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7162408C-DA9D-47CF-9E0D-071FAC8BF6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECDA499-C501-4310-B781-4DCEEFFE3E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -728,6 +728,332 @@
   </cellStyles>
   <dxfs count="157">
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -782,6 +1108,342 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -904,6 +1566,306 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -983,6 +1945,306 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1055,6 +2317,302 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1073,6 +2631,302 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1091,6 +2945,302 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1107,2156 +3257,6 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3272,171 +3272,171 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="154">
   <autoFilter ref="A1:O4" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="155"/>
-    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="153"/>
-    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="152"/>
-    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="150"/>
-    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="149"/>
-    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="148"/>
-    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="147"/>
-    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="146"/>
-    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="145"/>
-    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="144"/>
-    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="143"/>
-    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="142"/>
-    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="141"/>
+    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="153"/>
+    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="151"/>
+    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="150"/>
+    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="149"/>
+    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="148"/>
+    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="147"/>
+    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="146"/>
+    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="145"/>
+    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="144"/>
+    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="143"/>
+    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="142"/>
+    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="141"/>
+    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="140"/>
+    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="139"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B77B7895-2678-4EA1-91B2-B6248E05AA0A}" name="Table156810" displayName="Table156810" ref="A1:O8" totalsRowShown="0" tableBorderDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B77B7895-2678-4EA1-91B2-B6248E05AA0A}" name="Table156810" displayName="Table156810" ref="A1:O8" totalsRowShown="0" tableBorderDxfId="136">
   <autoFilter ref="A1:O8" xr:uid="{60C5A2AF-4D3E-4976-AA8F-8961FE4EE49E}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{DF77AA95-0523-4660-B964-676ECCB79418}" name="Phase" dataDxfId="139"/>
-    <tableColumn id="1" xr3:uid="{423292BC-9F1E-4EDC-9CC2-9890D4B1F00A}" name="Category" dataDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{916CDEF4-7288-42C6-AD00-C6D0D8F8D560}" name="Name" dataDxfId="137"/>
-    <tableColumn id="10" xr3:uid="{C69B0C1F-B3A6-4CB4-B855-8A573BA536A2}" name="Description" dataDxfId="136"/>
-    <tableColumn id="3" xr3:uid="{23E3372F-48DE-4E64-88D3-C7EE1A32F34A}" name="Units" dataDxfId="135"/>
-    <tableColumn id="4" xr3:uid="{9D790DCF-5822-477B-8DCC-93F90CAB183B}" name="Distribution Type" dataDxfId="134"/>
-    <tableColumn id="5" xr3:uid="{337DB99B-F988-4680-87F5-A4BCFAF1A3C2}" name="Parameter 1" dataDxfId="133"/>
-    <tableColumn id="6" xr3:uid="{8C90C787-B669-453A-8F0E-A46E3018D380}" name="Parameter 2" dataDxfId="132"/>
-    <tableColumn id="7" xr3:uid="{041FF432-9543-4EE3-A9CF-1500CC344FFA}" name="Parameter 3" dataDxfId="131"/>
-    <tableColumn id="8" xr3:uid="{CDC02AC4-4C95-4220-B404-681CADF416D2}" name="Parameter 4" dataDxfId="130"/>
-    <tableColumn id="14" xr3:uid="{97B53FFA-4984-4D47-817E-8D167978BD8D}" name="Parameter 5" dataDxfId="129"/>
-    <tableColumn id="15" xr3:uid="{823939D4-F4DD-4DB0-89DB-EF0A01ECB48B}" name="Parameter 6" dataDxfId="128"/>
-    <tableColumn id="11" xr3:uid="{20A93856-0EFF-4271-832C-04F7E9AC0A1E}" name="Lower Limit" dataDxfId="127"/>
-    <tableColumn id="12" xr3:uid="{A36F5215-EB9D-448B-AE9F-58A4F8E9D0C7}" name="Upper Limit" dataDxfId="126"/>
-    <tableColumn id="13" xr3:uid="{39173C83-06DA-436D-B107-9D64D97B7F39}" name="Step" dataDxfId="125"/>
+    <tableColumn id="9" xr3:uid="{DF77AA95-0523-4660-B964-676ECCB79418}" name="Phase" dataDxfId="135"/>
+    <tableColumn id="1" xr3:uid="{423292BC-9F1E-4EDC-9CC2-9890D4B1F00A}" name="Category" dataDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{916CDEF4-7288-42C6-AD00-C6D0D8F8D560}" name="Name" dataDxfId="133"/>
+    <tableColumn id="10" xr3:uid="{C69B0C1F-B3A6-4CB4-B855-8A573BA536A2}" name="Description" dataDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{23E3372F-48DE-4E64-88D3-C7EE1A32F34A}" name="Units" dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{9D790DCF-5822-477B-8DCC-93F90CAB183B}" name="Distribution Type" dataDxfId="130"/>
+    <tableColumn id="5" xr3:uid="{337DB99B-F988-4680-87F5-A4BCFAF1A3C2}" name="Parameter 1" dataDxfId="129"/>
+    <tableColumn id="6" xr3:uid="{8C90C787-B669-453A-8F0E-A46E3018D380}" name="Parameter 2" dataDxfId="128"/>
+    <tableColumn id="7" xr3:uid="{041FF432-9543-4EE3-A9CF-1500CC344FFA}" name="Parameter 3" dataDxfId="127"/>
+    <tableColumn id="8" xr3:uid="{CDC02AC4-4C95-4220-B404-681CADF416D2}" name="Parameter 4" dataDxfId="126"/>
+    <tableColumn id="14" xr3:uid="{97B53FFA-4984-4D47-817E-8D167978BD8D}" name="Parameter 5" dataDxfId="125"/>
+    <tableColumn id="15" xr3:uid="{823939D4-F4DD-4DB0-89DB-EF0A01ECB48B}" name="Parameter 6" dataDxfId="124"/>
+    <tableColumn id="11" xr3:uid="{20A93856-0EFF-4271-832C-04F7E9AC0A1E}" name="Lower Limit" dataDxfId="123"/>
+    <tableColumn id="12" xr3:uid="{A36F5215-EB9D-448B-AE9F-58A4F8E9D0C7}" name="Upper Limit" dataDxfId="122"/>
+    <tableColumn id="13" xr3:uid="{39173C83-06DA-436D-B107-9D64D97B7F39}" name="Step" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="118">
   <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="123"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="121"/>
-    <tableColumn id="10" xr3:uid="{115A314C-6A1B-4509-AD17-EBA48B227F1D}" name="Description" dataDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="118"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="117"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="116"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="115"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="114"/>
-    <tableColumn id="14" xr3:uid="{D27F5CDB-A68A-4129-930A-F29B15C22636}" name="Parameter 5" dataDxfId="113"/>
-    <tableColumn id="15" xr3:uid="{0AB42936-B3F8-4E7C-8152-8CB99EFF7215}" name="Parameter 6" dataDxfId="112"/>
-    <tableColumn id="11" xr3:uid="{1D961365-C163-4709-AB34-FA18998E1C0C}" name="Lower Limit" dataDxfId="111"/>
-    <tableColumn id="12" xr3:uid="{DD91A285-8CA3-48CC-8B2D-6AD307B1829A}" name="Upper Limit" dataDxfId="110"/>
-    <tableColumn id="13" xr3:uid="{289708CC-2479-44B9-8E21-211759607199}" name="Step" dataDxfId="109"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="117"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="115"/>
+    <tableColumn id="10" xr3:uid="{115A314C-6A1B-4509-AD17-EBA48B227F1D}" name="Description" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="111"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="110"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="109"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="108"/>
+    <tableColumn id="14" xr3:uid="{D27F5CDB-A68A-4129-930A-F29B15C22636}" name="Parameter 5" dataDxfId="107"/>
+    <tableColumn id="15" xr3:uid="{0AB42936-B3F8-4E7C-8152-8CB99EFF7215}" name="Parameter 6" dataDxfId="106"/>
+    <tableColumn id="11" xr3:uid="{1D961365-C163-4709-AB34-FA18998E1C0C}" name="Lower Limit" dataDxfId="105"/>
+    <tableColumn id="12" xr3:uid="{DD91A285-8CA3-48CC-8B2D-6AD307B1829A}" name="Upper Limit" dataDxfId="104"/>
+    <tableColumn id="13" xr3:uid="{289708CC-2479-44B9-8E21-211759607199}" name="Step" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="94">
   <autoFilter ref="A1:O4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="107"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="105"/>
-    <tableColumn id="10" xr3:uid="{E238511C-0575-407F-83C7-4D6E37CAA1C8}" name="Description" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="98"/>
-    <tableColumn id="14" xr3:uid="{0CCC8750-3EB9-4A09-95AB-3BEC14F064B0}" name="Parameter 5" dataDxfId="97"/>
-    <tableColumn id="15" xr3:uid="{8430512F-5835-4882-88A6-3BDD8313812B}" name="Parameter 6" dataDxfId="96"/>
-    <tableColumn id="11" xr3:uid="{1D5D06E3-C2FF-4E33-A67E-846C813585DD}" name="Lower Limit" dataDxfId="95"/>
-    <tableColumn id="12" xr3:uid="{59B419A3-4B50-4E25-9295-12F6E479C7C1}" name="Upper Limit" dataDxfId="94"/>
-    <tableColumn id="13" xr3:uid="{B44B2162-0D76-4003-8141-9F91F7CB1D51}" name="Step" dataDxfId="93"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="91"/>
+    <tableColumn id="10" xr3:uid="{E238511C-0575-407F-83C7-4D6E37CAA1C8}" name="Description" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="84"/>
+    <tableColumn id="14" xr3:uid="{0CCC8750-3EB9-4A09-95AB-3BEC14F064B0}" name="Parameter 5" dataDxfId="83"/>
+    <tableColumn id="15" xr3:uid="{8430512F-5835-4882-88A6-3BDD8313812B}" name="Parameter 6" dataDxfId="82"/>
+    <tableColumn id="11" xr3:uid="{1D5D06E3-C2FF-4E33-A67E-846C813585DD}" name="Lower Limit" dataDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{59B419A3-4B50-4E25-9295-12F6E479C7C1}" name="Upper Limit" dataDxfId="80"/>
+    <tableColumn id="13" xr3:uid="{B44B2162-0D76-4003-8141-9F91F7CB1D51}" name="Step" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="69">
   <autoFilter ref="A1:O4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Internal" dataDxfId="91"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="89"/>
-    <tableColumn id="10" xr3:uid="{82317EA3-EFA1-4204-866F-27AD4E7F4565}" name="Description" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="83"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="82"/>
-    <tableColumn id="14" xr3:uid="{66AAE767-9060-4329-9FA8-8309678C711A}" name="Parameter 5" dataDxfId="81"/>
-    <tableColumn id="15" xr3:uid="{EB2740C5-3F80-408E-8F68-D65D3DE04CB6}" name="Parameter 6" dataDxfId="80"/>
-    <tableColumn id="11" xr3:uid="{D8432F00-68F0-499E-8310-7BEAF2D5BFFA}" name="Lower Limit" dataDxfId="79"/>
-    <tableColumn id="12" xr3:uid="{BCED7806-F146-4B52-AF53-D5DE4EBA4D11}" name="Upper Limit" dataDxfId="78"/>
-    <tableColumn id="13" xr3:uid="{A3158C91-CCDA-42BB-98F8-B1415C87FD9F}" name="Step" dataDxfId="77"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Internal" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{82317EA3-EFA1-4204-866F-27AD4E7F4565}" name="Description" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="59"/>
+    <tableColumn id="14" xr3:uid="{66AAE767-9060-4329-9FA8-8309678C711A}" name="Parameter 5" dataDxfId="58"/>
+    <tableColumn id="15" xr3:uid="{EB2740C5-3F80-408E-8F68-D65D3DE04CB6}" name="Parameter 6" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{D8432F00-68F0-499E-8310-7BEAF2D5BFFA}" name="Lower Limit" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{BCED7806-F146-4B52-AF53-D5DE4EBA4D11}" name="Upper Limit" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{A3158C91-CCDA-42BB-98F8-B1415C87FD9F}" name="Step" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O6" totalsRowShown="0" headerRowBorderDxfId="76" tableBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O6" totalsRowShown="0" headerRowBorderDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="A1:O6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Internal" dataDxfId="74"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{832C45C5-9E76-4B8A-83B0-2EB32C68E2FD}" name="Description" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="65"/>
-    <tableColumn id="14" xr3:uid="{1289F8CF-6170-44F2-AD7D-9E9A4F12BCD1}" name="Parameter 5" dataDxfId="64"/>
-    <tableColumn id="15" xr3:uid="{6D5C8F75-1A51-48AD-90E7-17A2F3986BE7}" name="Parameter 6" dataDxfId="63"/>
-    <tableColumn id="11" xr3:uid="{DB8C4311-5A85-4D8D-A5C2-F47C77E8643D}" name="Lower Limit" dataDxfId="62"/>
-    <tableColumn id="12" xr3:uid="{96A08B49-5A79-4F13-BC86-FC5E2B426E49}" name="Upper Limit" dataDxfId="61"/>
-    <tableColumn id="13" xr3:uid="{D4252238-C1B7-4D7A-B8C5-A52164228F94}" name="Step" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Internal" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{832C45C5-9E76-4B8A-83B0-2EB32C68E2FD}" name="Description" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{1289F8CF-6170-44F2-AD7D-9E9A4F12BCD1}" name="Parameter 5" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{6D5C8F75-1A51-48AD-90E7-17A2F3986BE7}" name="Parameter 6" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{DB8C4311-5A85-4D8D-A5C2-F47C77E8643D}" name="Lower Limit" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{96A08B49-5A79-4F13-BC86-FC5E2B426E49}" name="Upper Limit" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{D4252238-C1B7-4D7A-B8C5-A52164228F94}" name="Step" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O3" totalsRowShown="0" headerRowBorderDxfId="59" tableBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O3" totalsRowShown="0" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A1:O3" xr:uid="{C58E5582-2A25-434F-8C6A-2EF9AC741C58}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
     <sortCondition ref="B1:B2"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Internal" dataDxfId="57"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{63BA373B-667A-4A36-BB6C-997B9631910B}" name="Description" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="48"/>
-    <tableColumn id="14" xr3:uid="{64E7458C-1D65-4712-ABFC-9DAF3D21B670}" name="Parameter 5" dataDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{ABD8345F-8CFE-4FF4-A3F7-F6DB1042FE28}" name="Parameter 6" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{B286B466-1F40-4449-900C-61ACE92313F0}" name="Lower Limit" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{4CAE3350-4ABC-40B6-B059-3A8198700CE1}" name="Upper Limit" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{BC38CFEA-8053-4CB7-B237-C848302F26B7}" name="Step" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Internal" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{63BA373B-667A-4A36-BB6C-997B9631910B}" name="Description" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{64E7458C-1D65-4712-ABFC-9DAF3D21B670}" name="Parameter 5" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{ABD8345F-8CFE-4FF4-A3F7-F6DB1042FE28}" name="Parameter 6" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{B286B466-1F40-4449-900C-61ACE92313F0}" name="Lower Limit" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{4CAE3350-4ABC-40B6-B059-3A8198700CE1}" name="Upper Limit" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{BC38CFEA-8053-4CB7-B237-C848302F26B7}" name="Step" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3767,7 +3767,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3898,28 +3898,28 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L3">
-    <cfRule type="expression" dxfId="5" priority="33">
+    <cfRule type="expression" dxfId="22" priority="33">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L3">
-    <cfRule type="expression" dxfId="0" priority="50">
+    <cfRule type="expression" dxfId="17" priority="50">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4332,8 +4332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097870CC-1A0F-461E-BDFD-29BDDFDDF05C}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4499,10 +4499,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L4">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="156" priority="43">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="44">
+    <cfRule type="expression" dxfId="155" priority="44">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4523,7 +4523,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4600,7 +4600,9 @@
       <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
@@ -4635,7 +4637,9 @@
       <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="13">
+        <v>0.5</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="14"/>
@@ -4670,7 +4674,9 @@
       <c r="F4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="13">
+        <v>0.5</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
@@ -4705,7 +4711,9 @@
       <c r="F5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="14"/>
@@ -4740,7 +4748,9 @@
       <c r="F6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="14"/>
@@ -4775,7 +4785,9 @@
       <c r="F7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="14"/>
@@ -4810,7 +4822,9 @@
       <c r="F8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="14"/>
@@ -4829,10 +4843,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L8">
-    <cfRule type="expression" dxfId="40" priority="45">
+    <cfRule type="expression" dxfId="138" priority="45">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="46">
+    <cfRule type="expression" dxfId="137" priority="46">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4854,7 +4868,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4985,10 +4999,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L3">
-    <cfRule type="expression" dxfId="38" priority="47">
+    <cfRule type="expression" dxfId="120" priority="47">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="48">
+    <cfRule type="expression" dxfId="119" priority="48">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5010,8 +5024,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5177,36 +5191,36 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L4">
-    <cfRule type="expression" dxfId="36" priority="23">
+    <cfRule type="expression" dxfId="102" priority="23">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="35" priority="5">
+    <cfRule type="expression" dxfId="101" priority="5">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="6">
+    <cfRule type="expression" dxfId="100" priority="6">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="99" priority="3">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="98" priority="4">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="97" priority="1">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="96" priority="2">
       <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L4">
-    <cfRule type="expression" dxfId="29" priority="49">
+    <cfRule type="expression" dxfId="95" priority="49">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5394,41 +5408,41 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L4">
-    <cfRule type="expression" dxfId="28" priority="25">
+    <cfRule type="expression" dxfId="78" priority="25">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4 E4:L4 B2:L3">
-    <cfRule type="expression" dxfId="27" priority="38">
+    <cfRule type="expression" dxfId="77" priority="38">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="26" priority="7">
+    <cfRule type="expression" dxfId="76" priority="7">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="75" priority="5">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" dxfId="74" priority="6">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="73" priority="3">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="72" priority="4">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5686,62 +5700,62 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L6">
-    <cfRule type="expression" dxfId="19" priority="33">
+    <cfRule type="expression" dxfId="53" priority="33">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 E2:L2 B6:C6 E6:L6 B3:L5">
-    <cfRule type="expression" dxfId="18" priority="42">
+    <cfRule type="expression" dxfId="52" priority="42">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="17" priority="12">
+    <cfRule type="expression" dxfId="51" priority="12">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="50" priority="11">
       <formula>ISBLANK($F6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="49" priority="9">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="48" priority="10">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="47" priority="7">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="46" priority="8">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="45" priority="5">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="44" priority="6">
       <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="43" priority="3">
       <formula>ISBLANK($F5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>NOT((COLUMN(A5)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F5, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>ISBLANK($F6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>NOT((COLUMN(A6)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F6, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\EPA\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECDA499-C501-4310-B781-4DCEEFFE3E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB44E50B-0751-4470-ABC6-D38B0F8931C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="649" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="149">
   <si>
     <t>SCWAD</t>
   </si>
@@ -445,6 +445,51 @@
   </si>
   <si>
     <t>Bimodal Truncated Normal</t>
+  </si>
+  <si>
+    <t>Exterior Contamination Loading</t>
+  </si>
+  <si>
+    <t>Indoor Contamination Loading</t>
+  </si>
+  <si>
+    <t>The severity of contamination on outdoor surfaces</t>
+  </si>
+  <si>
+    <t>The severity of contamination on indoor surfaces</t>
+  </si>
+  <si>
+    <t>Underground Contamination Loading</t>
+  </si>
+  <si>
+    <t>The severity of contamination on underground surfaces</t>
+  </si>
+  <si>
+    <t>Contamination Multiplier</t>
+  </si>
+  <si>
+    <t>Multiplier utilized to determine total loading in a residential building</t>
+  </si>
+  <si>
+    <t>Multiplier utilized to determine total loading in a commercial building</t>
+  </si>
+  <si>
+    <t>Multiplier utilized to determine total loading in a industrial building</t>
+  </si>
+  <si>
+    <t>Multiplier utilized to determine total loading in a agricultural building</t>
+  </si>
+  <si>
+    <t>Multiplier utilized to determine total loading in a religious building</t>
+  </si>
+  <si>
+    <t>Multiplier utilized to determine total loading in a government building</t>
+  </si>
+  <si>
+    <t>Multiplier utilized to determine total loading in a educational building</t>
+  </si>
+  <si>
+    <t>log(pfu / m^2)</t>
   </si>
 </sst>
 </file>
@@ -699,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -721,73 +766,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="157">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
+  <dxfs count="171">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
@@ -800,7 +840,9 @@
         </left>
         <right/>
         <top/>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -812,7 +854,9 @@
         </left>
         <right/>
         <top/>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -829,119 +873,107 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
@@ -955,7 +987,9 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -977,31 +1011,7 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
+        <vertical/>
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
@@ -1019,9 +1029,25 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
@@ -1042,23 +1068,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1108,340 +1117,11 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1516,6 +1196,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1534,27 +1221,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1566,304 +1232,11 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1877,13 +1250,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1920,20 +1286,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1945,306 +1297,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -2288,6 +1340,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -2299,13 +1372,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -2317,300 +1383,11 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2631,302 +1408,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -2945,300 +1426,18 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3257,6 +1456,1979 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3272,171 +3444,171 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="154">
-  <autoFilter ref="A1:O4" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O7" totalsRowShown="0" tableBorderDxfId="170">
+  <autoFilter ref="A1:O7" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="153"/>
-    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="152"/>
-    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="151"/>
-    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="150"/>
-    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="149"/>
-    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="148"/>
-    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="147"/>
-    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="146"/>
-    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="145"/>
-    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="144"/>
-    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="143"/>
-    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="142"/>
-    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="141"/>
-    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="140"/>
-    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="139"/>
+    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="169"/>
+    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="168"/>
+    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="167"/>
+    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="166"/>
+    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="165"/>
+    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="164"/>
+    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="163"/>
+    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="162"/>
+    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="161"/>
+    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="160"/>
+    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="159"/>
+    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="158"/>
+    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="157"/>
+    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="156"/>
+    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="155"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B77B7895-2678-4EA1-91B2-B6248E05AA0A}" name="Table156810" displayName="Table156810" ref="A1:O8" totalsRowShown="0" tableBorderDxfId="136">
-  <autoFilter ref="A1:O8" xr:uid="{60C5A2AF-4D3E-4976-AA8F-8961FE4EE49E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B77B7895-2678-4EA1-91B2-B6248E05AA0A}" name="Table156810" displayName="Table156810" ref="A1:O15" totalsRowShown="0" tableBorderDxfId="15">
+  <autoFilter ref="A1:O15" xr:uid="{60C5A2AF-4D3E-4976-AA8F-8961FE4EE49E}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{DF77AA95-0523-4660-B964-676ECCB79418}" name="Phase" dataDxfId="135"/>
-    <tableColumn id="1" xr3:uid="{423292BC-9F1E-4EDC-9CC2-9890D4B1F00A}" name="Category" dataDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{916CDEF4-7288-42C6-AD00-C6D0D8F8D560}" name="Name" dataDxfId="133"/>
-    <tableColumn id="10" xr3:uid="{C69B0C1F-B3A6-4CB4-B855-8A573BA536A2}" name="Description" dataDxfId="132"/>
-    <tableColumn id="3" xr3:uid="{23E3372F-48DE-4E64-88D3-C7EE1A32F34A}" name="Units" dataDxfId="131"/>
-    <tableColumn id="4" xr3:uid="{9D790DCF-5822-477B-8DCC-93F90CAB183B}" name="Distribution Type" dataDxfId="130"/>
-    <tableColumn id="5" xr3:uid="{337DB99B-F988-4680-87F5-A4BCFAF1A3C2}" name="Parameter 1" dataDxfId="129"/>
-    <tableColumn id="6" xr3:uid="{8C90C787-B669-453A-8F0E-A46E3018D380}" name="Parameter 2" dataDxfId="128"/>
-    <tableColumn id="7" xr3:uid="{041FF432-9543-4EE3-A9CF-1500CC344FFA}" name="Parameter 3" dataDxfId="127"/>
-    <tableColumn id="8" xr3:uid="{CDC02AC4-4C95-4220-B404-681CADF416D2}" name="Parameter 4" dataDxfId="126"/>
-    <tableColumn id="14" xr3:uid="{97B53FFA-4984-4D47-817E-8D167978BD8D}" name="Parameter 5" dataDxfId="125"/>
-    <tableColumn id="15" xr3:uid="{823939D4-F4DD-4DB0-89DB-EF0A01ECB48B}" name="Parameter 6" dataDxfId="124"/>
-    <tableColumn id="11" xr3:uid="{20A93856-0EFF-4271-832C-04F7E9AC0A1E}" name="Lower Limit" dataDxfId="123"/>
-    <tableColumn id="12" xr3:uid="{A36F5215-EB9D-448B-AE9F-58A4F8E9D0C7}" name="Upper Limit" dataDxfId="122"/>
-    <tableColumn id="13" xr3:uid="{39173C83-06DA-436D-B107-9D64D97B7F39}" name="Step" dataDxfId="121"/>
+    <tableColumn id="9" xr3:uid="{DF77AA95-0523-4660-B964-676ECCB79418}" name="Phase" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{423292BC-9F1E-4EDC-9CC2-9890D4B1F00A}" name="Category" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{916CDEF4-7288-42C6-AD00-C6D0D8F8D560}" name="Name" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{C69B0C1F-B3A6-4CB4-B855-8A573BA536A2}" name="Description" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{23E3372F-48DE-4E64-88D3-C7EE1A32F34A}" name="Units" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{9D790DCF-5822-477B-8DCC-93F90CAB183B}" name="Distribution Type" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{337DB99B-F988-4680-87F5-A4BCFAF1A3C2}" name="Parameter 1" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{8C90C787-B669-453A-8F0E-A46E3018D380}" name="Parameter 2" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{041FF432-9543-4EE3-A9CF-1500CC344FFA}" name="Parameter 3" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{CDC02AC4-4C95-4220-B404-681CADF416D2}" name="Parameter 4" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{97B53FFA-4984-4D47-817E-8D167978BD8D}" name="Parameter 5" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{823939D4-F4DD-4DB0-89DB-EF0A01ECB48B}" name="Parameter 6" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{20A93856-0EFF-4271-832C-04F7E9AC0A1E}" name="Lower Limit" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{A36F5215-EB9D-448B-AE9F-58A4F8E9D0C7}" name="Upper Limit" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{39173C83-06DA-436D-B107-9D64D97B7F39}" name="Step" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="154">
   <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="117"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="116"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="115"/>
-    <tableColumn id="10" xr3:uid="{115A314C-6A1B-4509-AD17-EBA48B227F1D}" name="Description" dataDxfId="114"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="113"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="112"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="111"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="110"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="108"/>
-    <tableColumn id="14" xr3:uid="{D27F5CDB-A68A-4129-930A-F29B15C22636}" name="Parameter 5" dataDxfId="107"/>
-    <tableColumn id="15" xr3:uid="{0AB42936-B3F8-4E7C-8152-8CB99EFF7215}" name="Parameter 6" dataDxfId="106"/>
-    <tableColumn id="11" xr3:uid="{1D961365-C163-4709-AB34-FA18998E1C0C}" name="Lower Limit" dataDxfId="105"/>
-    <tableColumn id="12" xr3:uid="{DD91A285-8CA3-48CC-8B2D-6AD307B1829A}" name="Upper Limit" dataDxfId="104"/>
-    <tableColumn id="13" xr3:uid="{289708CC-2479-44B9-8E21-211759607199}" name="Step" dataDxfId="103"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="153"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="151"/>
+    <tableColumn id="10" xr3:uid="{115A314C-6A1B-4509-AD17-EBA48B227F1D}" name="Description" dataDxfId="150"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="149"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="148"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="147"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="146"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="145"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="144"/>
+    <tableColumn id="14" xr3:uid="{D27F5CDB-A68A-4129-930A-F29B15C22636}" name="Parameter 5" dataDxfId="143"/>
+    <tableColumn id="15" xr3:uid="{0AB42936-B3F8-4E7C-8152-8CB99EFF7215}" name="Parameter 6" dataDxfId="142"/>
+    <tableColumn id="11" xr3:uid="{1D961365-C163-4709-AB34-FA18998E1C0C}" name="Lower Limit" dataDxfId="141"/>
+    <tableColumn id="12" xr3:uid="{DD91A285-8CA3-48CC-8B2D-6AD307B1829A}" name="Upper Limit" dataDxfId="140"/>
+    <tableColumn id="13" xr3:uid="{289708CC-2479-44B9-8E21-211759607199}" name="Step" dataDxfId="139"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="138">
   <autoFilter ref="A1:O4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="93"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="91"/>
-    <tableColumn id="10" xr3:uid="{E238511C-0575-407F-83C7-4D6E37CAA1C8}" name="Description" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="84"/>
-    <tableColumn id="14" xr3:uid="{0CCC8750-3EB9-4A09-95AB-3BEC14F064B0}" name="Parameter 5" dataDxfId="83"/>
-    <tableColumn id="15" xr3:uid="{8430512F-5835-4882-88A6-3BDD8313812B}" name="Parameter 6" dataDxfId="82"/>
-    <tableColumn id="11" xr3:uid="{1D5D06E3-C2FF-4E33-A67E-846C813585DD}" name="Lower Limit" dataDxfId="81"/>
-    <tableColumn id="12" xr3:uid="{59B419A3-4B50-4E25-9295-12F6E479C7C1}" name="Upper Limit" dataDxfId="80"/>
-    <tableColumn id="13" xr3:uid="{B44B2162-0D76-4003-8141-9F91F7CB1D51}" name="Step" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="137"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="136"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="135"/>
+    <tableColumn id="10" xr3:uid="{E238511C-0575-407F-83C7-4D6E37CAA1C8}" name="Description" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="132"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="131"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="130"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="129"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="128"/>
+    <tableColumn id="14" xr3:uid="{0CCC8750-3EB9-4A09-95AB-3BEC14F064B0}" name="Parameter 5" dataDxfId="127"/>
+    <tableColumn id="15" xr3:uid="{8430512F-5835-4882-88A6-3BDD8313812B}" name="Parameter 6" dataDxfId="126"/>
+    <tableColumn id="11" xr3:uid="{1D5D06E3-C2FF-4E33-A67E-846C813585DD}" name="Lower Limit" dataDxfId="125"/>
+    <tableColumn id="12" xr3:uid="{59B419A3-4B50-4E25-9295-12F6E479C7C1}" name="Upper Limit" dataDxfId="124"/>
+    <tableColumn id="13" xr3:uid="{B44B2162-0D76-4003-8141-9F91F7CB1D51}" name="Step" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="122">
   <autoFilter ref="A1:O4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Internal" dataDxfId="68"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{82317EA3-EFA1-4204-866F-27AD4E7F4565}" name="Description" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="59"/>
-    <tableColumn id="14" xr3:uid="{66AAE767-9060-4329-9FA8-8309678C711A}" name="Parameter 5" dataDxfId="58"/>
-    <tableColumn id="15" xr3:uid="{EB2740C5-3F80-408E-8F68-D65D3DE04CB6}" name="Parameter 6" dataDxfId="57"/>
-    <tableColumn id="11" xr3:uid="{D8432F00-68F0-499E-8310-7BEAF2D5BFFA}" name="Lower Limit" dataDxfId="56"/>
-    <tableColumn id="12" xr3:uid="{BCED7806-F146-4B52-AF53-D5DE4EBA4D11}" name="Upper Limit" dataDxfId="55"/>
-    <tableColumn id="13" xr3:uid="{A3158C91-CCDA-42BB-98F8-B1415C87FD9F}" name="Step" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Internal" dataDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="119"/>
+    <tableColumn id="10" xr3:uid="{82317EA3-EFA1-4204-866F-27AD4E7F4565}" name="Description" dataDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="117"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="115"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="113"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="112"/>
+    <tableColumn id="14" xr3:uid="{66AAE767-9060-4329-9FA8-8309678C711A}" name="Parameter 5" dataDxfId="111"/>
+    <tableColumn id="15" xr3:uid="{EB2740C5-3F80-408E-8F68-D65D3DE04CB6}" name="Parameter 6" dataDxfId="110"/>
+    <tableColumn id="11" xr3:uid="{D8432F00-68F0-499E-8310-7BEAF2D5BFFA}" name="Lower Limit" dataDxfId="109"/>
+    <tableColumn id="12" xr3:uid="{BCED7806-F146-4B52-AF53-D5DE4EBA4D11}" name="Upper Limit" dataDxfId="108"/>
+    <tableColumn id="13" xr3:uid="{A3158C91-CCDA-42BB-98F8-B1415C87FD9F}" name="Step" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O6" totalsRowShown="0" headerRowBorderDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O6" totalsRowShown="0" headerRowBorderDxfId="106" tableBorderDxfId="105">
   <autoFilter ref="A1:O6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Internal" dataDxfId="37"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{832C45C5-9E76-4B8A-83B0-2EB32C68E2FD}" name="Description" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{1289F8CF-6170-44F2-AD7D-9E9A4F12BCD1}" name="Parameter 5" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{6D5C8F75-1A51-48AD-90E7-17A2F3986BE7}" name="Parameter 6" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{DB8C4311-5A85-4D8D-A5C2-F47C77E8643D}" name="Lower Limit" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{96A08B49-5A79-4F13-BC86-FC5E2B426E49}" name="Upper Limit" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{D4252238-C1B7-4D7A-B8C5-A52164228F94}" name="Step" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Internal" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="102"/>
+    <tableColumn id="10" xr3:uid="{832C45C5-9E76-4B8A-83B0-2EB32C68E2FD}" name="Description" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="96"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="95"/>
+    <tableColumn id="14" xr3:uid="{1289F8CF-6170-44F2-AD7D-9E9A4F12BCD1}" name="Parameter 5" dataDxfId="94"/>
+    <tableColumn id="15" xr3:uid="{6D5C8F75-1A51-48AD-90E7-17A2F3986BE7}" name="Parameter 6" dataDxfId="93"/>
+    <tableColumn id="11" xr3:uid="{DB8C4311-5A85-4D8D-A5C2-F47C77E8643D}" name="Lower Limit" dataDxfId="92"/>
+    <tableColumn id="12" xr3:uid="{96A08B49-5A79-4F13-BC86-FC5E2B426E49}" name="Upper Limit" dataDxfId="91"/>
+    <tableColumn id="13" xr3:uid="{D4252238-C1B7-4D7A-B8C5-A52164228F94}" name="Step" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O3" totalsRowShown="0" headerRowBorderDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O3" totalsRowShown="0" headerRowBorderDxfId="89" tableBorderDxfId="88">
   <autoFilter ref="A1:O3" xr:uid="{C58E5582-2A25-434F-8C6A-2EF9AC741C58}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
     <sortCondition ref="B1:B2"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Internal" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{63BA373B-667A-4A36-BB6C-997B9631910B}" name="Description" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{64E7458C-1D65-4712-ABFC-9DAF3D21B670}" name="Parameter 5" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{ABD8345F-8CFE-4FF4-A3F7-F6DB1042FE28}" name="Parameter 6" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{B286B466-1F40-4449-900C-61ACE92313F0}" name="Lower Limit" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{4CAE3350-4ABC-40B6-B059-3A8198700CE1}" name="Upper Limit" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{BC38CFEA-8053-4CB7-B237-C848302F26B7}" name="Step" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Internal" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{63BA373B-667A-4A36-BB6C-997B9631910B}" name="Description" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="80"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="79"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="78"/>
+    <tableColumn id="14" xr3:uid="{64E7458C-1D65-4712-ABFC-9DAF3D21B670}" name="Parameter 5" dataDxfId="77"/>
+    <tableColumn id="15" xr3:uid="{ABD8345F-8CFE-4FF4-A3F7-F6DB1042FE28}" name="Parameter 6" dataDxfId="76"/>
+    <tableColumn id="11" xr3:uid="{B286B466-1F40-4449-900C-61ACE92313F0}" name="Lower Limit" dataDxfId="75"/>
+    <tableColumn id="12" xr3:uid="{4CAE3350-4ABC-40B6-B059-3A8198700CE1}" name="Upper Limit" dataDxfId="74"/>
+    <tableColumn id="13" xr3:uid="{BC38CFEA-8053-4CB7-B237-C848302F26B7}" name="Step" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3898,28 +4070,28 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L3">
-    <cfRule type="expression" dxfId="22" priority="33">
+    <cfRule type="expression" dxfId="35" priority="33">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="32" priority="3">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L3">
-    <cfRule type="expression" dxfId="17" priority="50">
+    <cfRule type="expression" dxfId="30" priority="50">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4330,10 +4502,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097870CC-1A0F-461E-BDFD-29BDDFDDF05C}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4391,7 +4563,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>109</v>
       </c>
@@ -4426,53 +4598,53 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="21">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="21">
+        <v>10</v>
+      </c>
+      <c r="O3" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="20">
-        <v>10000</v>
-      </c>
-      <c r="N3" s="20">
-        <v>50000000</v>
-      </c>
-      <c r="O3" s="20">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>113</v>
+        <v>89</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>87</v>
@@ -4484,8 +4656,8 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="20">
         <v>10000</v>
       </c>
@@ -4496,18 +4668,123 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="21">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="21">
+        <v>10</v>
+      </c>
+      <c r="O5" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="20">
+        <v>10000</v>
+      </c>
+      <c r="N6" s="20">
+        <v>50000000</v>
+      </c>
+      <c r="O6" s="20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="20">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="20">
+        <v>10</v>
+      </c>
+      <c r="O7" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L4">
-    <cfRule type="expression" dxfId="156" priority="43">
+  <conditionalFormatting sqref="A2:L7">
+    <cfRule type="expression" dxfId="72" priority="43">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="44">
+    <cfRule type="expression" dxfId="71" priority="44">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{330BE9FB-867A-4350-A3CC-F1598E7F7C5E}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F7" xr:uid="{330BE9FB-867A-4350-A3CC-F1598E7F7C5E}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -4520,17 +4797,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E755C4-38C6-4293-91DA-AE4F2174B63E}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="67.5703125" customWidth="1"/>
     <col min="5" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4803,7 +5080,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>110</v>
       </c>
@@ -4840,18 +5117,291 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
+        <v>5</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
+        <v>5</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>5</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>5</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>5</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>5</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>5</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L8">
-    <cfRule type="expression" dxfId="138" priority="45">
+  <conditionalFormatting sqref="A2:L15">
+    <cfRule type="expression" dxfId="70" priority="45">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="46">
+    <cfRule type="expression" dxfId="69" priority="46">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F8" xr:uid="{698F0607-DC03-45F0-A4F2-E36B0A9EB77D}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F15" xr:uid="{698F0607-DC03-45F0-A4F2-E36B0A9EB77D}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -4999,10 +5549,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L3">
-    <cfRule type="expression" dxfId="120" priority="47">
+    <cfRule type="expression" dxfId="68" priority="47">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="48">
+    <cfRule type="expression" dxfId="67" priority="48">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5024,8 +5574,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5191,36 +5741,36 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L4">
-    <cfRule type="expression" dxfId="102" priority="23">
+    <cfRule type="expression" dxfId="66" priority="23">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="101" priority="5">
+    <cfRule type="expression" dxfId="65" priority="5">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="6">
+    <cfRule type="expression" dxfId="64" priority="6">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="99" priority="3">
+    <cfRule type="expression" dxfId="63" priority="3">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="97" priority="1">
+    <cfRule type="expression" dxfId="61" priority="1">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L4">
-    <cfRule type="expression" dxfId="95" priority="49">
+    <cfRule type="expression" dxfId="59" priority="49">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5408,41 +5958,41 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L4">
-    <cfRule type="expression" dxfId="78" priority="25">
+    <cfRule type="expression" dxfId="58" priority="25">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4 E4:L4 B2:L3">
-    <cfRule type="expression" dxfId="77" priority="38">
+    <cfRule type="expression" dxfId="57" priority="38">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="76" priority="7">
+    <cfRule type="expression" dxfId="56" priority="7">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="75" priority="5">
+    <cfRule type="expression" dxfId="55" priority="5">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="6">
+    <cfRule type="expression" dxfId="54" priority="6">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="73" priority="3">
+    <cfRule type="expression" dxfId="53" priority="3">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="4">
+    <cfRule type="expression" dxfId="52" priority="4">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="51" priority="1">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5700,62 +6250,62 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L6">
-    <cfRule type="expression" dxfId="53" priority="33">
+    <cfRule type="expression" dxfId="49" priority="33">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 E2:L2 B6:C6 E6:L6 B3:L5">
-    <cfRule type="expression" dxfId="52" priority="42">
+    <cfRule type="expression" dxfId="48" priority="42">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="51" priority="12">
+    <cfRule type="expression" dxfId="47" priority="12">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="50" priority="11">
+    <cfRule type="expression" dxfId="46" priority="11">
       <formula>ISBLANK($F6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="49" priority="9">
+    <cfRule type="expression" dxfId="45" priority="9">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="10">
+    <cfRule type="expression" dxfId="44" priority="10">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="47" priority="7">
+    <cfRule type="expression" dxfId="43" priority="7">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="8">
+    <cfRule type="expression" dxfId="42" priority="8">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="45" priority="5">
+    <cfRule type="expression" dxfId="41" priority="5">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="6">
+    <cfRule type="expression" dxfId="40" priority="6">
       <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>ISBLANK($F5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>NOT((COLUMN(A5)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F5, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="41" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>ISBLANK($F6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>NOT((COLUMN(A6)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F6, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\EPA\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39307635-BC9A-4196-B63D-35E7D40A3A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFCAA79-0216-4D4B-928D-42C2547DCDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="649" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="649" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="147">
   <si>
     <t>SCWAD</t>
   </si>
@@ -199,15 +199,9 @@
     <t>Parameter 6</t>
   </si>
   <si>
-    <t>Contamination</t>
-  </si>
-  <si>
     <t>m^2</t>
   </si>
   <si>
-    <t>Indoor Area Contaminated</t>
-  </si>
-  <si>
     <t>The total indoor surface area contaminated</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>Underground</t>
   </si>
   <si>
-    <t>Underground Area Contaminated</t>
-  </si>
-  <si>
     <t>The total underground surface area contaminated</t>
   </si>
   <si>
@@ -334,18 +325,12 @@
     <t>Bimodal Truncated Normal</t>
   </si>
   <si>
-    <t>Indoor Contamination Loading</t>
-  </si>
-  <si>
     <t>The severity of contamination on outdoor surfaces</t>
   </si>
   <si>
     <t>The severity of contamination on indoor surfaces</t>
   </si>
   <si>
-    <t>Underground Contamination Loading</t>
-  </si>
-  <si>
     <t>The severity of contamination on underground surfaces</t>
   </si>
   <si>
@@ -496,10 +481,10 @@
     <t>The fraction of surface underground which is HVAC</t>
   </si>
   <si>
-    <t>Outdoor Area Contaminated</t>
-  </si>
-  <si>
-    <t>Outdoor Contamination Loading</t>
+    <t>Area Contaminated</t>
+  </si>
+  <si>
+    <t>Loading</t>
   </si>
 </sst>
 </file>
@@ -768,7 +753,301 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="156">
+  <dxfs count="144">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <i/>
@@ -788,6 +1067,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -806,6 +1379,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -824,6 +1691,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -842,6 +2003,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -860,6 +2315,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -938,66 +2687,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1218,16 +2907,16 @@
     <dxf>
       <border>
         <left style="medium">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </left>
         <right style="medium">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </right>
         <top style="medium">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
         <bottom style="medium">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -1530,16 +3219,16 @@
     <dxf>
       <border>
         <left style="medium">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </left>
         <right style="medium">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </right>
         <top style="medium">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
         <bottom style="medium">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -1560,1818 +3249,6 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3387,192 +3264,192 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O26" totalsRowShown="0" tableBorderDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O26" totalsRowShown="0" tableBorderDxfId="141">
   <autoFilter ref="A1:O26" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="154"/>
-    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="153"/>
-    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="152"/>
-    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="151"/>
-    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="150"/>
-    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="149"/>
-    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="148"/>
-    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="147"/>
-    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="146"/>
-    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="145"/>
-    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="144"/>
-    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="143"/>
-    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="142"/>
-    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="141"/>
-    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="140"/>
+    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="138"/>
+    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="134"/>
+    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="133"/>
+    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="132"/>
+    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="131"/>
+    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="130"/>
+    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="129"/>
+    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="128"/>
+    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="127"/>
+    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F3CA1E-AAFF-44BC-A114-2AA862291D9E}" name="Table1568102" displayName="Table1568102" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F3CA1E-AAFF-44BC-A114-2AA862291D9E}" name="Table1568102" displayName="Table1568102" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="123">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{8FD38CEB-1D1A-41E8-821F-58DD4FBD85EB}" name="Phase" dataDxfId="138"/>
-    <tableColumn id="1" xr3:uid="{574AE483-6154-4EC6-AC18-5FDEBC0931CD}" name="Category" dataDxfId="137"/>
-    <tableColumn id="2" xr3:uid="{EC332146-FEF7-42A1-9698-0FB7656BE557}" name="Name" dataDxfId="136"/>
-    <tableColumn id="10" xr3:uid="{F0942CE2-9658-4EB8-A19F-B3B76B6A5F95}" name="Description" dataDxfId="135"/>
-    <tableColumn id="3" xr3:uid="{B909ADC8-9FD8-4714-A691-8AD0F1933057}" name="Units" dataDxfId="134"/>
-    <tableColumn id="4" xr3:uid="{F8B8B123-0CBC-450A-B098-9FFA08F7FC89}" name="Distribution Type" dataDxfId="133"/>
-    <tableColumn id="5" xr3:uid="{AADB8566-896F-40D4-8181-BB145E678F9B}" name="Parameter 1" dataDxfId="132"/>
-    <tableColumn id="6" xr3:uid="{13B0114C-55D3-4603-92C6-09319B7E315B}" name="Parameter 2" dataDxfId="131"/>
-    <tableColumn id="7" xr3:uid="{7548BB98-B29E-4F39-B198-D6F9994CC04D}" name="Parameter 3" dataDxfId="130"/>
-    <tableColumn id="8" xr3:uid="{355D4B98-B5B0-461B-90E8-3D81112B89E2}" name="Parameter 4" dataDxfId="129"/>
-    <tableColumn id="14" xr3:uid="{14667F24-6EC2-4F8F-8EAA-56B4FF372D98}" name="Parameter 5" dataDxfId="128"/>
-    <tableColumn id="15" xr3:uid="{B058DB6A-9C46-4ED3-9483-5713AD52AE40}" name="Parameter 6" dataDxfId="127"/>
-    <tableColumn id="11" xr3:uid="{0E22E7A3-8506-41E8-AC60-E103665C60A2}" name="Lower Limit" dataDxfId="126"/>
-    <tableColumn id="12" xr3:uid="{479761C6-7DBC-4557-9E7C-984A37ABCB8A}" name="Upper Limit" dataDxfId="125"/>
-    <tableColumn id="13" xr3:uid="{F96695B6-2ADD-458A-A424-B58482082C80}" name="Step" dataDxfId="124"/>
+    <tableColumn id="9" xr3:uid="{8FD38CEB-1D1A-41E8-821F-58DD4FBD85EB}" name="Phase" dataDxfId="122"/>
+    <tableColumn id="1" xr3:uid="{574AE483-6154-4EC6-AC18-5FDEBC0931CD}" name="Category" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{EC332146-FEF7-42A1-9698-0FB7656BE557}" name="Name" dataDxfId="120"/>
+    <tableColumn id="10" xr3:uid="{F0942CE2-9658-4EB8-A19F-B3B76B6A5F95}" name="Description" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{B909ADC8-9FD8-4714-A691-8AD0F1933057}" name="Units" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{F8B8B123-0CBC-450A-B098-9FFA08F7FC89}" name="Distribution Type" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{AADB8566-896F-40D4-8181-BB145E678F9B}" name="Parameter 1" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{13B0114C-55D3-4603-92C6-09319B7E315B}" name="Parameter 2" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{7548BB98-B29E-4F39-B198-D6F9994CC04D}" name="Parameter 3" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{355D4B98-B5B0-461B-90E8-3D81112B89E2}" name="Parameter 4" dataDxfId="113"/>
+    <tableColumn id="14" xr3:uid="{14667F24-6EC2-4F8F-8EAA-56B4FF372D98}" name="Parameter 5" dataDxfId="112"/>
+    <tableColumn id="15" xr3:uid="{B058DB6A-9C46-4ED3-9483-5713AD52AE40}" name="Parameter 6" dataDxfId="111"/>
+    <tableColumn id="11" xr3:uid="{0E22E7A3-8506-41E8-AC60-E103665C60A2}" name="Lower Limit" dataDxfId="110"/>
+    <tableColumn id="12" xr3:uid="{479761C6-7DBC-4557-9E7C-984A37ABCB8A}" name="Upper Limit" dataDxfId="109"/>
+    <tableColumn id="13" xr3:uid="{F96695B6-2ADD-458A-A424-B58482082C80}" name="Step" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{88C3C7FF-7D66-4C1C-A80E-12CD3AFBFB8D}" name="Table156810210" displayName="Table156810210" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{88C3C7FF-7D66-4C1C-A80E-12CD3AFBFB8D}" name="Table156810210" displayName="Table156810210" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="105">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{5AC7EE20-3F52-40E0-87F1-21D82A7C3AA2}" name="Phase" dataDxfId="116"/>
-    <tableColumn id="1" xr3:uid="{9A9754BC-4FF9-4BBA-B750-B911CE430E6A}" name="Category" dataDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{0A114B0A-D97E-4073-8E4E-5B16FB19520E}" name="Name" dataDxfId="114"/>
-    <tableColumn id="10" xr3:uid="{D1A72F97-70A3-4EEB-9316-B31F108E3FD5}" name="Description" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{E8F09B1A-D952-4236-B6AD-8AC480554D73}" name="Units" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{B1DC9551-CBBD-4BF4-B876-9237E0FB121D}" name="Distribution Type" dataDxfId="111"/>
-    <tableColumn id="5" xr3:uid="{72C76302-CA88-4629-BF3A-72DD8971E0B7}" name="Parameter 1" dataDxfId="110"/>
-    <tableColumn id="6" xr3:uid="{C319BB6E-60FD-4F37-B898-C033C52FE070}" name="Parameter 2" dataDxfId="109"/>
-    <tableColumn id="7" xr3:uid="{B370DF9A-4768-49F1-B38B-F65D182A01B4}" name="Parameter 3" dataDxfId="108"/>
-    <tableColumn id="8" xr3:uid="{7BADEC71-6529-4D26-804E-5C9B93DA84E8}" name="Parameter 4" dataDxfId="107"/>
-    <tableColumn id="14" xr3:uid="{125149FE-86DA-4053-8A54-90E57B52F8B0}" name="Parameter 5" dataDxfId="106"/>
-    <tableColumn id="15" xr3:uid="{BAA75930-0A4F-4888-8CAF-A3AFA6F3FF44}" name="Parameter 6" dataDxfId="105"/>
-    <tableColumn id="11" xr3:uid="{7442F6EC-3907-41A8-BBEF-87C9374C67E5}" name="Lower Limit" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{86E2B2CA-B8F0-4FF5-8C59-2D3C44061DFD}" name="Upper Limit" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{C697FE06-06BB-49EC-93BB-FF753593319A}" name="Step" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{5AC7EE20-3F52-40E0-87F1-21D82A7C3AA2}" name="Phase" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{9A9754BC-4FF9-4BBA-B750-B911CE430E6A}" name="Category" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{0A114B0A-D97E-4073-8E4E-5B16FB19520E}" name="Name" dataDxfId="102"/>
+    <tableColumn id="10" xr3:uid="{D1A72F97-70A3-4EEB-9316-B31F108E3FD5}" name="Description" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{E8F09B1A-D952-4236-B6AD-8AC480554D73}" name="Units" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{B1DC9551-CBBD-4BF4-B876-9237E0FB121D}" name="Distribution Type" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{72C76302-CA88-4629-BF3A-72DD8971E0B7}" name="Parameter 1" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{C319BB6E-60FD-4F37-B898-C033C52FE070}" name="Parameter 2" dataDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{B370DF9A-4768-49F1-B38B-F65D182A01B4}" name="Parameter 3" dataDxfId="96"/>
+    <tableColumn id="8" xr3:uid="{7BADEC71-6529-4D26-804E-5C9B93DA84E8}" name="Parameter 4" dataDxfId="95"/>
+    <tableColumn id="14" xr3:uid="{125149FE-86DA-4053-8A54-90E57B52F8B0}" name="Parameter 5" dataDxfId="94"/>
+    <tableColumn id="15" xr3:uid="{BAA75930-0A4F-4888-8CAF-A3AFA6F3FF44}" name="Parameter 6" dataDxfId="93"/>
+    <tableColumn id="11" xr3:uid="{7442F6EC-3907-41A8-BBEF-87C9374C67E5}" name="Lower Limit" dataDxfId="92"/>
+    <tableColumn id="12" xr3:uid="{86E2B2CA-B8F0-4FF5-8C59-2D3C44061DFD}" name="Upper Limit" dataDxfId="91"/>
+    <tableColumn id="13" xr3:uid="{C697FE06-06BB-49EC-93BB-FF753593319A}" name="Step" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6794810C-E49F-4CB0-9B2F-0FA2655BD884}" name="Table15681021011" displayName="Table15681021011" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6794810C-E49F-4CB0-9B2F-0FA2655BD884}" name="Table15681021011" displayName="Table15681021011" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="87">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{5DEAB66E-0CAB-4BF7-B4EA-D8D12FB47328}" name="Phase" dataDxfId="101"/>
-    <tableColumn id="1" xr3:uid="{69C64F5C-9979-4ACA-9A42-C1032E3D98BA}" name="Category" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{D4385687-B64B-46FB-B987-6E74F19DC1AF}" name="Name" dataDxfId="99"/>
-    <tableColumn id="10" xr3:uid="{BE461B66-2B72-42A7-9F3F-5916187828CF}" name="Description" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{9EE711F7-7C5D-4C54-8A9A-D54F8833D434}" name="Units" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{6EAA6194-27E9-4B7C-8A4D-8C0FE7B617F4}" name="Distribution Type" dataDxfId="96"/>
-    <tableColumn id="5" xr3:uid="{75BC5E4C-C28D-4614-8AB6-165A9F7FE7CE}" name="Parameter 1" dataDxfId="95"/>
-    <tableColumn id="6" xr3:uid="{F5AD0C00-9187-4F91-ADA7-5B461FC355CE}" name="Parameter 2" dataDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{34B0A2DF-5607-43F6-AA9E-1106CCB7621B}" name="Parameter 3" dataDxfId="93"/>
-    <tableColumn id="8" xr3:uid="{B0950426-083D-4CE9-A30E-9D71766BA154}" name="Parameter 4" dataDxfId="92"/>
-    <tableColumn id="14" xr3:uid="{88E7A84D-F80D-416C-9037-2E5927AE2697}" name="Parameter 5" dataDxfId="91"/>
-    <tableColumn id="15" xr3:uid="{E3DCF8BA-29B1-4A24-B6E6-DE9435CB3AC9}" name="Parameter 6" dataDxfId="90"/>
-    <tableColumn id="11" xr3:uid="{E8661EBF-62F4-4D4A-BCDC-7C8ABD4866B0}" name="Lower Limit" dataDxfId="89"/>
-    <tableColumn id="12" xr3:uid="{83DA3A0E-E097-4281-9822-6FE3F8FB0CDD}" name="Upper Limit" dataDxfId="88"/>
-    <tableColumn id="13" xr3:uid="{24B0E0E0-CA9C-4655-9B23-EA0BBD517B67}" name="Step" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{5DEAB66E-0CAB-4BF7-B4EA-D8D12FB47328}" name="Phase" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{69C64F5C-9979-4ACA-9A42-C1032E3D98BA}" name="Category" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{D4385687-B64B-46FB-B987-6E74F19DC1AF}" name="Name" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{BE461B66-2B72-42A7-9F3F-5916187828CF}" name="Description" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{9EE711F7-7C5D-4C54-8A9A-D54F8833D434}" name="Units" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{6EAA6194-27E9-4B7C-8A4D-8C0FE7B617F4}" name="Distribution Type" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{75BC5E4C-C28D-4614-8AB6-165A9F7FE7CE}" name="Parameter 1" dataDxfId="80"/>
+    <tableColumn id="6" xr3:uid="{F5AD0C00-9187-4F91-ADA7-5B461FC355CE}" name="Parameter 2" dataDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{34B0A2DF-5607-43F6-AA9E-1106CCB7621B}" name="Parameter 3" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{B0950426-083D-4CE9-A30E-9D71766BA154}" name="Parameter 4" dataDxfId="77"/>
+    <tableColumn id="14" xr3:uid="{88E7A84D-F80D-416C-9037-2E5927AE2697}" name="Parameter 5" dataDxfId="76"/>
+    <tableColumn id="15" xr3:uid="{E3DCF8BA-29B1-4A24-B6E6-DE9435CB3AC9}" name="Parameter 6" dataDxfId="75"/>
+    <tableColumn id="11" xr3:uid="{E8661EBF-62F4-4D4A-BCDC-7C8ABD4866B0}" name="Lower Limit" dataDxfId="74"/>
+    <tableColumn id="12" xr3:uid="{83DA3A0E-E097-4281-9822-6FE3F8FB0CDD}" name="Upper Limit" dataDxfId="73"/>
+    <tableColumn id="13" xr3:uid="{24B0E0E0-CA9C-4655-9B23-EA0BBD517B67}" name="Step" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{81C05191-4139-4D49-BA19-E7D2B74357F9}" name="Table15681021012" displayName="Table15681021012" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{81C05191-4139-4D49-BA19-E7D2B74357F9}" name="Table15681021012" displayName="Table15681021012" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="69">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{64A27C3D-2E18-40E6-9166-742BDA2B413C}" name="Phase" dataDxfId="83"/>
-    <tableColumn id="1" xr3:uid="{0243CFE4-EBE7-4500-A226-23C63BE2FB81}" name="Category" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{69F68BF8-9E6A-4766-AB29-A8B943A84522}" name="Name" dataDxfId="81"/>
-    <tableColumn id="10" xr3:uid="{1E4511F0-B286-4973-A437-9638677030CA}" name="Description" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{B80720A6-55E5-4A17-9FE9-9951AF480E02}" name="Units" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{54B33DED-7F55-4D76-B95F-B7050BBA4BD1}" name="Distribution Type" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{BC7C6514-68B9-48F6-9938-4088DF28B37C}" name="Parameter 1" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{4D372042-F7DE-4E72-A309-C4266E0FA9E8}" name="Parameter 2" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{8D92705D-1A42-46F5-89EA-C4113CC26587}" name="Parameter 3" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{13B56E18-7C36-4950-847A-A7544475E1D1}" name="Parameter 4" dataDxfId="74"/>
-    <tableColumn id="14" xr3:uid="{2649C7B2-1C48-4B13-969D-684D0045538B}" name="Parameter 5" dataDxfId="73"/>
-    <tableColumn id="15" xr3:uid="{5D6C4F8D-D31E-4EED-BABF-A0A688F3A916}" name="Parameter 6" dataDxfId="72"/>
-    <tableColumn id="11" xr3:uid="{1CB1896E-F77C-4DFC-9AB0-D0C102F3F80F}" name="Lower Limit" dataDxfId="71"/>
-    <tableColumn id="12" xr3:uid="{837665AD-748D-4B51-9CCA-780B67A76815}" name="Upper Limit" dataDxfId="70"/>
-    <tableColumn id="13" xr3:uid="{A8F2935C-D451-47EA-A1E1-1E4F0CAE8D87}" name="Step" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{64A27C3D-2E18-40E6-9166-742BDA2B413C}" name="Phase" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{0243CFE4-EBE7-4500-A226-23C63BE2FB81}" name="Category" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{69F68BF8-9E6A-4766-AB29-A8B943A84522}" name="Name" dataDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{1E4511F0-B286-4973-A437-9638677030CA}" name="Description" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{B80720A6-55E5-4A17-9FE9-9951AF480E02}" name="Units" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{54B33DED-7F55-4D76-B95F-B7050BBA4BD1}" name="Distribution Type" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{BC7C6514-68B9-48F6-9938-4088DF28B37C}" name="Parameter 1" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{4D372042-F7DE-4E72-A309-C4266E0FA9E8}" name="Parameter 2" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{8D92705D-1A42-46F5-89EA-C4113CC26587}" name="Parameter 3" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{13B56E18-7C36-4950-847A-A7544475E1D1}" name="Parameter 4" dataDxfId="59"/>
+    <tableColumn id="14" xr3:uid="{2649C7B2-1C48-4B13-969D-684D0045538B}" name="Parameter 5" dataDxfId="58"/>
+    <tableColumn id="15" xr3:uid="{5D6C4F8D-D31E-4EED-BABF-A0A688F3A916}" name="Parameter 6" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{1CB1896E-F77C-4DFC-9AB0-D0C102F3F80F}" name="Lower Limit" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{837665AD-748D-4B51-9CCA-780B67A76815}" name="Upper Limit" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{A8F2935C-D451-47EA-A1E1-1E4F0CAE8D87}" name="Step" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2EC220FC-5886-477C-8B2C-57082D8749AA}" name="Table1568102101213" displayName="Table1568102101213" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2EC220FC-5886-477C-8B2C-57082D8749AA}" name="Table1568102101213" displayName="Table1568102101213" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="51">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{525577E1-B46F-47FB-A042-A56D8D45D9AD}" name="Phase" dataDxfId="65"/>
-    <tableColumn id="1" xr3:uid="{30AFC0FE-4503-4A4B-91CA-E5B88AA24F98}" name="Category" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{6333C26F-3D36-4A65-8F1B-CC515ADCE181}" name="Name" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{057A52C2-DED0-48A5-8844-3950CD398F8D}" name="Description" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{EF447B65-8A6A-4F12-ABCB-7BFE84B734A9}" name="Units" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{6E658D46-B4D3-46B1-A15B-9F0095A7EADD}" name="Distribution Type" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{FE235A77-6EFF-4D9A-926F-ACE5D51D4BC8}" name="Parameter 1" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{26694561-3958-440C-BDDC-2DB16EB8A614}" name="Parameter 2" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{DA96F9A2-3DEB-4C42-BECF-B9C30ADA7428}" name="Parameter 3" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{5F8A48E3-9BBF-4210-88D8-F668C1FD845D}" name="Parameter 4" dataDxfId="56"/>
-    <tableColumn id="14" xr3:uid="{21514092-10F7-41E0-B078-A15175C73E93}" name="Parameter 5" dataDxfId="55"/>
-    <tableColumn id="15" xr3:uid="{8BFA8A6A-2BCB-4512-8B77-28D2C28FEEE3}" name="Parameter 6" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{9CB23DDB-2513-48F3-960F-EF0D57CD9724}" name="Lower Limit" dataDxfId="53"/>
-    <tableColumn id="12" xr3:uid="{EDE53E3A-8BAE-4FD6-9C38-CD4B63274C67}" name="Upper Limit" dataDxfId="52"/>
-    <tableColumn id="13" xr3:uid="{980D57FA-1EDD-484A-9D56-BF7EAA580C8D}" name="Step" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{525577E1-B46F-47FB-A042-A56D8D45D9AD}" name="Phase" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{30AFC0FE-4503-4A4B-91CA-E5B88AA24F98}" name="Category" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{6333C26F-3D36-4A65-8F1B-CC515ADCE181}" name="Name" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{057A52C2-DED0-48A5-8844-3950CD398F8D}" name="Description" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{EF447B65-8A6A-4F12-ABCB-7BFE84B734A9}" name="Units" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{6E658D46-B4D3-46B1-A15B-9F0095A7EADD}" name="Distribution Type" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{FE235A77-6EFF-4D9A-926F-ACE5D51D4BC8}" name="Parameter 1" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{26694561-3958-440C-BDDC-2DB16EB8A614}" name="Parameter 2" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{DA96F9A2-3DEB-4C42-BECF-B9C30ADA7428}" name="Parameter 3" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{5F8A48E3-9BBF-4210-88D8-F668C1FD845D}" name="Parameter 4" dataDxfId="41"/>
+    <tableColumn id="14" xr3:uid="{21514092-10F7-41E0-B078-A15175C73E93}" name="Parameter 5" dataDxfId="40"/>
+    <tableColumn id="15" xr3:uid="{8BFA8A6A-2BCB-4512-8B77-28D2C28FEEE3}" name="Parameter 6" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{9CB23DDB-2513-48F3-960F-EF0D57CD9724}" name="Lower Limit" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{EDE53E3A-8BAE-4FD6-9C38-CD4B63274C67}" name="Upper Limit" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{980D57FA-1EDD-484A-9D56-BF7EAA580C8D}" name="Step" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3DDD9CB2-968B-4A43-A20B-C749950155AA}" name="Table156810210121314" displayName="Table156810210121314" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3DDD9CB2-968B-4A43-A20B-C749950155AA}" name="Table156810210121314" displayName="Table156810210121314" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="33">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{6B814874-1824-4E56-A967-04F9F6F3E584}" name="Phase" dataDxfId="47"/>
-    <tableColumn id="1" xr3:uid="{FE1635BE-F6C3-4D5B-B06E-7A92EBAB074D}" name="Category" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{9C16A715-E236-4930-A633-7510E082392C}" name="Name" dataDxfId="45"/>
-    <tableColumn id="10" xr3:uid="{B556C16A-1909-46E7-BC6D-8479761F1F65}" name="Description" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{5EFB6F3C-9894-43AA-AFAC-1013F8F0714B}" name="Units" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{6E3C1049-1D84-4FD5-B7CF-1E130CD32BCA}" name="Distribution Type" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{57E979B1-A630-4AC5-8C4D-CED1A62F587D}" name="Parameter 1" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{C9EF8DDD-DA1F-44E2-AC90-B6993C60CF1F}" name="Parameter 2" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{6FEFD03F-983B-47E2-9525-7EDD875A9C7C}" name="Parameter 3" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{0B661DB2-D286-4AEE-88C3-124B37F1B246}" name="Parameter 4" dataDxfId="38"/>
-    <tableColumn id="14" xr3:uid="{08C4ACC8-5A7B-4864-96E4-CF69FD654892}" name="Parameter 5" dataDxfId="37"/>
-    <tableColumn id="15" xr3:uid="{5505BBCC-5C52-4400-9C19-9ED7DBB490B8}" name="Parameter 6" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{E151AC3B-28ED-4186-A803-48B7F8B7AE5B}" name="Lower Limit" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{223709CC-AD09-4677-85AC-DF8A1619BF81}" name="Upper Limit" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{5FAAB5F5-A70D-4A6B-BE36-5CC1FD787BC5}" name="Step" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{6B814874-1824-4E56-A967-04F9F6F3E584}" name="Phase" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{FE1635BE-F6C3-4D5B-B06E-7A92EBAB074D}" name="Category" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{9C16A715-E236-4930-A633-7510E082392C}" name="Name" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{B556C16A-1909-46E7-BC6D-8479761F1F65}" name="Description" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{5EFB6F3C-9894-43AA-AFAC-1013F8F0714B}" name="Units" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{6E3C1049-1D84-4FD5-B7CF-1E130CD32BCA}" name="Distribution Type" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{57E979B1-A630-4AC5-8C4D-CED1A62F587D}" name="Parameter 1" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{C9EF8DDD-DA1F-44E2-AC90-B6993C60CF1F}" name="Parameter 2" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{6FEFD03F-983B-47E2-9525-7EDD875A9C7C}" name="Parameter 3" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{0B661DB2-D286-4AEE-88C3-124B37F1B246}" name="Parameter 4" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{08C4ACC8-5A7B-4864-96E4-CF69FD654892}" name="Parameter 5" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{5505BBCC-5C52-4400-9C19-9ED7DBB490B8}" name="Parameter 6" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{E151AC3B-28ED-4186-A803-48B7F8B7AE5B}" name="Lower Limit" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{223709CC-AD09-4677-85AC-DF8A1619BF81}" name="Upper Limit" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{5FAAB5F5-A70D-4A6B-BE36-5CC1FD787BC5}" name="Step" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FBB513AC-2D2B-4552-8740-9D611743FE70}" name="Table15681021012131415" displayName="Table15681021012131415" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FBB513AC-2D2B-4552-8740-9D611743FE70}" name="Table15681021012131415" displayName="Table15681021012131415" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="15">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{2035FE2F-0A32-497E-B1E0-30D237A0E150}" name="Phase" dataDxfId="29"/>
-    <tableColumn id="1" xr3:uid="{F814DF41-D024-449F-AF42-62D43153FFB7}" name="Category" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{7DC8FB15-5985-4C4F-ADF3-7A17F5076A68}" name="Name" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{614B9103-CB85-46A8-93A4-7DE4EBCB5D2B}" name="Description" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{E1C6CE34-10C1-4516-B6D9-58BC2F148637}" name="Units" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{2DC3C549-6825-4F8C-B404-F2995425599E}" name="Distribution Type" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{805795A1-E0DE-4FCC-9EBD-DDCCA12F0793}" name="Parameter 1" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{8AEEFD06-21CF-4496-9CA8-A505BA5018C8}" name="Parameter 2" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{81F9FC74-65BB-4D24-8C32-944022DBFF45}" name="Parameter 3" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{B80C3AAC-1FDC-42E7-B79C-4A7F876448A4}" name="Parameter 4" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{07C0D5EC-F968-40E1-8F17-889B90B82192}" name="Parameter 5" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{0302BE75-0A0F-489C-99C0-05DCDFC40A44}" name="Parameter 6" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{8B4A7C21-F1CF-4881-A5A6-4163F9C44F88}" name="Lower Limit" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{F4935CE7-6ADF-493E-B887-56BFE62D0ADC}" name="Upper Limit" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{5249EF7A-61B0-47D7-A1ED-48836EF45F76}" name="Step" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{2035FE2F-0A32-497E-B1E0-30D237A0E150}" name="Phase" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{F814DF41-D024-449F-AF42-62D43153FFB7}" name="Category" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{7DC8FB15-5985-4C4F-ADF3-7A17F5076A68}" name="Name" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{614B9103-CB85-46A8-93A4-7DE4EBCB5D2B}" name="Description" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{E1C6CE34-10C1-4516-B6D9-58BC2F148637}" name="Units" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{2DC3C549-6825-4F8C-B404-F2995425599E}" name="Distribution Type" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{805795A1-E0DE-4FCC-9EBD-DDCCA12F0793}" name="Parameter 1" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{8AEEFD06-21CF-4496-9CA8-A505BA5018C8}" name="Parameter 2" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{81F9FC74-65BB-4D24-8C32-944022DBFF45}" name="Parameter 3" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{B80C3AAC-1FDC-42E7-B79C-4A7F876448A4}" name="Parameter 4" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{07C0D5EC-F968-40E1-8F17-889B90B82192}" name="Parameter 5" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{0302BE75-0A0F-489C-99C0-05DCDFC40A44}" name="Parameter 6" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{8B4A7C21-F1CF-4881-A5A6-4163F9C44F88}" name="Lower Limit" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{F4935CE7-6ADF-493E-B887-56BFE62D0ADC}" name="Upper Limit" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{5249EF7A-61B0-47D7-A1ED-48836EF45F76}" name="Step" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3916,7 +3793,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
@@ -3963,17 +3840,17 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>4</v>
@@ -4000,17 +3877,17 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -4035,19 +3912,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>3</v>
@@ -4072,19 +3949,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>3</v>
@@ -4109,19 +3986,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>3</v>
@@ -4146,19 +4023,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>3</v>
@@ -4183,19 +4060,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>3</v>
@@ -4220,19 +4097,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>3</v>
@@ -4257,19 +4134,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>3</v>
@@ -4294,10 +4171,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="50" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4332,7 +4209,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
@@ -4379,17 +4256,17 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>4</v>
@@ -4416,17 +4293,17 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -4451,19 +4328,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>3</v>
@@ -4488,19 +4365,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>3</v>
@@ -4525,19 +4402,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>3</v>
@@ -4562,19 +4439,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>3</v>
@@ -4599,19 +4476,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>3</v>
@@ -4636,19 +4513,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>3</v>
@@ -4673,19 +4550,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>3</v>
@@ -4710,10 +4587,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4807,7 +4684,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" s="9">
         <v>4</v>
@@ -4829,7 +4706,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" s="9">
         <v>3</v>
@@ -4849,7 +4726,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
@@ -4867,7 +4744,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B7" s="9">
         <v>4</v>
@@ -4889,7 +4766,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B8" s="9">
         <v>2</v>
@@ -4898,7 +4775,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -4907,16 +4784,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" s="9">
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -4925,44 +4802,44 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="9">
         <v>4</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" s="9">
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>40</v>
@@ -4973,12 +4850,12 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5136,8 +5013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097870CC-1A0F-461E-BDFD-29BDDFDDF05C}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5151,7 +5028,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
@@ -5198,19 +5075,19 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
@@ -5233,19 +5110,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>3</v>
@@ -5268,19 +5145,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>3</v>
@@ -5303,19 +5180,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>3</v>
@@ -5338,19 +5215,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>3</v>
@@ -5373,19 +5250,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>3</v>
@@ -5408,19 +5285,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>3</v>
@@ -5445,19 +5322,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>3</v>
@@ -5482,19 +5359,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>3</v>
@@ -5519,19 +5396,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>3</v>
@@ -5556,19 +5433,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>3</v>
@@ -5593,19 +5470,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>3</v>
@@ -5630,19 +5507,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>3</v>
@@ -5667,19 +5544,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>3</v>
@@ -5704,19 +5581,19 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>3</v>
@@ -5741,19 +5618,19 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>3</v>
@@ -5778,19 +5655,19 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>3</v>
@@ -5815,19 +5692,19 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>3</v>
@@ -5852,19 +5729,19 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>3</v>
@@ -5889,19 +5766,19 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>144</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>3</v>
@@ -5926,19 +5803,19 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="E22" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>3</v>
@@ -5963,19 +5840,19 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>146</v>
-      </c>
       <c r="E23" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>3</v>
@@ -6000,19 +5877,19 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="E24" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>3</v>
@@ -6037,19 +5914,19 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="E25" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>3</v>
@@ -6074,19 +5951,19 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>3</v>
@@ -6112,10 +5989,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L26">
-    <cfRule type="expression" dxfId="123" priority="43">
+    <cfRule type="expression" dxfId="143" priority="43">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="44">
+    <cfRule type="expression" dxfId="142" priority="44">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6135,8 +6012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CC74AC-9C8A-4982-AAA7-A84AB700668C}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6150,7 +6027,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
@@ -6197,17 +6074,17 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>4</v>
@@ -6234,17 +6111,17 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -6269,19 +6146,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>3</v>
@@ -6306,19 +6183,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>3</v>
@@ -6343,19 +6220,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>3</v>
@@ -6380,19 +6257,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>3</v>
@@ -6417,19 +6294,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>3</v>
@@ -6454,19 +6331,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>3</v>
@@ -6491,19 +6368,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>3</v>
@@ -6528,10 +6405,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="121" priority="1">
+    <cfRule type="expression" dxfId="125" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="2">
+    <cfRule type="expression" dxfId="124" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6566,7 +6443,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
@@ -6613,17 +6490,17 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>4</v>
@@ -6650,17 +6527,17 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -6685,19 +6562,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>3</v>
@@ -6722,19 +6599,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>3</v>
@@ -6759,19 +6636,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>3</v>
@@ -6796,19 +6673,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>3</v>
@@ -6833,19 +6710,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>3</v>
@@ -6870,19 +6747,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>3</v>
@@ -6907,19 +6784,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>3</v>
@@ -6944,10 +6821,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="119" priority="1">
+    <cfRule type="expression" dxfId="107" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="2">
+    <cfRule type="expression" dxfId="106" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6982,7 +6859,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
@@ -7029,17 +6906,17 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>4</v>
@@ -7066,17 +6943,17 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -7101,19 +6978,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>3</v>
@@ -7138,19 +7015,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>3</v>
@@ -7175,19 +7052,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>3</v>
@@ -7212,19 +7089,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>3</v>
@@ -7249,19 +7126,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>3</v>
@@ -7286,19 +7163,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>3</v>
@@ -7323,19 +7200,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>3</v>
@@ -7360,10 +7237,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="104" priority="1">
+    <cfRule type="expression" dxfId="89" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="2">
+    <cfRule type="expression" dxfId="88" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7398,7 +7275,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
@@ -7445,17 +7322,17 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>4</v>
@@ -7482,17 +7359,17 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -7517,19 +7394,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>3</v>
@@ -7554,19 +7431,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>3</v>
@@ -7591,19 +7468,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>3</v>
@@ -7628,19 +7505,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>3</v>
@@ -7665,19 +7542,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>3</v>
@@ -7702,19 +7579,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>3</v>
@@ -7739,19 +7616,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>3</v>
@@ -7776,10 +7653,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="86" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7814,7 +7691,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>25</v>
@@ -7861,17 +7738,17 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>4</v>
@@ -7898,17 +7775,17 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -7933,19 +7810,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>3</v>
@@ -7970,19 +7847,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>3</v>
@@ -8007,19 +7884,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>3</v>
@@ -8044,19 +7921,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>3</v>
@@ -8081,19 +7958,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>3</v>
@@ -8118,19 +7995,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>3</v>
@@ -8155,19 +8032,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>3</v>
@@ -8192,10 +8069,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="68" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\EPA\WideAreaDecon\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECDA499-C501-4310-B781-4DCEEFFE3E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0513E95-B7B6-4D29-9F89-35422BBA0171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="132">
   <si>
     <t>SCWAD</t>
   </si>
@@ -168,30 +168,15 @@
     <t>hours</t>
   </si>
   <si>
-    <t>Square Feet to be Source Reduced</t>
-  </si>
-  <si>
-    <t>square feet</t>
-  </si>
-  <si>
     <t>Supplies</t>
   </si>
   <si>
     <t>Room Volume</t>
   </si>
   <si>
-    <t>Room Square Footage</t>
-  </si>
-  <si>
     <t>Percentage Breakdown of Room Surfaces</t>
   </si>
   <si>
-    <t>ft^3</t>
-  </si>
-  <si>
-    <t>ft^2</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -216,15 +201,9 @@
     <t>Amount of time for sample result to be transmitted to incident command</t>
   </si>
   <si>
-    <t>Number of square feet that will have material waste removed</t>
-  </si>
-  <si>
     <t>Volume of room</t>
   </si>
   <si>
-    <t>Square footage of room</t>
-  </si>
-  <si>
     <t>Percentage breakdown of surface types within each room</t>
   </si>
   <si>
@@ -294,15 +273,6 @@
     <t>Parameter 6</t>
   </si>
   <si>
-    <t>Cost per Ton of Material Removed</t>
-  </si>
-  <si>
-    <t>Cost per ton of waste material removed</t>
-  </si>
-  <si>
-    <t>$ / ton</t>
-  </si>
-  <si>
     <t>Contamination</t>
   </si>
   <si>
@@ -445,6 +415,30 @@
   </si>
   <si>
     <t>Bimodal Truncated Normal</t>
+  </si>
+  <si>
+    <t>m^3</t>
+  </si>
+  <si>
+    <t>$ / kg</t>
+  </si>
+  <si>
+    <t>Cost per mass of waste material removed</t>
+  </si>
+  <si>
+    <t>Cost per Mass of Material Removed</t>
+  </si>
+  <si>
+    <t>Room Surface Area</t>
+  </si>
+  <si>
+    <t>Surface area of room</t>
+  </si>
+  <si>
+    <t>Surface area that will have material waste removed</t>
+  </si>
+  <si>
+    <t>Surface Area to be Source Reduced</t>
   </si>
 </sst>
 </file>
@@ -3746,9 +3740,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3767,18 +3761,18 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -3789,7 +3783,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -3798,48 +3792,48 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -3860,21 +3854,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>3</v>
@@ -3940,18 +3934,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -3959,25 +3953,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -3985,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -3993,7 +3987,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4001,180 +3995,180 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B4" s="10">
         <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B5" s="10">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B6" s="10">
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B7" s="10">
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B8" s="10">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B9" s="10">
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B10" s="10">
         <v>4</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B11" s="10">
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4192,34 +4186,34 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>ROWS($A$10:A10)</f>
         <v>1</v>
@@ -4228,7 +4222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>ROWS($A$10:A11)</f>
         <v>2</v>
@@ -4237,7 +4231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>ROWS($A$10:A12)</f>
         <v>3</v>
@@ -4246,7 +4240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>ROWS($A$10:A13)</f>
         <v>4</v>
@@ -4255,7 +4249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>ROWS($A$10:A14)</f>
         <v>5</v>
@@ -4264,7 +4258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -4272,12 +4266,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4285,17 +4279,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -4303,22 +4297,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>24</v>
       </c>
@@ -4336,17 +4330,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>26</v>
@@ -4355,7 +4349,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -4364,48 +4358,48 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -4426,21 +4420,21 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>3</v>
@@ -4461,21 +4455,21 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>3</v>
@@ -4526,17 +4520,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>26</v>
@@ -4545,7 +4539,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -4554,48 +4548,48 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="D2" s="18" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -4618,21 +4612,21 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>3</v>
@@ -4655,21 +4649,21 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>102</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>3</v>
@@ -4692,21 +4686,21 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>3</v>
@@ -4729,21 +4723,21 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>3</v>
@@ -4766,21 +4760,21 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>3</v>
@@ -4803,21 +4797,21 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>3</v>
@@ -4871,17 +4865,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>26</v>
@@ -4890,7 +4884,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -4899,36 +4893,36 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>30</v>
@@ -4937,7 +4931,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>35</v>
@@ -4961,9 +4955,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>31</v>
@@ -4972,7 +4966,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>32</v>
@@ -5024,21 +5018,21 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>26</v>
@@ -5047,7 +5041,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -5056,36 +5050,36 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>31</v>
@@ -5094,7 +5088,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>32</v>
@@ -5118,9 +5112,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>38</v>
@@ -5129,7 +5123,7 @@
         <v>36</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>37</v>
@@ -5153,9 +5147,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>31</v>
@@ -5164,7 +5158,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>40</v>
@@ -5242,18 +5236,18 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5264,7 +5258,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -5273,36 +5267,36 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>30</v>
@@ -5311,7 +5305,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>32</v>
@@ -5335,21 +5329,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>3</v>
@@ -5370,9 +5364,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>38</v>
@@ -5381,7 +5375,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>37</v>
@@ -5464,18 +5458,18 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5486,7 +5480,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>28</v>
@@ -5495,36 +5489,36 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
@@ -5533,7 +5527,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
@@ -5557,21 +5551,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>3</v>
@@ -5592,21 +5586,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>3</v>
@@ -5627,21 +5621,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>3</v>
@@ -5662,9 +5656,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>38</v>
@@ -5673,7 +5667,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>37</v>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0513E95-B7B6-4D29-9F89-35422BBA0171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359F83A2-ABED-4C38-A0FC-068D44CCCDCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="135">
   <si>
     <t>SCWAD</t>
   </si>
@@ -439,6 +439,15 @@
   </si>
   <si>
     <t>Surface Area to be Source Reduced</t>
+  </si>
+  <si>
+    <t>Rental Car Cost</t>
+  </si>
+  <si>
+    <t>Cost of rental car per day</t>
+  </si>
+  <si>
+    <t>$ / day</t>
   </si>
 </sst>
 </file>
@@ -720,7 +729,25 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="157">
+  <dxfs count="159">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -3266,171 +3293,171 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="156">
   <autoFilter ref="A1:O4" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="153"/>
-    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="152"/>
-    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="151"/>
-    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="150"/>
-    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="149"/>
-    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="148"/>
-    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="147"/>
-    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="146"/>
-    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="145"/>
-    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="144"/>
-    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="143"/>
-    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="142"/>
-    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="141"/>
-    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="140"/>
-    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="139"/>
+    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="155"/>
+    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="153"/>
+    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="150"/>
+    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="149"/>
+    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="148"/>
+    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="147"/>
+    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="146"/>
+    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="145"/>
+    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="144"/>
+    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="143"/>
+    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="142"/>
+    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B77B7895-2678-4EA1-91B2-B6248E05AA0A}" name="Table156810" displayName="Table156810" ref="A1:O8" totalsRowShown="0" tableBorderDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B77B7895-2678-4EA1-91B2-B6248E05AA0A}" name="Table156810" displayName="Table156810" ref="A1:O8" totalsRowShown="0" tableBorderDxfId="138">
   <autoFilter ref="A1:O8" xr:uid="{60C5A2AF-4D3E-4976-AA8F-8961FE4EE49E}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{DF77AA95-0523-4660-B964-676ECCB79418}" name="Phase" dataDxfId="135"/>
-    <tableColumn id="1" xr3:uid="{423292BC-9F1E-4EDC-9CC2-9890D4B1F00A}" name="Category" dataDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{916CDEF4-7288-42C6-AD00-C6D0D8F8D560}" name="Name" dataDxfId="133"/>
-    <tableColumn id="10" xr3:uid="{C69B0C1F-B3A6-4CB4-B855-8A573BA536A2}" name="Description" dataDxfId="132"/>
-    <tableColumn id="3" xr3:uid="{23E3372F-48DE-4E64-88D3-C7EE1A32F34A}" name="Units" dataDxfId="131"/>
-    <tableColumn id="4" xr3:uid="{9D790DCF-5822-477B-8DCC-93F90CAB183B}" name="Distribution Type" dataDxfId="130"/>
-    <tableColumn id="5" xr3:uid="{337DB99B-F988-4680-87F5-A4BCFAF1A3C2}" name="Parameter 1" dataDxfId="129"/>
-    <tableColumn id="6" xr3:uid="{8C90C787-B669-453A-8F0E-A46E3018D380}" name="Parameter 2" dataDxfId="128"/>
-    <tableColumn id="7" xr3:uid="{041FF432-9543-4EE3-A9CF-1500CC344FFA}" name="Parameter 3" dataDxfId="127"/>
-    <tableColumn id="8" xr3:uid="{CDC02AC4-4C95-4220-B404-681CADF416D2}" name="Parameter 4" dataDxfId="126"/>
-    <tableColumn id="14" xr3:uid="{97B53FFA-4984-4D47-817E-8D167978BD8D}" name="Parameter 5" dataDxfId="125"/>
-    <tableColumn id="15" xr3:uid="{823939D4-F4DD-4DB0-89DB-EF0A01ECB48B}" name="Parameter 6" dataDxfId="124"/>
-    <tableColumn id="11" xr3:uid="{20A93856-0EFF-4271-832C-04F7E9AC0A1E}" name="Lower Limit" dataDxfId="123"/>
-    <tableColumn id="12" xr3:uid="{A36F5215-EB9D-448B-AE9F-58A4F8E9D0C7}" name="Upper Limit" dataDxfId="122"/>
-    <tableColumn id="13" xr3:uid="{39173C83-06DA-436D-B107-9D64D97B7F39}" name="Step" dataDxfId="121"/>
+    <tableColumn id="9" xr3:uid="{DF77AA95-0523-4660-B964-676ECCB79418}" name="Phase" dataDxfId="137"/>
+    <tableColumn id="1" xr3:uid="{423292BC-9F1E-4EDC-9CC2-9890D4B1F00A}" name="Category" dataDxfId="136"/>
+    <tableColumn id="2" xr3:uid="{916CDEF4-7288-42C6-AD00-C6D0D8F8D560}" name="Name" dataDxfId="135"/>
+    <tableColumn id="10" xr3:uid="{C69B0C1F-B3A6-4CB4-B855-8A573BA536A2}" name="Description" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{23E3372F-48DE-4E64-88D3-C7EE1A32F34A}" name="Units" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{9D790DCF-5822-477B-8DCC-93F90CAB183B}" name="Distribution Type" dataDxfId="132"/>
+    <tableColumn id="5" xr3:uid="{337DB99B-F988-4680-87F5-A4BCFAF1A3C2}" name="Parameter 1" dataDxfId="131"/>
+    <tableColumn id="6" xr3:uid="{8C90C787-B669-453A-8F0E-A46E3018D380}" name="Parameter 2" dataDxfId="130"/>
+    <tableColumn id="7" xr3:uid="{041FF432-9543-4EE3-A9CF-1500CC344FFA}" name="Parameter 3" dataDxfId="129"/>
+    <tableColumn id="8" xr3:uid="{CDC02AC4-4C95-4220-B404-681CADF416D2}" name="Parameter 4" dataDxfId="128"/>
+    <tableColumn id="14" xr3:uid="{97B53FFA-4984-4D47-817E-8D167978BD8D}" name="Parameter 5" dataDxfId="127"/>
+    <tableColumn id="15" xr3:uid="{823939D4-F4DD-4DB0-89DB-EF0A01ECB48B}" name="Parameter 6" dataDxfId="126"/>
+    <tableColumn id="11" xr3:uid="{20A93856-0EFF-4271-832C-04F7E9AC0A1E}" name="Lower Limit" dataDxfId="125"/>
+    <tableColumn id="12" xr3:uid="{A36F5215-EB9D-448B-AE9F-58A4F8E9D0C7}" name="Upper Limit" dataDxfId="124"/>
+    <tableColumn id="13" xr3:uid="{39173C83-06DA-436D-B107-9D64D97B7F39}" name="Step" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="120">
   <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="117"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="116"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="115"/>
-    <tableColumn id="10" xr3:uid="{115A314C-6A1B-4509-AD17-EBA48B227F1D}" name="Description" dataDxfId="114"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="113"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="112"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="111"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="110"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="108"/>
-    <tableColumn id="14" xr3:uid="{D27F5CDB-A68A-4129-930A-F29B15C22636}" name="Parameter 5" dataDxfId="107"/>
-    <tableColumn id="15" xr3:uid="{0AB42936-B3F8-4E7C-8152-8CB99EFF7215}" name="Parameter 6" dataDxfId="106"/>
-    <tableColumn id="11" xr3:uid="{1D961365-C163-4709-AB34-FA18998E1C0C}" name="Lower Limit" dataDxfId="105"/>
-    <tableColumn id="12" xr3:uid="{DD91A285-8CA3-48CC-8B2D-6AD307B1829A}" name="Upper Limit" dataDxfId="104"/>
-    <tableColumn id="13" xr3:uid="{289708CC-2479-44B9-8E21-211759607199}" name="Step" dataDxfId="103"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="119"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="117"/>
+    <tableColumn id="10" xr3:uid="{115A314C-6A1B-4509-AD17-EBA48B227F1D}" name="Description" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="111"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="110"/>
+    <tableColumn id="14" xr3:uid="{D27F5CDB-A68A-4129-930A-F29B15C22636}" name="Parameter 5" dataDxfId="109"/>
+    <tableColumn id="15" xr3:uid="{0AB42936-B3F8-4E7C-8152-8CB99EFF7215}" name="Parameter 6" dataDxfId="108"/>
+    <tableColumn id="11" xr3:uid="{1D961365-C163-4709-AB34-FA18998E1C0C}" name="Lower Limit" dataDxfId="107"/>
+    <tableColumn id="12" xr3:uid="{DD91A285-8CA3-48CC-8B2D-6AD307B1829A}" name="Upper Limit" dataDxfId="106"/>
+    <tableColumn id="13" xr3:uid="{289708CC-2479-44B9-8E21-211759607199}" name="Step" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="96">
   <autoFilter ref="A1:O4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="93"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="91"/>
-    <tableColumn id="10" xr3:uid="{E238511C-0575-407F-83C7-4D6E37CAA1C8}" name="Description" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="84"/>
-    <tableColumn id="14" xr3:uid="{0CCC8750-3EB9-4A09-95AB-3BEC14F064B0}" name="Parameter 5" dataDxfId="83"/>
-    <tableColumn id="15" xr3:uid="{8430512F-5835-4882-88A6-3BDD8313812B}" name="Parameter 6" dataDxfId="82"/>
-    <tableColumn id="11" xr3:uid="{1D5D06E3-C2FF-4E33-A67E-846C813585DD}" name="Lower Limit" dataDxfId="81"/>
-    <tableColumn id="12" xr3:uid="{59B419A3-4B50-4E25-9295-12F6E479C7C1}" name="Upper Limit" dataDxfId="80"/>
-    <tableColumn id="13" xr3:uid="{B44B2162-0D76-4003-8141-9F91F7CB1D51}" name="Step" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="93"/>
+    <tableColumn id="10" xr3:uid="{E238511C-0575-407F-83C7-4D6E37CAA1C8}" name="Description" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="86"/>
+    <tableColumn id="14" xr3:uid="{0CCC8750-3EB9-4A09-95AB-3BEC14F064B0}" name="Parameter 5" dataDxfId="85"/>
+    <tableColumn id="15" xr3:uid="{8430512F-5835-4882-88A6-3BDD8313812B}" name="Parameter 6" dataDxfId="84"/>
+    <tableColumn id="11" xr3:uid="{1D5D06E3-C2FF-4E33-A67E-846C813585DD}" name="Lower Limit" dataDxfId="83"/>
+    <tableColumn id="12" xr3:uid="{59B419A3-4B50-4E25-9295-12F6E479C7C1}" name="Upper Limit" dataDxfId="82"/>
+    <tableColumn id="13" xr3:uid="{B44B2162-0D76-4003-8141-9F91F7CB1D51}" name="Step" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="71">
   <autoFilter ref="A1:O4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Internal" dataDxfId="68"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{82317EA3-EFA1-4204-866F-27AD4E7F4565}" name="Description" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="59"/>
-    <tableColumn id="14" xr3:uid="{66AAE767-9060-4329-9FA8-8309678C711A}" name="Parameter 5" dataDxfId="58"/>
-    <tableColumn id="15" xr3:uid="{EB2740C5-3F80-408E-8F68-D65D3DE04CB6}" name="Parameter 6" dataDxfId="57"/>
-    <tableColumn id="11" xr3:uid="{D8432F00-68F0-499E-8310-7BEAF2D5BFFA}" name="Lower Limit" dataDxfId="56"/>
-    <tableColumn id="12" xr3:uid="{BCED7806-F146-4B52-AF53-D5DE4EBA4D11}" name="Upper Limit" dataDxfId="55"/>
-    <tableColumn id="13" xr3:uid="{A3158C91-CCDA-42BB-98F8-B1415C87FD9F}" name="Step" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Internal" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{82317EA3-EFA1-4204-866F-27AD4E7F4565}" name="Description" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="61"/>
+    <tableColumn id="14" xr3:uid="{66AAE767-9060-4329-9FA8-8309678C711A}" name="Parameter 5" dataDxfId="60"/>
+    <tableColumn id="15" xr3:uid="{EB2740C5-3F80-408E-8F68-D65D3DE04CB6}" name="Parameter 6" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{D8432F00-68F0-499E-8310-7BEAF2D5BFFA}" name="Lower Limit" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{BCED7806-F146-4B52-AF53-D5DE4EBA4D11}" name="Upper Limit" dataDxfId="57"/>
+    <tableColumn id="13" xr3:uid="{A3158C91-CCDA-42BB-98F8-B1415C87FD9F}" name="Step" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O6" totalsRowShown="0" headerRowBorderDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O6" totalsRowShown="0" headerRowBorderDxfId="41" tableBorderDxfId="40">
   <autoFilter ref="A1:O6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Internal" dataDxfId="37"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{832C45C5-9E76-4B8A-83B0-2EB32C68E2FD}" name="Description" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{1289F8CF-6170-44F2-AD7D-9E9A4F12BCD1}" name="Parameter 5" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{6D5C8F75-1A51-48AD-90E7-17A2F3986BE7}" name="Parameter 6" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{DB8C4311-5A85-4D8D-A5C2-F47C77E8643D}" name="Lower Limit" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{96A08B49-5A79-4F13-BC86-FC5E2B426E49}" name="Upper Limit" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{D4252238-C1B7-4D7A-B8C5-A52164228F94}" name="Step" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Internal" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{832C45C5-9E76-4B8A-83B0-2EB32C68E2FD}" name="Description" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{1289F8CF-6170-44F2-AD7D-9E9A4F12BCD1}" name="Parameter 5" dataDxfId="29"/>
+    <tableColumn id="15" xr3:uid="{6D5C8F75-1A51-48AD-90E7-17A2F3986BE7}" name="Parameter 6" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{DB8C4311-5A85-4D8D-A5C2-F47C77E8643D}" name="Lower Limit" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{96A08B49-5A79-4F13-BC86-FC5E2B426E49}" name="Upper Limit" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{D4252238-C1B7-4D7A-B8C5-A52164228F94}" name="Step" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O3" totalsRowShown="0" headerRowBorderDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A1:O3" xr:uid="{C58E5582-2A25-434F-8C6A-2EF9AC741C58}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O4" totalsRowShown="0" headerRowBorderDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A1:O4" xr:uid="{C58E5582-2A25-434F-8C6A-2EF9AC741C58}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
     <sortCondition ref="B1:B2"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Internal" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{63BA373B-667A-4A36-BB6C-997B9631910B}" name="Description" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{64E7458C-1D65-4712-ABFC-9DAF3D21B670}" name="Parameter 5" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{ABD8345F-8CFE-4FF4-A3F7-F6DB1042FE28}" name="Parameter 6" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{B286B466-1F40-4449-900C-61ACE92313F0}" name="Lower Limit" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{4CAE3350-4ABC-40B6-B059-3A8198700CE1}" name="Upper Limit" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{BC38CFEA-8053-4CB7-B237-C848302F26B7}" name="Step" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Internal" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{63BA373B-667A-4A36-BB6C-997B9631910B}" name="Description" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{64E7458C-1D65-4712-ABFC-9DAF3D21B670}" name="Parameter 5" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{ABD8345F-8CFE-4FF4-A3F7-F6DB1042FE28}" name="Parameter 6" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{B286B466-1F40-4449-900C-61ACE92313F0}" name="Lower Limit" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{4CAE3350-4ABC-40B6-B059-3A8198700CE1}" name="Upper Limit" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{BC38CFEA-8053-4CB7-B237-C848302F26B7}" name="Step" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3758,10 +3785,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3889,36 +3916,65 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:L3">
-    <cfRule type="expression" dxfId="22" priority="33">
+  <conditionalFormatting sqref="G2:L4">
+    <cfRule type="expression" dxfId="24" priority="33">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L3">
-    <cfRule type="expression" dxfId="17" priority="50">
+  <conditionalFormatting sqref="B2:L4">
+    <cfRule type="expression" dxfId="19" priority="50">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -3934,7 +3990,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -4493,10 +4549,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L4">
-    <cfRule type="expression" dxfId="156" priority="43">
+    <cfRule type="expression" dxfId="158" priority="43">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="44">
+    <cfRule type="expression" dxfId="157" priority="44">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4837,10 +4893,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L8">
-    <cfRule type="expression" dxfId="138" priority="45">
+    <cfRule type="expression" dxfId="140" priority="45">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="46">
+    <cfRule type="expression" dxfId="139" priority="46">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4993,10 +5049,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L3">
-    <cfRule type="expression" dxfId="120" priority="47">
+    <cfRule type="expression" dxfId="122" priority="47">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="48">
+    <cfRule type="expression" dxfId="121" priority="48">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5185,36 +5241,36 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L4">
-    <cfRule type="expression" dxfId="102" priority="23">
+    <cfRule type="expression" dxfId="104" priority="23">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="101" priority="5">
+    <cfRule type="expression" dxfId="103" priority="5">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="6">
+    <cfRule type="expression" dxfId="102" priority="6">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="99" priority="3">
+    <cfRule type="expression" dxfId="101" priority="3">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="4">
+    <cfRule type="expression" dxfId="100" priority="4">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="97" priority="1">
+    <cfRule type="expression" dxfId="99" priority="1">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="2">
+    <cfRule type="expression" dxfId="98" priority="2">
       <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L4">
-    <cfRule type="expression" dxfId="95" priority="49">
+    <cfRule type="expression" dxfId="97" priority="49">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5402,41 +5458,41 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L4">
-    <cfRule type="expression" dxfId="78" priority="25">
+    <cfRule type="expression" dxfId="80" priority="25">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4 E4:L4 B2:L3">
-    <cfRule type="expression" dxfId="77" priority="38">
+    <cfRule type="expression" dxfId="79" priority="38">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="76" priority="7">
+    <cfRule type="expression" dxfId="78" priority="7">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="75" priority="5">
+    <cfRule type="expression" dxfId="77" priority="5">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="6">
+    <cfRule type="expression" dxfId="76" priority="6">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="73" priority="3">
+    <cfRule type="expression" dxfId="75" priority="3">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="4">
+    <cfRule type="expression" dxfId="74" priority="4">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="73" priority="1">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="72" priority="2">
       <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5694,62 +5750,62 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L6">
-    <cfRule type="expression" dxfId="53" priority="33">
+    <cfRule type="expression" dxfId="55" priority="33">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 E2:L2 B6:C6 E6:L6 B3:L5">
-    <cfRule type="expression" dxfId="52" priority="42">
+    <cfRule type="expression" dxfId="54" priority="42">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="51" priority="12">
+    <cfRule type="expression" dxfId="53" priority="12">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="50" priority="11">
+    <cfRule type="expression" dxfId="52" priority="11">
       <formula>ISBLANK($F6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="49" priority="9">
+    <cfRule type="expression" dxfId="51" priority="9">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="10">
+    <cfRule type="expression" dxfId="50" priority="10">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="47" priority="7">
+    <cfRule type="expression" dxfId="49" priority="7">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="8">
+    <cfRule type="expression" dxfId="48" priority="8">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="45" priority="5">
+    <cfRule type="expression" dxfId="47" priority="5">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="6">
+    <cfRule type="expression" dxfId="46" priority="6">
       <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>ISBLANK($F5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>NOT((COLUMN(A5)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F5, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="41" priority="1">
+    <cfRule type="expression" dxfId="43" priority="1">
       <formula>ISBLANK($F6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>NOT((COLUMN(A6)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F6, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359F83A2-ABED-4C38-A0FC-068D44CCCDCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A00178-92CB-43D5-B140-FE4BA8435A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="132">
   <si>
     <t>SCWAD</t>
   </si>
@@ -439,15 +439,6 @@
   </si>
   <si>
     <t>Surface Area to be Source Reduced</t>
-  </si>
-  <si>
-    <t>Rental Car Cost</t>
-  </si>
-  <si>
-    <t>Cost of rental car per day</t>
-  </si>
-  <si>
-    <t>$ / day</t>
   </si>
 </sst>
 </file>
@@ -729,7 +720,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="159">
+  <dxfs count="155">
     <dxf>
       <fill>
         <patternFill>
@@ -749,332 +740,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -1093,13 +758,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1129,340 +787,11 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1519,6 +848,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1530,13 +880,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1555,27 +898,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1587,304 +909,11 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1905,6 +934,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1941,20 +984,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1966,306 +995,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -2302,13 +1031,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -2338,300 +1060,11 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2665,47 +1098,53 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
@@ -2718,9 +1157,7 @@
         </left>
         <right/>
         <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -2732,9 +1169,7 @@
         </left>
         <right/>
         <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -2751,107 +1186,119 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
@@ -2865,173 +1312,179 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <top style="medium">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -3044,8 +1497,324 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
         <right/>
         <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -3054,7 +1823,7 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3066,6 +1835,22 @@
           <color indexed="64"/>
         </bottom>
         <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
@@ -3179,9 +1964,157 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <top style="medium">
           <color indexed="64"/>
         </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -3190,6 +2123,158 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -3262,22 +2347,892 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3293,24 +3248,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="154">
   <autoFilter ref="A1:O4" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="155"/>
-    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="153"/>
-    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="152"/>
-    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="150"/>
-    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="149"/>
-    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="148"/>
-    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="147"/>
-    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="146"/>
-    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="145"/>
-    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="144"/>
-    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="143"/>
-    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="142"/>
-    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="141"/>
+    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="153"/>
+    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="151"/>
+    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="150"/>
+    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="149"/>
+    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="148"/>
+    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="147"/>
+    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="146"/>
+    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="145"/>
+    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="144"/>
+    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="143"/>
+    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="142"/>
+    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="141"/>
+    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="140"/>
+    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="139"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3341,123 +3296,123 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table156" displayName="Table156" ref="A1:O3" totalsRowShown="0" tableBorderDxfId="122">
   <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="119"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="117"/>
-    <tableColumn id="10" xr3:uid="{115A314C-6A1B-4509-AD17-EBA48B227F1D}" name="Description" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="111"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="110"/>
-    <tableColumn id="14" xr3:uid="{D27F5CDB-A68A-4129-930A-F29B15C22636}" name="Parameter 5" dataDxfId="109"/>
-    <tableColumn id="15" xr3:uid="{0AB42936-B3F8-4E7C-8152-8CB99EFF7215}" name="Parameter 6" dataDxfId="108"/>
-    <tableColumn id="11" xr3:uid="{1D961365-C163-4709-AB34-FA18998E1C0C}" name="Lower Limit" dataDxfId="107"/>
-    <tableColumn id="12" xr3:uid="{DD91A285-8CA3-48CC-8B2D-6AD307B1829A}" name="Upper Limit" dataDxfId="106"/>
-    <tableColumn id="13" xr3:uid="{289708CC-2479-44B9-8E21-211759607199}" name="Step" dataDxfId="105"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Phase" dataDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="119"/>
+    <tableColumn id="10" xr3:uid="{115A314C-6A1B-4509-AD17-EBA48B227F1D}" name="Description" dataDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Units" dataDxfId="117"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distribution Type" dataDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter 1" dataDxfId="115"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameter 2" dataDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Parameter 3" dataDxfId="113"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter 4" dataDxfId="112"/>
+    <tableColumn id="14" xr3:uid="{D27F5CDB-A68A-4129-930A-F29B15C22636}" name="Parameter 5" dataDxfId="111"/>
+    <tableColumn id="15" xr3:uid="{0AB42936-B3F8-4E7C-8152-8CB99EFF7215}" name="Parameter 6" dataDxfId="110"/>
+    <tableColumn id="11" xr3:uid="{1D961365-C163-4709-AB34-FA18998E1C0C}" name="Lower Limit" dataDxfId="109"/>
+    <tableColumn id="12" xr3:uid="{DD91A285-8CA3-48CC-8B2D-6AD307B1829A}" name="Upper Limit" dataDxfId="108"/>
+    <tableColumn id="13" xr3:uid="{289708CC-2479-44B9-8E21-211759607199}" name="Step" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="106">
   <autoFilter ref="A1:O4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="95"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="93"/>
-    <tableColumn id="10" xr3:uid="{E238511C-0575-407F-83C7-4D6E37CAA1C8}" name="Description" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="86"/>
-    <tableColumn id="14" xr3:uid="{0CCC8750-3EB9-4A09-95AB-3BEC14F064B0}" name="Parameter 5" dataDxfId="85"/>
-    <tableColumn id="15" xr3:uid="{8430512F-5835-4882-88A6-3BDD8313812B}" name="Parameter 6" dataDxfId="84"/>
-    <tableColumn id="11" xr3:uid="{1D5D06E3-C2FF-4E33-A67E-846C813585DD}" name="Lower Limit" dataDxfId="83"/>
-    <tableColumn id="12" xr3:uid="{59B419A3-4B50-4E25-9295-12F6E479C7C1}" name="Upper Limit" dataDxfId="82"/>
-    <tableColumn id="13" xr3:uid="{B44B2162-0D76-4003-8141-9F91F7CB1D51}" name="Step" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Phase" dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="103"/>
+    <tableColumn id="10" xr3:uid="{E238511C-0575-407F-83C7-4D6E37CAA1C8}" name="Description" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Units" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Distribution Type" dataDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Parameter 1" dataDxfId="99"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Parameter 2" dataDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Parameter 3" dataDxfId="97"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Parameter 4" dataDxfId="96"/>
+    <tableColumn id="14" xr3:uid="{0CCC8750-3EB9-4A09-95AB-3BEC14F064B0}" name="Parameter 5" dataDxfId="95"/>
+    <tableColumn id="15" xr3:uid="{8430512F-5835-4882-88A6-3BDD8313812B}" name="Parameter 6" dataDxfId="94"/>
+    <tableColumn id="11" xr3:uid="{1D5D06E3-C2FF-4E33-A67E-846C813585DD}" name="Lower Limit" dataDxfId="93"/>
+    <tableColumn id="12" xr3:uid="{59B419A3-4B50-4E25-9295-12F6E479C7C1}" name="Upper Limit" dataDxfId="92"/>
+    <tableColumn id="13" xr3:uid="{B44B2162-0D76-4003-8141-9F91F7CB1D51}" name="Step" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table157" displayName="Table157" ref="A1:O4" totalsRowShown="0" tableBorderDxfId="90">
   <autoFilter ref="A1:O4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Internal" dataDxfId="70"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="68"/>
-    <tableColumn id="10" xr3:uid="{82317EA3-EFA1-4204-866F-27AD4E7F4565}" name="Description" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="61"/>
-    <tableColumn id="14" xr3:uid="{66AAE767-9060-4329-9FA8-8309678C711A}" name="Parameter 5" dataDxfId="60"/>
-    <tableColumn id="15" xr3:uid="{EB2740C5-3F80-408E-8F68-D65D3DE04CB6}" name="Parameter 6" dataDxfId="59"/>
-    <tableColumn id="11" xr3:uid="{D8432F00-68F0-499E-8310-7BEAF2D5BFFA}" name="Lower Limit" dataDxfId="58"/>
-    <tableColumn id="12" xr3:uid="{BCED7806-F146-4B52-AF53-D5DE4EBA4D11}" name="Upper Limit" dataDxfId="57"/>
-    <tableColumn id="13" xr3:uid="{A3158C91-CCDA-42BB-98F8-B1415C87FD9F}" name="Step" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Internal" dataDxfId="89"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Category" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{82317EA3-EFA1-4204-866F-27AD4E7F4565}" name="Description" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Distribution Type" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parameter 1" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Parameter 2" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Parameter 3" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Parameter 4" dataDxfId="80"/>
+    <tableColumn id="14" xr3:uid="{66AAE767-9060-4329-9FA8-8309678C711A}" name="Parameter 5" dataDxfId="79"/>
+    <tableColumn id="15" xr3:uid="{EB2740C5-3F80-408E-8F68-D65D3DE04CB6}" name="Parameter 6" dataDxfId="78"/>
+    <tableColumn id="11" xr3:uid="{D8432F00-68F0-499E-8310-7BEAF2D5BFFA}" name="Lower Limit" dataDxfId="77"/>
+    <tableColumn id="12" xr3:uid="{BCED7806-F146-4B52-AF53-D5DE4EBA4D11}" name="Upper Limit" dataDxfId="76"/>
+    <tableColumn id="13" xr3:uid="{A3158C91-CCDA-42BB-98F8-B1415C87FD9F}" name="Step" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O6" totalsRowShown="0" headerRowBorderDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1579" displayName="Table1579" ref="A1:O6" totalsRowShown="0" headerRowBorderDxfId="74" tableBorderDxfId="73">
   <autoFilter ref="A1:O6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Internal" dataDxfId="39"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{832C45C5-9E76-4B8A-83B0-2EB32C68E2FD}" name="Description" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{1289F8CF-6170-44F2-AD7D-9E9A4F12BCD1}" name="Parameter 5" dataDxfId="29"/>
-    <tableColumn id="15" xr3:uid="{6D5C8F75-1A51-48AD-90E7-17A2F3986BE7}" name="Parameter 6" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{DB8C4311-5A85-4D8D-A5C2-F47C77E8643D}" name="Lower Limit" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{96A08B49-5A79-4F13-BC86-FC5E2B426E49}" name="Upper Limit" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{D4252238-C1B7-4D7A-B8C5-A52164228F94}" name="Step" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Internal" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{832C45C5-9E76-4B8A-83B0-2EB32C68E2FD}" name="Description" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Units" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Distribution Type" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Parameter 1" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Parameter 2" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Parameter 3" dataDxfId="64"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Parameter 4" dataDxfId="63"/>
+    <tableColumn id="14" xr3:uid="{1289F8CF-6170-44F2-AD7D-9E9A4F12BCD1}" name="Parameter 5" dataDxfId="62"/>
+    <tableColumn id="15" xr3:uid="{6D5C8F75-1A51-48AD-90E7-17A2F3986BE7}" name="Parameter 6" dataDxfId="61"/>
+    <tableColumn id="11" xr3:uid="{DB8C4311-5A85-4D8D-A5C2-F47C77E8643D}" name="Lower Limit" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{96A08B49-5A79-4F13-BC86-FC5E2B426E49}" name="Upper Limit" dataDxfId="59"/>
+    <tableColumn id="13" xr3:uid="{D4252238-C1B7-4D7A-B8C5-A52164228F94}" name="Step" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O4" totalsRowShown="0" headerRowBorderDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A1:O4" xr:uid="{C58E5582-2A25-434F-8C6A-2EF9AC741C58}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table157910" displayName="Table157910" ref="A1:O3" totalsRowShown="0" headerRowBorderDxfId="57" tableBorderDxfId="56">
+  <autoFilter ref="A1:O3" xr:uid="{C58E5582-2A25-434F-8C6A-2EF9AC741C58}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2">
     <sortCondition ref="B1:B2"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Internal" dataDxfId="16"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{63BA373B-667A-4A36-BB6C-997B9631910B}" name="Description" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{64E7458C-1D65-4712-ABFC-9DAF3D21B670}" name="Parameter 5" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{ABD8345F-8CFE-4FF4-A3F7-F6DB1042FE28}" name="Parameter 6" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{B286B466-1F40-4449-900C-61ACE92313F0}" name="Lower Limit" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{4CAE3350-4ABC-40B6-B059-3A8198700CE1}" name="Upper Limit" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{BC38CFEA-8053-4CB7-B237-C848302F26B7}" name="Step" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Internal" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Category" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{63BA373B-667A-4A36-BB6C-997B9631910B}" name="Description" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Units" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Distribution Type" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Parameter 1" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Parameter 2" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Parameter 3" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Parameter 4" dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{64E7458C-1D65-4712-ABFC-9DAF3D21B670}" name="Parameter 5" dataDxfId="45"/>
+    <tableColumn id="15" xr3:uid="{ABD8345F-8CFE-4FF4-A3F7-F6DB1042FE28}" name="Parameter 6" dataDxfId="44"/>
+    <tableColumn id="11" xr3:uid="{B286B466-1F40-4449-900C-61ACE92313F0}" name="Lower Limit" dataDxfId="43"/>
+    <tableColumn id="12" xr3:uid="{4CAE3350-4ABC-40B6-B059-3A8198700CE1}" name="Upper Limit" dataDxfId="42"/>
+    <tableColumn id="13" xr3:uid="{BC38CFEA-8053-4CB7-B237-C848302F26B7}" name="Step" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3785,10 +3740,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3891,7 +3846,7 @@
       <c r="C3" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E3" s="13" t="s">
@@ -3916,65 +3871,28 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:L4">
-    <cfRule type="expression" dxfId="24" priority="33">
+  <conditionalFormatting sqref="G2:L3">
+    <cfRule type="expression" dxfId="3" priority="33">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="23" priority="1">
-      <formula>ISBLANK($F3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
-      <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="21" priority="3">
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L4">
-    <cfRule type="expression" dxfId="19" priority="50">
+  <conditionalFormatting sqref="B2:L3">
+    <cfRule type="expression" dxfId="0" priority="50">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -4383,7 +4301,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4549,10 +4467,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L4">
-    <cfRule type="expression" dxfId="158" priority="43">
+    <cfRule type="expression" dxfId="40" priority="43">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="44">
+    <cfRule type="expression" dxfId="39" priority="44">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4893,10 +4811,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L8">
-    <cfRule type="expression" dxfId="140" priority="45">
+    <cfRule type="expression" dxfId="38" priority="45">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="46">
+    <cfRule type="expression" dxfId="37" priority="46">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5049,10 +4967,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L3">
-    <cfRule type="expression" dxfId="122" priority="47">
+    <cfRule type="expression" dxfId="36" priority="47">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="48">
+    <cfRule type="expression" dxfId="35" priority="48">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5241,36 +5159,36 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L4">
-    <cfRule type="expression" dxfId="104" priority="23">
+    <cfRule type="expression" dxfId="34" priority="23">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="103" priority="5">
+    <cfRule type="expression" dxfId="33" priority="5">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="101" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="99" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L4">
-    <cfRule type="expression" dxfId="97" priority="49">
+    <cfRule type="expression" dxfId="27" priority="49">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5458,41 +5376,41 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L4">
-    <cfRule type="expression" dxfId="80" priority="25">
+    <cfRule type="expression" dxfId="26" priority="25">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4 E4:L4 B2:L3">
-    <cfRule type="expression" dxfId="79" priority="38">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="78" priority="7">
+    <cfRule type="expression" dxfId="24" priority="7">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="77" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="75" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="73" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5750,62 +5668,62 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G2:L6">
-    <cfRule type="expression" dxfId="55" priority="33">
+    <cfRule type="expression" dxfId="17" priority="33">
       <formula>NOT((COLUMN(G2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 E2:L2 B6:C6 E6:L6 B3:L5">
-    <cfRule type="expression" dxfId="54" priority="42">
+    <cfRule type="expression" dxfId="16" priority="42">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="53" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="52" priority="11">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>ISBLANK($F6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="51" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="49" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>ISBLANK($F3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>NOT((COLUMN(A3)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F3, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="47" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>ISBLANK($F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>NOT((COLUMN(A4)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F4, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>ISBLANK($F5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>NOT((COLUMN(A5)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F5, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>ISBLANK($F6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>NOT((COLUMN(A6)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F6, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\EPA\WideAreaDecon\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFCAA79-0216-4D4B-928D-42C2547DCDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3397F9-B7B1-49ED-833A-05F609FD7ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="649" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="649" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="155">
   <si>
     <t>SCWAD</t>
   </si>
@@ -427,9 +427,6 @@
     <t>Outdoor Miscellaneous</t>
   </si>
   <si>
-    <t>The fraction of surface outdoors which is exterior buildings</t>
-  </si>
-  <si>
     <t>The fraction of surface outdoors which is pavement</t>
   </si>
   <si>
@@ -485,6 +482,33 @@
   </si>
   <si>
     <t>Loading</t>
+  </si>
+  <si>
+    <t>Indoor Surface Type Breakout</t>
+  </si>
+  <si>
+    <t>The fraction of surface indoors which is HVAC</t>
+  </si>
+  <si>
+    <t>The fraction of surface indoors which is miscellaneous</t>
+  </si>
+  <si>
+    <t>The fraction of surface indoors which is non-carpet</t>
+  </si>
+  <si>
+    <t>The fraction of surface indoors which is ceilings</t>
+  </si>
+  <si>
+    <t>The fraction of surface indoors which is carpet</t>
+  </si>
+  <si>
+    <t>The fraction of surface indoors which is walls</t>
+  </si>
+  <si>
+    <t>The fraction of surface outdoors which is building exterior</t>
+  </si>
+  <si>
+    <t>The fraction of surface indoors which is building exterior</t>
   </si>
 </sst>
 </file>
@@ -753,301 +777,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="158">
     <dxf>
       <font>
         <i/>
@@ -1067,300 +797,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1379,300 +815,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1691,300 +833,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -2003,300 +851,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -2315,300 +869,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -2627,300 +887,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -2939,300 +905,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -3249,6 +921,2484 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3264,192 +3414,192 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O26" totalsRowShown="0" tableBorderDxfId="141">
-  <autoFilter ref="A1:O26" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O33" totalsRowShown="0" tableBorderDxfId="157">
+  <autoFilter ref="A1:O33" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="140"/>
-    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="139"/>
-    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="138"/>
-    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="131"/>
-    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="130"/>
-    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="129"/>
-    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="128"/>
-    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="127"/>
-    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="126"/>
+    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="156"/>
+    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="155"/>
+    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="154"/>
+    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="153"/>
+    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="152"/>
+    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="151"/>
+    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="150"/>
+    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="149"/>
+    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="148"/>
+    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="147"/>
+    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="146"/>
+    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="145"/>
+    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="144"/>
+    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="143"/>
+    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F3CA1E-AAFF-44BC-A114-2AA862291D9E}" name="Table1568102" displayName="Table1568102" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F3CA1E-AAFF-44BC-A114-2AA862291D9E}" name="Table1568102" displayName="Table1568102" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="141">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{8FD38CEB-1D1A-41E8-821F-58DD4FBD85EB}" name="Phase" dataDxfId="122"/>
-    <tableColumn id="1" xr3:uid="{574AE483-6154-4EC6-AC18-5FDEBC0931CD}" name="Category" dataDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{EC332146-FEF7-42A1-9698-0FB7656BE557}" name="Name" dataDxfId="120"/>
-    <tableColumn id="10" xr3:uid="{F0942CE2-9658-4EB8-A19F-B3B76B6A5F95}" name="Description" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{B909ADC8-9FD8-4714-A691-8AD0F1933057}" name="Units" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{F8B8B123-0CBC-450A-B098-9FFA08F7FC89}" name="Distribution Type" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{AADB8566-896F-40D4-8181-BB145E678F9B}" name="Parameter 1" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{13B0114C-55D3-4603-92C6-09319B7E315B}" name="Parameter 2" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{7548BB98-B29E-4F39-B198-D6F9994CC04D}" name="Parameter 3" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{355D4B98-B5B0-461B-90E8-3D81112B89E2}" name="Parameter 4" dataDxfId="113"/>
-    <tableColumn id="14" xr3:uid="{14667F24-6EC2-4F8F-8EAA-56B4FF372D98}" name="Parameter 5" dataDxfId="112"/>
-    <tableColumn id="15" xr3:uid="{B058DB6A-9C46-4ED3-9483-5713AD52AE40}" name="Parameter 6" dataDxfId="111"/>
-    <tableColumn id="11" xr3:uid="{0E22E7A3-8506-41E8-AC60-E103665C60A2}" name="Lower Limit" dataDxfId="110"/>
-    <tableColumn id="12" xr3:uid="{479761C6-7DBC-4557-9E7C-984A37ABCB8A}" name="Upper Limit" dataDxfId="109"/>
-    <tableColumn id="13" xr3:uid="{F96695B6-2ADD-458A-A424-B58482082C80}" name="Step" dataDxfId="108"/>
+    <tableColumn id="9" xr3:uid="{8FD38CEB-1D1A-41E8-821F-58DD4FBD85EB}" name="Phase" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{574AE483-6154-4EC6-AC18-5FDEBC0931CD}" name="Category" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{EC332146-FEF7-42A1-9698-0FB7656BE557}" name="Name" dataDxfId="138"/>
+    <tableColumn id="10" xr3:uid="{F0942CE2-9658-4EB8-A19F-B3B76B6A5F95}" name="Description" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{B909ADC8-9FD8-4714-A691-8AD0F1933057}" name="Units" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{F8B8B123-0CBC-450A-B098-9FFA08F7FC89}" name="Distribution Type" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{AADB8566-896F-40D4-8181-BB145E678F9B}" name="Parameter 1" dataDxfId="134"/>
+    <tableColumn id="6" xr3:uid="{13B0114C-55D3-4603-92C6-09319B7E315B}" name="Parameter 2" dataDxfId="133"/>
+    <tableColumn id="7" xr3:uid="{7548BB98-B29E-4F39-B198-D6F9994CC04D}" name="Parameter 3" dataDxfId="132"/>
+    <tableColumn id="8" xr3:uid="{355D4B98-B5B0-461B-90E8-3D81112B89E2}" name="Parameter 4" dataDxfId="131"/>
+    <tableColumn id="14" xr3:uid="{14667F24-6EC2-4F8F-8EAA-56B4FF372D98}" name="Parameter 5" dataDxfId="130"/>
+    <tableColumn id="15" xr3:uid="{B058DB6A-9C46-4ED3-9483-5713AD52AE40}" name="Parameter 6" dataDxfId="129"/>
+    <tableColumn id="11" xr3:uid="{0E22E7A3-8506-41E8-AC60-E103665C60A2}" name="Lower Limit" dataDxfId="128"/>
+    <tableColumn id="12" xr3:uid="{479761C6-7DBC-4557-9E7C-984A37ABCB8A}" name="Upper Limit" dataDxfId="127"/>
+    <tableColumn id="13" xr3:uid="{F96695B6-2ADD-458A-A424-B58482082C80}" name="Step" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{88C3C7FF-7D66-4C1C-A80E-12CD3AFBFB8D}" name="Table156810210" displayName="Table156810210" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{88C3C7FF-7D66-4C1C-A80E-12CD3AFBFB8D}" name="Table156810210" displayName="Table156810210" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="125">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{5AC7EE20-3F52-40E0-87F1-21D82A7C3AA2}" name="Phase" dataDxfId="104"/>
-    <tableColumn id="1" xr3:uid="{9A9754BC-4FF9-4BBA-B750-B911CE430E6A}" name="Category" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{0A114B0A-D97E-4073-8E4E-5B16FB19520E}" name="Name" dataDxfId="102"/>
-    <tableColumn id="10" xr3:uid="{D1A72F97-70A3-4EEB-9316-B31F108E3FD5}" name="Description" dataDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{E8F09B1A-D952-4236-B6AD-8AC480554D73}" name="Units" dataDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{B1DC9551-CBBD-4BF4-B876-9237E0FB121D}" name="Distribution Type" dataDxfId="99"/>
-    <tableColumn id="5" xr3:uid="{72C76302-CA88-4629-BF3A-72DD8971E0B7}" name="Parameter 1" dataDxfId="98"/>
-    <tableColumn id="6" xr3:uid="{C319BB6E-60FD-4F37-B898-C033C52FE070}" name="Parameter 2" dataDxfId="97"/>
-    <tableColumn id="7" xr3:uid="{B370DF9A-4768-49F1-B38B-F65D182A01B4}" name="Parameter 3" dataDxfId="96"/>
-    <tableColumn id="8" xr3:uid="{7BADEC71-6529-4D26-804E-5C9B93DA84E8}" name="Parameter 4" dataDxfId="95"/>
-    <tableColumn id="14" xr3:uid="{125149FE-86DA-4053-8A54-90E57B52F8B0}" name="Parameter 5" dataDxfId="94"/>
-    <tableColumn id="15" xr3:uid="{BAA75930-0A4F-4888-8CAF-A3AFA6F3FF44}" name="Parameter 6" dataDxfId="93"/>
-    <tableColumn id="11" xr3:uid="{7442F6EC-3907-41A8-BBEF-87C9374C67E5}" name="Lower Limit" dataDxfId="92"/>
-    <tableColumn id="12" xr3:uid="{86E2B2CA-B8F0-4FF5-8C59-2D3C44061DFD}" name="Upper Limit" dataDxfId="91"/>
-    <tableColumn id="13" xr3:uid="{C697FE06-06BB-49EC-93BB-FF753593319A}" name="Step" dataDxfId="90"/>
+    <tableColumn id="9" xr3:uid="{5AC7EE20-3F52-40E0-87F1-21D82A7C3AA2}" name="Phase" dataDxfId="124"/>
+    <tableColumn id="1" xr3:uid="{9A9754BC-4FF9-4BBA-B750-B911CE430E6A}" name="Category" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{0A114B0A-D97E-4073-8E4E-5B16FB19520E}" name="Name" dataDxfId="122"/>
+    <tableColumn id="10" xr3:uid="{D1A72F97-70A3-4EEB-9316-B31F108E3FD5}" name="Description" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{E8F09B1A-D952-4236-B6AD-8AC480554D73}" name="Units" dataDxfId="120"/>
+    <tableColumn id="4" xr3:uid="{B1DC9551-CBBD-4BF4-B876-9237E0FB121D}" name="Distribution Type" dataDxfId="119"/>
+    <tableColumn id="5" xr3:uid="{72C76302-CA88-4629-BF3A-72DD8971E0B7}" name="Parameter 1" dataDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{C319BB6E-60FD-4F37-B898-C033C52FE070}" name="Parameter 2" dataDxfId="117"/>
+    <tableColumn id="7" xr3:uid="{B370DF9A-4768-49F1-B38B-F65D182A01B4}" name="Parameter 3" dataDxfId="116"/>
+    <tableColumn id="8" xr3:uid="{7BADEC71-6529-4D26-804E-5C9B93DA84E8}" name="Parameter 4" dataDxfId="115"/>
+    <tableColumn id="14" xr3:uid="{125149FE-86DA-4053-8A54-90E57B52F8B0}" name="Parameter 5" dataDxfId="114"/>
+    <tableColumn id="15" xr3:uid="{BAA75930-0A4F-4888-8CAF-A3AFA6F3FF44}" name="Parameter 6" dataDxfId="113"/>
+    <tableColumn id="11" xr3:uid="{7442F6EC-3907-41A8-BBEF-87C9374C67E5}" name="Lower Limit" dataDxfId="112"/>
+    <tableColumn id="12" xr3:uid="{86E2B2CA-B8F0-4FF5-8C59-2D3C44061DFD}" name="Upper Limit" dataDxfId="111"/>
+    <tableColumn id="13" xr3:uid="{C697FE06-06BB-49EC-93BB-FF753593319A}" name="Step" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6794810C-E49F-4CB0-9B2F-0FA2655BD884}" name="Table15681021011" displayName="Table15681021011" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6794810C-E49F-4CB0-9B2F-0FA2655BD884}" name="Table15681021011" displayName="Table15681021011" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="109">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{5DEAB66E-0CAB-4BF7-B4EA-D8D12FB47328}" name="Phase" dataDxfId="86"/>
-    <tableColumn id="1" xr3:uid="{69C64F5C-9979-4ACA-9A42-C1032E3D98BA}" name="Category" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{D4385687-B64B-46FB-B987-6E74F19DC1AF}" name="Name" dataDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{BE461B66-2B72-42A7-9F3F-5916187828CF}" name="Description" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{9EE711F7-7C5D-4C54-8A9A-D54F8833D434}" name="Units" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{6EAA6194-27E9-4B7C-8A4D-8C0FE7B617F4}" name="Distribution Type" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{75BC5E4C-C28D-4614-8AB6-165A9F7FE7CE}" name="Parameter 1" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{F5AD0C00-9187-4F91-ADA7-5B461FC355CE}" name="Parameter 2" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{34B0A2DF-5607-43F6-AA9E-1106CCB7621B}" name="Parameter 3" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{B0950426-083D-4CE9-A30E-9D71766BA154}" name="Parameter 4" dataDxfId="77"/>
-    <tableColumn id="14" xr3:uid="{88E7A84D-F80D-416C-9037-2E5927AE2697}" name="Parameter 5" dataDxfId="76"/>
-    <tableColumn id="15" xr3:uid="{E3DCF8BA-29B1-4A24-B6E6-DE9435CB3AC9}" name="Parameter 6" dataDxfId="75"/>
-    <tableColumn id="11" xr3:uid="{E8661EBF-62F4-4D4A-BCDC-7C8ABD4866B0}" name="Lower Limit" dataDxfId="74"/>
-    <tableColumn id="12" xr3:uid="{83DA3A0E-E097-4281-9822-6FE3F8FB0CDD}" name="Upper Limit" dataDxfId="73"/>
-    <tableColumn id="13" xr3:uid="{24B0E0E0-CA9C-4655-9B23-EA0BBD517B67}" name="Step" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{5DEAB66E-0CAB-4BF7-B4EA-D8D12FB47328}" name="Phase" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{69C64F5C-9979-4ACA-9A42-C1032E3D98BA}" name="Category" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{D4385687-B64B-46FB-B987-6E74F19DC1AF}" name="Name" dataDxfId="106"/>
+    <tableColumn id="10" xr3:uid="{BE461B66-2B72-42A7-9F3F-5916187828CF}" name="Description" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{9EE711F7-7C5D-4C54-8A9A-D54F8833D434}" name="Units" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{6EAA6194-27E9-4B7C-8A4D-8C0FE7B617F4}" name="Distribution Type" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{75BC5E4C-C28D-4614-8AB6-165A9F7FE7CE}" name="Parameter 1" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{F5AD0C00-9187-4F91-ADA7-5B461FC355CE}" name="Parameter 2" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{34B0A2DF-5607-43F6-AA9E-1106CCB7621B}" name="Parameter 3" dataDxfId="100"/>
+    <tableColumn id="8" xr3:uid="{B0950426-083D-4CE9-A30E-9D71766BA154}" name="Parameter 4" dataDxfId="99"/>
+    <tableColumn id="14" xr3:uid="{88E7A84D-F80D-416C-9037-2E5927AE2697}" name="Parameter 5" dataDxfId="98"/>
+    <tableColumn id="15" xr3:uid="{E3DCF8BA-29B1-4A24-B6E6-DE9435CB3AC9}" name="Parameter 6" dataDxfId="97"/>
+    <tableColumn id="11" xr3:uid="{E8661EBF-62F4-4D4A-BCDC-7C8ABD4866B0}" name="Lower Limit" dataDxfId="96"/>
+    <tableColumn id="12" xr3:uid="{83DA3A0E-E097-4281-9822-6FE3F8FB0CDD}" name="Upper Limit" dataDxfId="95"/>
+    <tableColumn id="13" xr3:uid="{24B0E0E0-CA9C-4655-9B23-EA0BBD517B67}" name="Step" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{81C05191-4139-4D49-BA19-E7D2B74357F9}" name="Table15681021012" displayName="Table15681021012" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{81C05191-4139-4D49-BA19-E7D2B74357F9}" name="Table15681021012" displayName="Table15681021012" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="93">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{64A27C3D-2E18-40E6-9166-742BDA2B413C}" name="Phase" dataDxfId="68"/>
-    <tableColumn id="1" xr3:uid="{0243CFE4-EBE7-4500-A226-23C63BE2FB81}" name="Category" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{69F68BF8-9E6A-4766-AB29-A8B943A84522}" name="Name" dataDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{1E4511F0-B286-4973-A437-9638677030CA}" name="Description" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{B80720A6-55E5-4A17-9FE9-9951AF480E02}" name="Units" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{54B33DED-7F55-4D76-B95F-B7050BBA4BD1}" name="Distribution Type" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{BC7C6514-68B9-48F6-9938-4088DF28B37C}" name="Parameter 1" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{4D372042-F7DE-4E72-A309-C4266E0FA9E8}" name="Parameter 2" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{8D92705D-1A42-46F5-89EA-C4113CC26587}" name="Parameter 3" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{13B56E18-7C36-4950-847A-A7544475E1D1}" name="Parameter 4" dataDxfId="59"/>
-    <tableColumn id="14" xr3:uid="{2649C7B2-1C48-4B13-969D-684D0045538B}" name="Parameter 5" dataDxfId="58"/>
-    <tableColumn id="15" xr3:uid="{5D6C4F8D-D31E-4EED-BABF-A0A688F3A916}" name="Parameter 6" dataDxfId="57"/>
-    <tableColumn id="11" xr3:uid="{1CB1896E-F77C-4DFC-9AB0-D0C102F3F80F}" name="Lower Limit" dataDxfId="56"/>
-    <tableColumn id="12" xr3:uid="{837665AD-748D-4B51-9CCA-780B67A76815}" name="Upper Limit" dataDxfId="55"/>
-    <tableColumn id="13" xr3:uid="{A8F2935C-D451-47EA-A1E1-1E4F0CAE8D87}" name="Step" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{64A27C3D-2E18-40E6-9166-742BDA2B413C}" name="Phase" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{0243CFE4-EBE7-4500-A226-23C63BE2FB81}" name="Category" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{69F68BF8-9E6A-4766-AB29-A8B943A84522}" name="Name" dataDxfId="90"/>
+    <tableColumn id="10" xr3:uid="{1E4511F0-B286-4973-A437-9638677030CA}" name="Description" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{B80720A6-55E5-4A17-9FE9-9951AF480E02}" name="Units" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{54B33DED-7F55-4D76-B95F-B7050BBA4BD1}" name="Distribution Type" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{BC7C6514-68B9-48F6-9938-4088DF28B37C}" name="Parameter 1" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{4D372042-F7DE-4E72-A309-C4266E0FA9E8}" name="Parameter 2" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{8D92705D-1A42-46F5-89EA-C4113CC26587}" name="Parameter 3" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{13B56E18-7C36-4950-847A-A7544475E1D1}" name="Parameter 4" dataDxfId="83"/>
+    <tableColumn id="14" xr3:uid="{2649C7B2-1C48-4B13-969D-684D0045538B}" name="Parameter 5" dataDxfId="82"/>
+    <tableColumn id="15" xr3:uid="{5D6C4F8D-D31E-4EED-BABF-A0A688F3A916}" name="Parameter 6" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{1CB1896E-F77C-4DFC-9AB0-D0C102F3F80F}" name="Lower Limit" dataDxfId="80"/>
+    <tableColumn id="12" xr3:uid="{837665AD-748D-4B51-9CCA-780B67A76815}" name="Upper Limit" dataDxfId="79"/>
+    <tableColumn id="13" xr3:uid="{A8F2935C-D451-47EA-A1E1-1E4F0CAE8D87}" name="Step" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2EC220FC-5886-477C-8B2C-57082D8749AA}" name="Table1568102101213" displayName="Table1568102101213" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2EC220FC-5886-477C-8B2C-57082D8749AA}" name="Table1568102101213" displayName="Table1568102101213" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="77">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{525577E1-B46F-47FB-A042-A56D8D45D9AD}" name="Phase" dataDxfId="50"/>
-    <tableColumn id="1" xr3:uid="{30AFC0FE-4503-4A4B-91CA-E5B88AA24F98}" name="Category" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{6333C26F-3D36-4A65-8F1B-CC515ADCE181}" name="Name" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{057A52C2-DED0-48A5-8844-3950CD398F8D}" name="Description" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{EF447B65-8A6A-4F12-ABCB-7BFE84B734A9}" name="Units" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{6E658D46-B4D3-46B1-A15B-9F0095A7EADD}" name="Distribution Type" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{FE235A77-6EFF-4D9A-926F-ACE5D51D4BC8}" name="Parameter 1" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{26694561-3958-440C-BDDC-2DB16EB8A614}" name="Parameter 2" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{DA96F9A2-3DEB-4C42-BECF-B9C30ADA7428}" name="Parameter 3" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{5F8A48E3-9BBF-4210-88D8-F668C1FD845D}" name="Parameter 4" dataDxfId="41"/>
-    <tableColumn id="14" xr3:uid="{21514092-10F7-41E0-B078-A15175C73E93}" name="Parameter 5" dataDxfId="40"/>
-    <tableColumn id="15" xr3:uid="{8BFA8A6A-2BCB-4512-8B77-28D2C28FEEE3}" name="Parameter 6" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{9CB23DDB-2513-48F3-960F-EF0D57CD9724}" name="Lower Limit" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{EDE53E3A-8BAE-4FD6-9C38-CD4B63274C67}" name="Upper Limit" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{980D57FA-1EDD-484A-9D56-BF7EAA580C8D}" name="Step" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{525577E1-B46F-47FB-A042-A56D8D45D9AD}" name="Phase" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{30AFC0FE-4503-4A4B-91CA-E5B88AA24F98}" name="Category" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{6333C26F-3D36-4A65-8F1B-CC515ADCE181}" name="Name" dataDxfId="74"/>
+    <tableColumn id="10" xr3:uid="{057A52C2-DED0-48A5-8844-3950CD398F8D}" name="Description" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{EF447B65-8A6A-4F12-ABCB-7BFE84B734A9}" name="Units" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{6E658D46-B4D3-46B1-A15B-9F0095A7EADD}" name="Distribution Type" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{FE235A77-6EFF-4D9A-926F-ACE5D51D4BC8}" name="Parameter 1" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{26694561-3958-440C-BDDC-2DB16EB8A614}" name="Parameter 2" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{DA96F9A2-3DEB-4C42-BECF-B9C30ADA7428}" name="Parameter 3" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{5F8A48E3-9BBF-4210-88D8-F668C1FD845D}" name="Parameter 4" dataDxfId="67"/>
+    <tableColumn id="14" xr3:uid="{21514092-10F7-41E0-B078-A15175C73E93}" name="Parameter 5" dataDxfId="66"/>
+    <tableColumn id="15" xr3:uid="{8BFA8A6A-2BCB-4512-8B77-28D2C28FEEE3}" name="Parameter 6" dataDxfId="65"/>
+    <tableColumn id="11" xr3:uid="{9CB23DDB-2513-48F3-960F-EF0D57CD9724}" name="Lower Limit" dataDxfId="64"/>
+    <tableColumn id="12" xr3:uid="{EDE53E3A-8BAE-4FD6-9C38-CD4B63274C67}" name="Upper Limit" dataDxfId="63"/>
+    <tableColumn id="13" xr3:uid="{980D57FA-1EDD-484A-9D56-BF7EAA580C8D}" name="Step" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3DDD9CB2-968B-4A43-A20B-C749950155AA}" name="Table156810210121314" displayName="Table156810210121314" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3DDD9CB2-968B-4A43-A20B-C749950155AA}" name="Table156810210121314" displayName="Table156810210121314" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="61">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{6B814874-1824-4E56-A967-04F9F6F3E584}" name="Phase" dataDxfId="32"/>
-    <tableColumn id="1" xr3:uid="{FE1635BE-F6C3-4D5B-B06E-7A92EBAB074D}" name="Category" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{9C16A715-E236-4930-A633-7510E082392C}" name="Name" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{B556C16A-1909-46E7-BC6D-8479761F1F65}" name="Description" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{5EFB6F3C-9894-43AA-AFAC-1013F8F0714B}" name="Units" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{6E3C1049-1D84-4FD5-B7CF-1E130CD32BCA}" name="Distribution Type" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{57E979B1-A630-4AC5-8C4D-CED1A62F587D}" name="Parameter 1" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{C9EF8DDD-DA1F-44E2-AC90-B6993C60CF1F}" name="Parameter 2" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{6FEFD03F-983B-47E2-9525-7EDD875A9C7C}" name="Parameter 3" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{0B661DB2-D286-4AEE-88C3-124B37F1B246}" name="Parameter 4" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{08C4ACC8-5A7B-4864-96E4-CF69FD654892}" name="Parameter 5" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{5505BBCC-5C52-4400-9C19-9ED7DBB490B8}" name="Parameter 6" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{E151AC3B-28ED-4186-A803-48B7F8B7AE5B}" name="Lower Limit" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{223709CC-AD09-4677-85AC-DF8A1619BF81}" name="Upper Limit" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{5FAAB5F5-A70D-4A6B-BE36-5CC1FD787BC5}" name="Step" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{6B814874-1824-4E56-A967-04F9F6F3E584}" name="Phase" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{FE1635BE-F6C3-4D5B-B06E-7A92EBAB074D}" name="Category" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{9C16A715-E236-4930-A633-7510E082392C}" name="Name" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{B556C16A-1909-46E7-BC6D-8479761F1F65}" name="Description" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{5EFB6F3C-9894-43AA-AFAC-1013F8F0714B}" name="Units" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{6E3C1049-1D84-4FD5-B7CF-1E130CD32BCA}" name="Distribution Type" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{57E979B1-A630-4AC5-8C4D-CED1A62F587D}" name="Parameter 1" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{C9EF8DDD-DA1F-44E2-AC90-B6993C60CF1F}" name="Parameter 2" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{6FEFD03F-983B-47E2-9525-7EDD875A9C7C}" name="Parameter 3" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{0B661DB2-D286-4AEE-88C3-124B37F1B246}" name="Parameter 4" dataDxfId="51"/>
+    <tableColumn id="14" xr3:uid="{08C4ACC8-5A7B-4864-96E4-CF69FD654892}" name="Parameter 5" dataDxfId="50"/>
+    <tableColumn id="15" xr3:uid="{5505BBCC-5C52-4400-9C19-9ED7DBB490B8}" name="Parameter 6" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{E151AC3B-28ED-4186-A803-48B7F8B7AE5B}" name="Lower Limit" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{223709CC-AD09-4677-85AC-DF8A1619BF81}" name="Upper Limit" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{5FAAB5F5-A70D-4A6B-BE36-5CC1FD787BC5}" name="Step" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FBB513AC-2D2B-4552-8740-9D611743FE70}" name="Table15681021012131415" displayName="Table15681021012131415" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FBB513AC-2D2B-4552-8740-9D611743FE70}" name="Table15681021012131415" displayName="Table15681021012131415" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="45">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{2035FE2F-0A32-497E-B1E0-30D237A0E150}" name="Phase" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{F814DF41-D024-449F-AF42-62D43153FFB7}" name="Category" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7DC8FB15-5985-4C4F-ADF3-7A17F5076A68}" name="Name" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{614B9103-CB85-46A8-93A4-7DE4EBCB5D2B}" name="Description" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{E1C6CE34-10C1-4516-B6D9-58BC2F148637}" name="Units" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{2DC3C549-6825-4F8C-B404-F2995425599E}" name="Distribution Type" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{805795A1-E0DE-4FCC-9EBD-DDCCA12F0793}" name="Parameter 1" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{8AEEFD06-21CF-4496-9CA8-A505BA5018C8}" name="Parameter 2" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{81F9FC74-65BB-4D24-8C32-944022DBFF45}" name="Parameter 3" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{B80C3AAC-1FDC-42E7-B79C-4A7F876448A4}" name="Parameter 4" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{07C0D5EC-F968-40E1-8F17-889B90B82192}" name="Parameter 5" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{0302BE75-0A0F-489C-99C0-05DCDFC40A44}" name="Parameter 6" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{8B4A7C21-F1CF-4881-A5A6-4163F9C44F88}" name="Lower Limit" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{F4935CE7-6ADF-493E-B887-56BFE62D0ADC}" name="Upper Limit" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{5249EF7A-61B0-47D7-A1ED-48836EF45F76}" name="Step" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{2035FE2F-0A32-497E-B1E0-30D237A0E150}" name="Phase" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{F814DF41-D024-449F-AF42-62D43153FFB7}" name="Category" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{7DC8FB15-5985-4C4F-ADF3-7A17F5076A68}" name="Name" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{614B9103-CB85-46A8-93A4-7DE4EBCB5D2B}" name="Description" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{E1C6CE34-10C1-4516-B6D9-58BC2F148637}" name="Units" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{2DC3C549-6825-4F8C-B404-F2995425599E}" name="Distribution Type" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{805795A1-E0DE-4FCC-9EBD-DDCCA12F0793}" name="Parameter 1" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{8AEEFD06-21CF-4496-9CA8-A505BA5018C8}" name="Parameter 2" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{81F9FC74-65BB-4D24-8C32-944022DBFF45}" name="Parameter 3" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{B80C3AAC-1FDC-42E7-B79C-4A7F876448A4}" name="Parameter 4" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{07C0D5EC-F968-40E1-8F17-889B90B82192}" name="Parameter 5" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{0302BE75-0A0F-489C-99C0-05DCDFC40A44}" name="Parameter 6" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{8B4A7C21-F1CF-4881-A5A6-4163F9C44F88}" name="Lower Limit" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{F4935CE7-6ADF-493E-B887-56BFE62D0ADC}" name="Upper Limit" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{5249EF7A-61B0-47D7-A1ED-48836EF45F76}" name="Step" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3759,9 +3909,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3782,16 +3932,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="67.5703125" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.5546875" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -3838,7 +3988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>71</v>
       </c>
@@ -3875,7 +4025,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>71</v>
       </c>
@@ -3910,7 +4060,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>71</v>
       </c>
@@ -3947,7 +4097,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>71</v>
       </c>
@@ -3984,7 +4134,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>71</v>
       </c>
@@ -4021,7 +4171,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>71</v>
       </c>
@@ -4058,7 +4208,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>71</v>
       </c>
@@ -4095,7 +4245,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>71</v>
       </c>
@@ -4132,7 +4282,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>71</v>
       </c>
@@ -4171,10 +4321,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4198,16 +4348,16 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="67.5703125" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.5546875" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -4254,7 +4404,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>71</v>
       </c>
@@ -4291,7 +4441,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>71</v>
       </c>
@@ -4326,7 +4476,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>71</v>
       </c>
@@ -4363,7 +4513,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>71</v>
       </c>
@@ -4400,7 +4550,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>71</v>
       </c>
@@ -4437,7 +4587,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>71</v>
       </c>
@@ -4474,7 +4624,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>71</v>
       </c>
@@ -4511,7 +4661,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>71</v>
       </c>
@@ -4548,7 +4698,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>71</v>
       </c>
@@ -4587,10 +4737,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4615,14 +4765,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -4648,7 +4798,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -4664,7 +4814,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -4682,7 +4832,7 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>85</v>
       </c>
@@ -4704,7 +4854,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>86</v>
       </c>
@@ -4724,7 +4874,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>87</v>
       </c>
@@ -4742,7 +4892,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>88</v>
       </c>
@@ -4764,7 +4914,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>89</v>
       </c>
@@ -4782,7 +4932,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>90</v>
       </c>
@@ -4800,7 +4950,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>91</v>
       </c>
@@ -4822,7 +4972,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>92</v>
       </c>
@@ -4848,12 +4998,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>100</v>
       </c>
@@ -4873,34 +5023,34 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>ROWS($A$10:A10)</f>
         <v>1</v>
@@ -4909,7 +5059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>ROWS($A$10:A11)</f>
         <v>2</v>
@@ -4918,7 +5068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>ROWS($A$10:A12)</f>
         <v>3</v>
@@ -4927,7 +5077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>ROWS($A$10:A13)</f>
         <v>4</v>
@@ -4936,7 +5086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>ROWS($A$10:A14)</f>
         <v>5</v>
@@ -4945,7 +5095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -4953,12 +5103,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4966,17 +5116,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -4984,22 +5134,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>24</v>
       </c>
@@ -5011,22 +5161,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097870CC-1A0F-461E-BDFD-29BDDFDDF05C}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -5073,7 +5223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -5081,7 +5231,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>53</v>
@@ -5108,7 +5258,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>70</v>
       </c>
@@ -5116,7 +5266,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>93</v>
@@ -5143,7 +5293,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>71</v>
       </c>
@@ -5151,7 +5301,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>52</v>
@@ -5178,7 +5328,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>71</v>
       </c>
@@ -5186,7 +5336,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>94</v>
@@ -5213,7 +5363,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>72</v>
       </c>
@@ -5221,7 +5371,7 @@
         <v>72</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>73</v>
@@ -5248,7 +5398,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>72</v>
       </c>
@@ -5256,7 +5406,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>95</v>
@@ -5283,7 +5433,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>71</v>
       </c>
@@ -5320,7 +5470,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>71</v>
       </c>
@@ -5357,7 +5507,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>71</v>
       </c>
@@ -5394,7 +5544,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>71</v>
       </c>
@@ -5431,7 +5581,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>71</v>
       </c>
@@ -5468,7 +5618,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>71</v>
       </c>
@@ -5505,7 +5655,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>71</v>
       </c>
@@ -5542,7 +5692,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>70</v>
       </c>
@@ -5553,7 +5703,7 @@
         <v>120</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>68</v>
@@ -5579,7 +5729,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -5590,7 +5740,7 @@
         <v>120</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>68</v>
@@ -5616,7 +5766,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>70</v>
       </c>
@@ -5627,7 +5777,7 @@
         <v>120</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>68</v>
@@ -5653,7 +5803,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>70</v>
       </c>
@@ -5664,7 +5814,7 @@
         <v>120</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>68</v>
@@ -5690,7 +5840,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>70</v>
       </c>
@@ -5701,7 +5851,7 @@
         <v>120</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>68</v>
@@ -5727,7 +5877,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>70</v>
       </c>
@@ -5738,7 +5888,7 @@
         <v>120</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>68</v>
@@ -5764,18 +5914,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>68</v>
@@ -5801,18 +5951,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>68</v>
@@ -5838,18 +5988,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>68</v>
@@ -5875,18 +6025,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>68</v>
@@ -5912,18 +6062,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>68</v>
@@ -5949,7 +6099,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>72</v>
       </c>
@@ -5957,10 +6107,10 @@
         <v>110</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>68</v>
@@ -5986,18 +6136,277 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="12">
+        <v>0</v>
+      </c>
+      <c r="N27" s="12">
+        <v>1</v>
+      </c>
+      <c r="O27" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="12">
+        <v>0</v>
+      </c>
+      <c r="N28" s="12">
+        <v>1</v>
+      </c>
+      <c r="O28" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="12">
+        <v>0</v>
+      </c>
+      <c r="N29" s="12">
+        <v>1</v>
+      </c>
+      <c r="O29" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="12">
+        <v>0</v>
+      </c>
+      <c r="N30" s="12">
+        <v>1</v>
+      </c>
+      <c r="O30" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="12">
+        <v>0</v>
+      </c>
+      <c r="N31" s="12">
+        <v>1</v>
+      </c>
+      <c r="O31" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="12">
+        <v>0</v>
+      </c>
+      <c r="N32" s="12">
+        <v>1</v>
+      </c>
+      <c r="O32" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="12">
+        <v>0</v>
+      </c>
+      <c r="N33" s="12">
+        <v>1</v>
+      </c>
+      <c r="O33" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L26">
-    <cfRule type="expression" dxfId="143" priority="43">
+  <conditionalFormatting sqref="A2:L33">
+    <cfRule type="expression" dxfId="15" priority="43">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="44">
+    <cfRule type="expression" dxfId="14" priority="44">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F26" xr:uid="{330BE9FB-867A-4350-A3CC-F1598E7F7C5E}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F33" xr:uid="{330BE9FB-867A-4350-A3CC-F1598E7F7C5E}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -6012,20 +6421,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CC74AC-9C8A-4982-AAA7-A84AB700668C}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="67.5703125" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.5546875" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -6072,7 +6481,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>71</v>
       </c>
@@ -6109,7 +6518,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>71</v>
       </c>
@@ -6144,7 +6553,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>71</v>
       </c>
@@ -6181,7 +6590,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>71</v>
       </c>
@@ -6218,7 +6627,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>71</v>
       </c>
@@ -6255,7 +6664,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>71</v>
       </c>
@@ -6292,7 +6701,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>71</v>
       </c>
@@ -6329,7 +6738,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>71</v>
       </c>
@@ -6366,7 +6775,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>71</v>
       </c>
@@ -6405,10 +6814,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="125" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6432,16 +6841,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="67.5703125" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.5546875" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -6488,7 +6897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>71</v>
       </c>
@@ -6525,7 +6934,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>71</v>
       </c>
@@ -6560,7 +6969,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>71</v>
       </c>
@@ -6597,7 +7006,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>71</v>
       </c>
@@ -6634,7 +7043,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>71</v>
       </c>
@@ -6671,7 +7080,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>71</v>
       </c>
@@ -6708,7 +7117,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>71</v>
       </c>
@@ -6745,7 +7154,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>71</v>
       </c>
@@ -6782,7 +7191,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>71</v>
       </c>
@@ -6821,10 +7230,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="107" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6848,16 +7257,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="67.5703125" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.5546875" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -6904,7 +7313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>71</v>
       </c>
@@ -6941,7 +7350,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>71</v>
       </c>
@@ -6976,7 +7385,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>71</v>
       </c>
@@ -7013,7 +7422,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>71</v>
       </c>
@@ -7050,7 +7459,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>71</v>
       </c>
@@ -7087,7 +7496,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>71</v>
       </c>
@@ -7124,7 +7533,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>71</v>
       </c>
@@ -7161,7 +7570,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>71</v>
       </c>
@@ -7198,7 +7607,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>71</v>
       </c>
@@ -7237,10 +7646,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="89" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7264,16 +7673,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="67.5703125" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.5546875" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -7320,7 +7729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>71</v>
       </c>
@@ -7357,7 +7766,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>71</v>
       </c>
@@ -7392,7 +7801,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>71</v>
       </c>
@@ -7429,7 +7838,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>71</v>
       </c>
@@ -7466,7 +7875,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>71</v>
       </c>
@@ -7503,7 +7912,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>71</v>
       </c>
@@ -7540,7 +7949,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>71</v>
       </c>
@@ -7577,7 +7986,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>71</v>
       </c>
@@ -7614,7 +8023,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>71</v>
       </c>
@@ -7653,10 +8062,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7680,16 +8089,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="67.5703125" customWidth="1"/>
-    <col min="5" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.5546875" customWidth="1"/>
+    <col min="5" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -7736,7 +8145,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>71</v>
       </c>
@@ -7773,7 +8182,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>71</v>
       </c>
@@ -7808,7 +8217,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>71</v>
       </c>
@@ -7845,7 +8254,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>71</v>
       </c>
@@ -7882,7 +8291,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>71</v>
       </c>
@@ -7919,7 +8328,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>71</v>
       </c>
@@ -7956,7 +8365,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>71</v>
       </c>
@@ -7993,7 +8402,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>71</v>
       </c>
@@ -8030,7 +8439,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>71</v>
       </c>
@@ -8069,10 +8478,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3397F9-B7B1-49ED-833A-05F609FD7ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53721C12-32F1-412B-8A22-DCBC7EEB101D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="649" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="154">
   <si>
     <t>SCWAD</t>
   </si>
@@ -473,9 +473,6 @@
   </si>
   <si>
     <t>The fraction of surface underground which is miscellaneous</t>
-  </si>
-  <si>
-    <t>The fraction of surface underground which is HVAC</t>
   </si>
   <si>
     <t>Area Contaminated</t>
@@ -777,133 +774,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="158">
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="144">
     <dxf>
       <font>
         <i/>
@@ -3414,192 +3285,192 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O33" totalsRowShown="0" tableBorderDxfId="157">
-  <autoFilter ref="A1:O33" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O32" totalsRowShown="0" tableBorderDxfId="143">
+  <autoFilter ref="A1:O32" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="156"/>
-    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="154"/>
-    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="153"/>
-    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="152"/>
-    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="151"/>
-    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="150"/>
-    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="149"/>
-    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="148"/>
-    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="147"/>
-    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="146"/>
-    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="145"/>
-    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="144"/>
-    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="143"/>
-    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="142"/>
+    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="142"/>
+    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="140"/>
+    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="136"/>
+    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="135"/>
+    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="134"/>
+    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="133"/>
+    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="132"/>
+    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="131"/>
+    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="130"/>
+    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="129"/>
+    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F3CA1E-AAFF-44BC-A114-2AA862291D9E}" name="Table1568102" displayName="Table1568102" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F3CA1E-AAFF-44BC-A114-2AA862291D9E}" name="Table1568102" displayName="Table1568102" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="127">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{8FD38CEB-1D1A-41E8-821F-58DD4FBD85EB}" name="Phase" dataDxfId="140"/>
-    <tableColumn id="1" xr3:uid="{574AE483-6154-4EC6-AC18-5FDEBC0931CD}" name="Category" dataDxfId="139"/>
-    <tableColumn id="2" xr3:uid="{EC332146-FEF7-42A1-9698-0FB7656BE557}" name="Name" dataDxfId="138"/>
-    <tableColumn id="10" xr3:uid="{F0942CE2-9658-4EB8-A19F-B3B76B6A5F95}" name="Description" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{B909ADC8-9FD8-4714-A691-8AD0F1933057}" name="Units" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{F8B8B123-0CBC-450A-B098-9FFA08F7FC89}" name="Distribution Type" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{AADB8566-896F-40D4-8181-BB145E678F9B}" name="Parameter 1" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{13B0114C-55D3-4603-92C6-09319B7E315B}" name="Parameter 2" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{7548BB98-B29E-4F39-B198-D6F9994CC04D}" name="Parameter 3" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{355D4B98-B5B0-461B-90E8-3D81112B89E2}" name="Parameter 4" dataDxfId="131"/>
-    <tableColumn id="14" xr3:uid="{14667F24-6EC2-4F8F-8EAA-56B4FF372D98}" name="Parameter 5" dataDxfId="130"/>
-    <tableColumn id="15" xr3:uid="{B058DB6A-9C46-4ED3-9483-5713AD52AE40}" name="Parameter 6" dataDxfId="129"/>
-    <tableColumn id="11" xr3:uid="{0E22E7A3-8506-41E8-AC60-E103665C60A2}" name="Lower Limit" dataDxfId="128"/>
-    <tableColumn id="12" xr3:uid="{479761C6-7DBC-4557-9E7C-984A37ABCB8A}" name="Upper Limit" dataDxfId="127"/>
-    <tableColumn id="13" xr3:uid="{F96695B6-2ADD-458A-A424-B58482082C80}" name="Step" dataDxfId="126"/>
+    <tableColumn id="9" xr3:uid="{8FD38CEB-1D1A-41E8-821F-58DD4FBD85EB}" name="Phase" dataDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{574AE483-6154-4EC6-AC18-5FDEBC0931CD}" name="Category" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{EC332146-FEF7-42A1-9698-0FB7656BE557}" name="Name" dataDxfId="124"/>
+    <tableColumn id="10" xr3:uid="{F0942CE2-9658-4EB8-A19F-B3B76B6A5F95}" name="Description" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{B909ADC8-9FD8-4714-A691-8AD0F1933057}" name="Units" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{F8B8B123-0CBC-450A-B098-9FFA08F7FC89}" name="Distribution Type" dataDxfId="121"/>
+    <tableColumn id="5" xr3:uid="{AADB8566-896F-40D4-8181-BB145E678F9B}" name="Parameter 1" dataDxfId="120"/>
+    <tableColumn id="6" xr3:uid="{13B0114C-55D3-4603-92C6-09319B7E315B}" name="Parameter 2" dataDxfId="119"/>
+    <tableColumn id="7" xr3:uid="{7548BB98-B29E-4F39-B198-D6F9994CC04D}" name="Parameter 3" dataDxfId="118"/>
+    <tableColumn id="8" xr3:uid="{355D4B98-B5B0-461B-90E8-3D81112B89E2}" name="Parameter 4" dataDxfId="117"/>
+    <tableColumn id="14" xr3:uid="{14667F24-6EC2-4F8F-8EAA-56B4FF372D98}" name="Parameter 5" dataDxfId="116"/>
+    <tableColumn id="15" xr3:uid="{B058DB6A-9C46-4ED3-9483-5713AD52AE40}" name="Parameter 6" dataDxfId="115"/>
+    <tableColumn id="11" xr3:uid="{0E22E7A3-8506-41E8-AC60-E103665C60A2}" name="Lower Limit" dataDxfId="114"/>
+    <tableColumn id="12" xr3:uid="{479761C6-7DBC-4557-9E7C-984A37ABCB8A}" name="Upper Limit" dataDxfId="113"/>
+    <tableColumn id="13" xr3:uid="{F96695B6-2ADD-458A-A424-B58482082C80}" name="Step" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{88C3C7FF-7D66-4C1C-A80E-12CD3AFBFB8D}" name="Table156810210" displayName="Table156810210" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{88C3C7FF-7D66-4C1C-A80E-12CD3AFBFB8D}" name="Table156810210" displayName="Table156810210" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="111">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{5AC7EE20-3F52-40E0-87F1-21D82A7C3AA2}" name="Phase" dataDxfId="124"/>
-    <tableColumn id="1" xr3:uid="{9A9754BC-4FF9-4BBA-B750-B911CE430E6A}" name="Category" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{0A114B0A-D97E-4073-8E4E-5B16FB19520E}" name="Name" dataDxfId="122"/>
-    <tableColumn id="10" xr3:uid="{D1A72F97-70A3-4EEB-9316-B31F108E3FD5}" name="Description" dataDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{E8F09B1A-D952-4236-B6AD-8AC480554D73}" name="Units" dataDxfId="120"/>
-    <tableColumn id="4" xr3:uid="{B1DC9551-CBBD-4BF4-B876-9237E0FB121D}" name="Distribution Type" dataDxfId="119"/>
-    <tableColumn id="5" xr3:uid="{72C76302-CA88-4629-BF3A-72DD8971E0B7}" name="Parameter 1" dataDxfId="118"/>
-    <tableColumn id="6" xr3:uid="{C319BB6E-60FD-4F37-B898-C033C52FE070}" name="Parameter 2" dataDxfId="117"/>
-    <tableColumn id="7" xr3:uid="{B370DF9A-4768-49F1-B38B-F65D182A01B4}" name="Parameter 3" dataDxfId="116"/>
-    <tableColumn id="8" xr3:uid="{7BADEC71-6529-4D26-804E-5C9B93DA84E8}" name="Parameter 4" dataDxfId="115"/>
-    <tableColumn id="14" xr3:uid="{125149FE-86DA-4053-8A54-90E57B52F8B0}" name="Parameter 5" dataDxfId="114"/>
-    <tableColumn id="15" xr3:uid="{BAA75930-0A4F-4888-8CAF-A3AFA6F3FF44}" name="Parameter 6" dataDxfId="113"/>
-    <tableColumn id="11" xr3:uid="{7442F6EC-3907-41A8-BBEF-87C9374C67E5}" name="Lower Limit" dataDxfId="112"/>
-    <tableColumn id="12" xr3:uid="{86E2B2CA-B8F0-4FF5-8C59-2D3C44061DFD}" name="Upper Limit" dataDxfId="111"/>
-    <tableColumn id="13" xr3:uid="{C697FE06-06BB-49EC-93BB-FF753593319A}" name="Step" dataDxfId="110"/>
+    <tableColumn id="9" xr3:uid="{5AC7EE20-3F52-40E0-87F1-21D82A7C3AA2}" name="Phase" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{9A9754BC-4FF9-4BBA-B750-B911CE430E6A}" name="Category" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{0A114B0A-D97E-4073-8E4E-5B16FB19520E}" name="Name" dataDxfId="108"/>
+    <tableColumn id="10" xr3:uid="{D1A72F97-70A3-4EEB-9316-B31F108E3FD5}" name="Description" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{E8F09B1A-D952-4236-B6AD-8AC480554D73}" name="Units" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{B1DC9551-CBBD-4BF4-B876-9237E0FB121D}" name="Distribution Type" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{72C76302-CA88-4629-BF3A-72DD8971E0B7}" name="Parameter 1" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{C319BB6E-60FD-4F37-B898-C033C52FE070}" name="Parameter 2" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{B370DF9A-4768-49F1-B38B-F65D182A01B4}" name="Parameter 3" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{7BADEC71-6529-4D26-804E-5C9B93DA84E8}" name="Parameter 4" dataDxfId="101"/>
+    <tableColumn id="14" xr3:uid="{125149FE-86DA-4053-8A54-90E57B52F8B0}" name="Parameter 5" dataDxfId="100"/>
+    <tableColumn id="15" xr3:uid="{BAA75930-0A4F-4888-8CAF-A3AFA6F3FF44}" name="Parameter 6" dataDxfId="99"/>
+    <tableColumn id="11" xr3:uid="{7442F6EC-3907-41A8-BBEF-87C9374C67E5}" name="Lower Limit" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{86E2B2CA-B8F0-4FF5-8C59-2D3C44061DFD}" name="Upper Limit" dataDxfId="97"/>
+    <tableColumn id="13" xr3:uid="{C697FE06-06BB-49EC-93BB-FF753593319A}" name="Step" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6794810C-E49F-4CB0-9B2F-0FA2655BD884}" name="Table15681021011" displayName="Table15681021011" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6794810C-E49F-4CB0-9B2F-0FA2655BD884}" name="Table15681021011" displayName="Table15681021011" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="95">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{5DEAB66E-0CAB-4BF7-B4EA-D8D12FB47328}" name="Phase" dataDxfId="108"/>
-    <tableColumn id="1" xr3:uid="{69C64F5C-9979-4ACA-9A42-C1032E3D98BA}" name="Category" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{D4385687-B64B-46FB-B987-6E74F19DC1AF}" name="Name" dataDxfId="106"/>
-    <tableColumn id="10" xr3:uid="{BE461B66-2B72-42A7-9F3F-5916187828CF}" name="Description" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{9EE711F7-7C5D-4C54-8A9A-D54F8833D434}" name="Units" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{6EAA6194-27E9-4B7C-8A4D-8C0FE7B617F4}" name="Distribution Type" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{75BC5E4C-C28D-4614-8AB6-165A9F7FE7CE}" name="Parameter 1" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{F5AD0C00-9187-4F91-ADA7-5B461FC355CE}" name="Parameter 2" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{34B0A2DF-5607-43F6-AA9E-1106CCB7621B}" name="Parameter 3" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{B0950426-083D-4CE9-A30E-9D71766BA154}" name="Parameter 4" dataDxfId="99"/>
-    <tableColumn id="14" xr3:uid="{88E7A84D-F80D-416C-9037-2E5927AE2697}" name="Parameter 5" dataDxfId="98"/>
-    <tableColumn id="15" xr3:uid="{E3DCF8BA-29B1-4A24-B6E6-DE9435CB3AC9}" name="Parameter 6" dataDxfId="97"/>
-    <tableColumn id="11" xr3:uid="{E8661EBF-62F4-4D4A-BCDC-7C8ABD4866B0}" name="Lower Limit" dataDxfId="96"/>
-    <tableColumn id="12" xr3:uid="{83DA3A0E-E097-4281-9822-6FE3F8FB0CDD}" name="Upper Limit" dataDxfId="95"/>
-    <tableColumn id="13" xr3:uid="{24B0E0E0-CA9C-4655-9B23-EA0BBD517B67}" name="Step" dataDxfId="94"/>
+    <tableColumn id="9" xr3:uid="{5DEAB66E-0CAB-4BF7-B4EA-D8D12FB47328}" name="Phase" dataDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{69C64F5C-9979-4ACA-9A42-C1032E3D98BA}" name="Category" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{D4385687-B64B-46FB-B987-6E74F19DC1AF}" name="Name" dataDxfId="92"/>
+    <tableColumn id="10" xr3:uid="{BE461B66-2B72-42A7-9F3F-5916187828CF}" name="Description" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{9EE711F7-7C5D-4C54-8A9A-D54F8833D434}" name="Units" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{6EAA6194-27E9-4B7C-8A4D-8C0FE7B617F4}" name="Distribution Type" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{75BC5E4C-C28D-4614-8AB6-165A9F7FE7CE}" name="Parameter 1" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{F5AD0C00-9187-4F91-ADA7-5B461FC355CE}" name="Parameter 2" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{34B0A2DF-5607-43F6-AA9E-1106CCB7621B}" name="Parameter 3" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{B0950426-083D-4CE9-A30E-9D71766BA154}" name="Parameter 4" dataDxfId="85"/>
+    <tableColumn id="14" xr3:uid="{88E7A84D-F80D-416C-9037-2E5927AE2697}" name="Parameter 5" dataDxfId="84"/>
+    <tableColumn id="15" xr3:uid="{E3DCF8BA-29B1-4A24-B6E6-DE9435CB3AC9}" name="Parameter 6" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{E8661EBF-62F4-4D4A-BCDC-7C8ABD4866B0}" name="Lower Limit" dataDxfId="82"/>
+    <tableColumn id="12" xr3:uid="{83DA3A0E-E097-4281-9822-6FE3F8FB0CDD}" name="Upper Limit" dataDxfId="81"/>
+    <tableColumn id="13" xr3:uid="{24B0E0E0-CA9C-4655-9B23-EA0BBD517B67}" name="Step" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{81C05191-4139-4D49-BA19-E7D2B74357F9}" name="Table15681021012" displayName="Table15681021012" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{81C05191-4139-4D49-BA19-E7D2B74357F9}" name="Table15681021012" displayName="Table15681021012" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="79">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{64A27C3D-2E18-40E6-9166-742BDA2B413C}" name="Phase" dataDxfId="92"/>
-    <tableColumn id="1" xr3:uid="{0243CFE4-EBE7-4500-A226-23C63BE2FB81}" name="Category" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{69F68BF8-9E6A-4766-AB29-A8B943A84522}" name="Name" dataDxfId="90"/>
-    <tableColumn id="10" xr3:uid="{1E4511F0-B286-4973-A437-9638677030CA}" name="Description" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{B80720A6-55E5-4A17-9FE9-9951AF480E02}" name="Units" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{54B33DED-7F55-4D76-B95F-B7050BBA4BD1}" name="Distribution Type" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{BC7C6514-68B9-48F6-9938-4088DF28B37C}" name="Parameter 1" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{4D372042-F7DE-4E72-A309-C4266E0FA9E8}" name="Parameter 2" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{8D92705D-1A42-46F5-89EA-C4113CC26587}" name="Parameter 3" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{13B56E18-7C36-4950-847A-A7544475E1D1}" name="Parameter 4" dataDxfId="83"/>
-    <tableColumn id="14" xr3:uid="{2649C7B2-1C48-4B13-969D-684D0045538B}" name="Parameter 5" dataDxfId="82"/>
-    <tableColumn id="15" xr3:uid="{5D6C4F8D-D31E-4EED-BABF-A0A688F3A916}" name="Parameter 6" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{1CB1896E-F77C-4DFC-9AB0-D0C102F3F80F}" name="Lower Limit" dataDxfId="80"/>
-    <tableColumn id="12" xr3:uid="{837665AD-748D-4B51-9CCA-780B67A76815}" name="Upper Limit" dataDxfId="79"/>
-    <tableColumn id="13" xr3:uid="{A8F2935C-D451-47EA-A1E1-1E4F0CAE8D87}" name="Step" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{64A27C3D-2E18-40E6-9166-742BDA2B413C}" name="Phase" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{0243CFE4-EBE7-4500-A226-23C63BE2FB81}" name="Category" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{69F68BF8-9E6A-4766-AB29-A8B943A84522}" name="Name" dataDxfId="76"/>
+    <tableColumn id="10" xr3:uid="{1E4511F0-B286-4973-A437-9638677030CA}" name="Description" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{B80720A6-55E5-4A17-9FE9-9951AF480E02}" name="Units" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{54B33DED-7F55-4D76-B95F-B7050BBA4BD1}" name="Distribution Type" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{BC7C6514-68B9-48F6-9938-4088DF28B37C}" name="Parameter 1" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{4D372042-F7DE-4E72-A309-C4266E0FA9E8}" name="Parameter 2" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{8D92705D-1A42-46F5-89EA-C4113CC26587}" name="Parameter 3" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{13B56E18-7C36-4950-847A-A7544475E1D1}" name="Parameter 4" dataDxfId="69"/>
+    <tableColumn id="14" xr3:uid="{2649C7B2-1C48-4B13-969D-684D0045538B}" name="Parameter 5" dataDxfId="68"/>
+    <tableColumn id="15" xr3:uid="{5D6C4F8D-D31E-4EED-BABF-A0A688F3A916}" name="Parameter 6" dataDxfId="67"/>
+    <tableColumn id="11" xr3:uid="{1CB1896E-F77C-4DFC-9AB0-D0C102F3F80F}" name="Lower Limit" dataDxfId="66"/>
+    <tableColumn id="12" xr3:uid="{837665AD-748D-4B51-9CCA-780B67A76815}" name="Upper Limit" dataDxfId="65"/>
+    <tableColumn id="13" xr3:uid="{A8F2935C-D451-47EA-A1E1-1E4F0CAE8D87}" name="Step" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2EC220FC-5886-477C-8B2C-57082D8749AA}" name="Table1568102101213" displayName="Table1568102101213" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2EC220FC-5886-477C-8B2C-57082D8749AA}" name="Table1568102101213" displayName="Table1568102101213" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="63">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{525577E1-B46F-47FB-A042-A56D8D45D9AD}" name="Phase" dataDxfId="76"/>
-    <tableColumn id="1" xr3:uid="{30AFC0FE-4503-4A4B-91CA-E5B88AA24F98}" name="Category" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{6333C26F-3D36-4A65-8F1B-CC515ADCE181}" name="Name" dataDxfId="74"/>
-    <tableColumn id="10" xr3:uid="{057A52C2-DED0-48A5-8844-3950CD398F8D}" name="Description" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{EF447B65-8A6A-4F12-ABCB-7BFE84B734A9}" name="Units" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{6E658D46-B4D3-46B1-A15B-9F0095A7EADD}" name="Distribution Type" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{FE235A77-6EFF-4D9A-926F-ACE5D51D4BC8}" name="Parameter 1" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{26694561-3958-440C-BDDC-2DB16EB8A614}" name="Parameter 2" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{DA96F9A2-3DEB-4C42-BECF-B9C30ADA7428}" name="Parameter 3" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{5F8A48E3-9BBF-4210-88D8-F668C1FD845D}" name="Parameter 4" dataDxfId="67"/>
-    <tableColumn id="14" xr3:uid="{21514092-10F7-41E0-B078-A15175C73E93}" name="Parameter 5" dataDxfId="66"/>
-    <tableColumn id="15" xr3:uid="{8BFA8A6A-2BCB-4512-8B77-28D2C28FEEE3}" name="Parameter 6" dataDxfId="65"/>
-    <tableColumn id="11" xr3:uid="{9CB23DDB-2513-48F3-960F-EF0D57CD9724}" name="Lower Limit" dataDxfId="64"/>
-    <tableColumn id="12" xr3:uid="{EDE53E3A-8BAE-4FD6-9C38-CD4B63274C67}" name="Upper Limit" dataDxfId="63"/>
-    <tableColumn id="13" xr3:uid="{980D57FA-1EDD-484A-9D56-BF7EAA580C8D}" name="Step" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{525577E1-B46F-47FB-A042-A56D8D45D9AD}" name="Phase" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{30AFC0FE-4503-4A4B-91CA-E5B88AA24F98}" name="Category" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{6333C26F-3D36-4A65-8F1B-CC515ADCE181}" name="Name" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{057A52C2-DED0-48A5-8844-3950CD398F8D}" name="Description" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{EF447B65-8A6A-4F12-ABCB-7BFE84B734A9}" name="Units" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{6E658D46-B4D3-46B1-A15B-9F0095A7EADD}" name="Distribution Type" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{FE235A77-6EFF-4D9A-926F-ACE5D51D4BC8}" name="Parameter 1" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{26694561-3958-440C-BDDC-2DB16EB8A614}" name="Parameter 2" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{DA96F9A2-3DEB-4C42-BECF-B9C30ADA7428}" name="Parameter 3" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{5F8A48E3-9BBF-4210-88D8-F668C1FD845D}" name="Parameter 4" dataDxfId="53"/>
+    <tableColumn id="14" xr3:uid="{21514092-10F7-41E0-B078-A15175C73E93}" name="Parameter 5" dataDxfId="52"/>
+    <tableColumn id="15" xr3:uid="{8BFA8A6A-2BCB-4512-8B77-28D2C28FEEE3}" name="Parameter 6" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{9CB23DDB-2513-48F3-960F-EF0D57CD9724}" name="Lower Limit" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{EDE53E3A-8BAE-4FD6-9C38-CD4B63274C67}" name="Upper Limit" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{980D57FA-1EDD-484A-9D56-BF7EAA580C8D}" name="Step" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3DDD9CB2-968B-4A43-A20B-C749950155AA}" name="Table156810210121314" displayName="Table156810210121314" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3DDD9CB2-968B-4A43-A20B-C749950155AA}" name="Table156810210121314" displayName="Table156810210121314" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="47">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{6B814874-1824-4E56-A967-04F9F6F3E584}" name="Phase" dataDxfId="60"/>
-    <tableColumn id="1" xr3:uid="{FE1635BE-F6C3-4D5B-B06E-7A92EBAB074D}" name="Category" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{9C16A715-E236-4930-A633-7510E082392C}" name="Name" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{B556C16A-1909-46E7-BC6D-8479761F1F65}" name="Description" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{5EFB6F3C-9894-43AA-AFAC-1013F8F0714B}" name="Units" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{6E3C1049-1D84-4FD5-B7CF-1E130CD32BCA}" name="Distribution Type" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{57E979B1-A630-4AC5-8C4D-CED1A62F587D}" name="Parameter 1" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{C9EF8DDD-DA1F-44E2-AC90-B6993C60CF1F}" name="Parameter 2" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{6FEFD03F-983B-47E2-9525-7EDD875A9C7C}" name="Parameter 3" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{0B661DB2-D286-4AEE-88C3-124B37F1B246}" name="Parameter 4" dataDxfId="51"/>
-    <tableColumn id="14" xr3:uid="{08C4ACC8-5A7B-4864-96E4-CF69FD654892}" name="Parameter 5" dataDxfId="50"/>
-    <tableColumn id="15" xr3:uid="{5505BBCC-5C52-4400-9C19-9ED7DBB490B8}" name="Parameter 6" dataDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{E151AC3B-28ED-4186-A803-48B7F8B7AE5B}" name="Lower Limit" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{223709CC-AD09-4677-85AC-DF8A1619BF81}" name="Upper Limit" dataDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{5FAAB5F5-A70D-4A6B-BE36-5CC1FD787BC5}" name="Step" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{6B814874-1824-4E56-A967-04F9F6F3E584}" name="Phase" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{FE1635BE-F6C3-4D5B-B06E-7A92EBAB074D}" name="Category" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{9C16A715-E236-4930-A633-7510E082392C}" name="Name" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{B556C16A-1909-46E7-BC6D-8479761F1F65}" name="Description" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{5EFB6F3C-9894-43AA-AFAC-1013F8F0714B}" name="Units" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{6E3C1049-1D84-4FD5-B7CF-1E130CD32BCA}" name="Distribution Type" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{57E979B1-A630-4AC5-8C4D-CED1A62F587D}" name="Parameter 1" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{C9EF8DDD-DA1F-44E2-AC90-B6993C60CF1F}" name="Parameter 2" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{6FEFD03F-983B-47E2-9525-7EDD875A9C7C}" name="Parameter 3" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{0B661DB2-D286-4AEE-88C3-124B37F1B246}" name="Parameter 4" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{08C4ACC8-5A7B-4864-96E4-CF69FD654892}" name="Parameter 5" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{5505BBCC-5C52-4400-9C19-9ED7DBB490B8}" name="Parameter 6" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{E151AC3B-28ED-4186-A803-48B7F8B7AE5B}" name="Lower Limit" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{223709CC-AD09-4677-85AC-DF8A1619BF81}" name="Upper Limit" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{5FAAB5F5-A70D-4A6B-BE36-5CC1FD787BC5}" name="Step" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FBB513AC-2D2B-4552-8740-9D611743FE70}" name="Table15681021012131415" displayName="Table15681021012131415" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FBB513AC-2D2B-4552-8740-9D611743FE70}" name="Table15681021012131415" displayName="Table15681021012131415" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="31">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{2035FE2F-0A32-497E-B1E0-30D237A0E150}" name="Phase" dataDxfId="44"/>
-    <tableColumn id="1" xr3:uid="{F814DF41-D024-449F-AF42-62D43153FFB7}" name="Category" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{7DC8FB15-5985-4C4F-ADF3-7A17F5076A68}" name="Name" dataDxfId="42"/>
-    <tableColumn id="10" xr3:uid="{614B9103-CB85-46A8-93A4-7DE4EBCB5D2B}" name="Description" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{E1C6CE34-10C1-4516-B6D9-58BC2F148637}" name="Units" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{2DC3C549-6825-4F8C-B404-F2995425599E}" name="Distribution Type" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{805795A1-E0DE-4FCC-9EBD-DDCCA12F0793}" name="Parameter 1" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{8AEEFD06-21CF-4496-9CA8-A505BA5018C8}" name="Parameter 2" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{81F9FC74-65BB-4D24-8C32-944022DBFF45}" name="Parameter 3" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{B80C3AAC-1FDC-42E7-B79C-4A7F876448A4}" name="Parameter 4" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{07C0D5EC-F968-40E1-8F17-889B90B82192}" name="Parameter 5" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{0302BE75-0A0F-489C-99C0-05DCDFC40A44}" name="Parameter 6" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{8B4A7C21-F1CF-4881-A5A6-4163F9C44F88}" name="Lower Limit" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{F4935CE7-6ADF-493E-B887-56BFE62D0ADC}" name="Upper Limit" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{5249EF7A-61B0-47D7-A1ED-48836EF45F76}" name="Step" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{2035FE2F-0A32-497E-B1E0-30D237A0E150}" name="Phase" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{F814DF41-D024-449F-AF42-62D43153FFB7}" name="Category" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{7DC8FB15-5985-4C4F-ADF3-7A17F5076A68}" name="Name" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{614B9103-CB85-46A8-93A4-7DE4EBCB5D2B}" name="Description" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{E1C6CE34-10C1-4516-B6D9-58BC2F148637}" name="Units" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{2DC3C549-6825-4F8C-B404-F2995425599E}" name="Distribution Type" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{805795A1-E0DE-4FCC-9EBD-DDCCA12F0793}" name="Parameter 1" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{8AEEFD06-21CF-4496-9CA8-A505BA5018C8}" name="Parameter 2" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{81F9FC74-65BB-4D24-8C32-944022DBFF45}" name="Parameter 3" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{B80C3AAC-1FDC-42E7-B79C-4A7F876448A4}" name="Parameter 4" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{07C0D5EC-F968-40E1-8F17-889B90B82192}" name="Parameter 5" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{0302BE75-0A0F-489C-99C0-05DCDFC40A44}" name="Parameter 6" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{8B4A7C21-F1CF-4881-A5A6-4163F9C44F88}" name="Lower Limit" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{F4935CE7-6ADF-493E-B887-56BFE62D0ADC}" name="Upper Limit" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{5249EF7A-61B0-47D7-A1ED-48836EF45F76}" name="Step" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5161,10 +5032,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097870CC-1A0F-461E-BDFD-29BDDFDDF05C}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5231,7 +5102,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>53</v>
@@ -5266,7 +5137,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>93</v>
@@ -5301,7 +5172,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>52</v>
@@ -5336,7 +5207,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>94</v>
@@ -5371,7 +5242,7 @@
         <v>72</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>73</v>
@@ -5406,7 +5277,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>95</v>
@@ -5703,7 +5574,7 @@
         <v>120</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>68</v>
@@ -6101,16 +5972,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>68</v>
@@ -6119,7 +5990,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="12">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -6141,13 +6012,13 @@
         <v>71</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>68</v>
@@ -6156,7 +6027,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -6178,13 +6049,13 @@
         <v>71</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>68</v>
@@ -6193,7 +6064,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
@@ -6215,10 +6086,10 @@
         <v>71</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>150</v>
@@ -6230,7 +6101,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="12">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -6252,13 +6123,13 @@
         <v>71</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>68</v>
@@ -6267,7 +6138,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="12">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -6289,13 +6160,13 @@
         <v>71</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>68</v>
@@ -6304,7 +6175,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="12">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -6326,10 +6197,10 @@
         <v>71</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>147</v>
@@ -6341,7 +6212,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="12">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -6358,46 +6229,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="12">
-        <v>0</v>
-      </c>
-      <c r="N33" s="12">
-        <v>1</v>
-      </c>
-      <c r="O33" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L33">
+  <conditionalFormatting sqref="A2:L32">
     <cfRule type="expression" dxfId="15" priority="43">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
@@ -6406,7 +6240,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F33" xr:uid="{330BE9FB-867A-4350-A3CC-F1598E7F7C5E}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{330BE9FB-867A-4350-A3CC-F1598E7F7C5E}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3397F9-B7B1-49ED-833A-05F609FD7ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF94E6DA-6E64-47EF-BB5C-D8F87E1638DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="649" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -777,7 +777,301 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="158">
+  <dxfs count="144">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <i/>
@@ -797,6 +1091,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -815,6 +1403,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -833,6 +1715,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -851,6 +2027,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -869,6 +2339,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -887,6 +2651,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -905,6 +2963,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -921,2484 +3273,6 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3414,192 +3288,192 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O33" totalsRowShown="0" tableBorderDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O33" totalsRowShown="0" tableBorderDxfId="141">
   <autoFilter ref="A1:O33" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="156"/>
-    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="154"/>
-    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="153"/>
-    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="152"/>
-    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="151"/>
-    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="150"/>
-    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="149"/>
-    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="148"/>
-    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="147"/>
-    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="146"/>
-    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="145"/>
-    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="144"/>
-    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="143"/>
-    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="142"/>
+    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="138"/>
+    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="134"/>
+    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="133"/>
+    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="132"/>
+    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="131"/>
+    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="130"/>
+    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="129"/>
+    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="128"/>
+    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="127"/>
+    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F3CA1E-AAFF-44BC-A114-2AA862291D9E}" name="Table1568102" displayName="Table1568102" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F3CA1E-AAFF-44BC-A114-2AA862291D9E}" name="Table1568102" displayName="Table1568102" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="123">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{8FD38CEB-1D1A-41E8-821F-58DD4FBD85EB}" name="Phase" dataDxfId="140"/>
-    <tableColumn id="1" xr3:uid="{574AE483-6154-4EC6-AC18-5FDEBC0931CD}" name="Category" dataDxfId="139"/>
-    <tableColumn id="2" xr3:uid="{EC332146-FEF7-42A1-9698-0FB7656BE557}" name="Name" dataDxfId="138"/>
-    <tableColumn id="10" xr3:uid="{F0942CE2-9658-4EB8-A19F-B3B76B6A5F95}" name="Description" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{B909ADC8-9FD8-4714-A691-8AD0F1933057}" name="Units" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{F8B8B123-0CBC-450A-B098-9FFA08F7FC89}" name="Distribution Type" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{AADB8566-896F-40D4-8181-BB145E678F9B}" name="Parameter 1" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{13B0114C-55D3-4603-92C6-09319B7E315B}" name="Parameter 2" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{7548BB98-B29E-4F39-B198-D6F9994CC04D}" name="Parameter 3" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{355D4B98-B5B0-461B-90E8-3D81112B89E2}" name="Parameter 4" dataDxfId="131"/>
-    <tableColumn id="14" xr3:uid="{14667F24-6EC2-4F8F-8EAA-56B4FF372D98}" name="Parameter 5" dataDxfId="130"/>
-    <tableColumn id="15" xr3:uid="{B058DB6A-9C46-4ED3-9483-5713AD52AE40}" name="Parameter 6" dataDxfId="129"/>
-    <tableColumn id="11" xr3:uid="{0E22E7A3-8506-41E8-AC60-E103665C60A2}" name="Lower Limit" dataDxfId="128"/>
-    <tableColumn id="12" xr3:uid="{479761C6-7DBC-4557-9E7C-984A37ABCB8A}" name="Upper Limit" dataDxfId="127"/>
-    <tableColumn id="13" xr3:uid="{F96695B6-2ADD-458A-A424-B58482082C80}" name="Step" dataDxfId="126"/>
+    <tableColumn id="9" xr3:uid="{8FD38CEB-1D1A-41E8-821F-58DD4FBD85EB}" name="Phase" dataDxfId="122"/>
+    <tableColumn id="1" xr3:uid="{574AE483-6154-4EC6-AC18-5FDEBC0931CD}" name="Category" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{EC332146-FEF7-42A1-9698-0FB7656BE557}" name="Name" dataDxfId="120"/>
+    <tableColumn id="10" xr3:uid="{F0942CE2-9658-4EB8-A19F-B3B76B6A5F95}" name="Description" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{B909ADC8-9FD8-4714-A691-8AD0F1933057}" name="Units" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{F8B8B123-0CBC-450A-B098-9FFA08F7FC89}" name="Distribution Type" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{AADB8566-896F-40D4-8181-BB145E678F9B}" name="Parameter 1" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{13B0114C-55D3-4603-92C6-09319B7E315B}" name="Parameter 2" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{7548BB98-B29E-4F39-B198-D6F9994CC04D}" name="Parameter 3" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{355D4B98-B5B0-461B-90E8-3D81112B89E2}" name="Parameter 4" dataDxfId="113"/>
+    <tableColumn id="14" xr3:uid="{14667F24-6EC2-4F8F-8EAA-56B4FF372D98}" name="Parameter 5" dataDxfId="112"/>
+    <tableColumn id="15" xr3:uid="{B058DB6A-9C46-4ED3-9483-5713AD52AE40}" name="Parameter 6" dataDxfId="111"/>
+    <tableColumn id="11" xr3:uid="{0E22E7A3-8506-41E8-AC60-E103665C60A2}" name="Lower Limit" dataDxfId="110"/>
+    <tableColumn id="12" xr3:uid="{479761C6-7DBC-4557-9E7C-984A37ABCB8A}" name="Upper Limit" dataDxfId="109"/>
+    <tableColumn id="13" xr3:uid="{F96695B6-2ADD-458A-A424-B58482082C80}" name="Step" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{88C3C7FF-7D66-4C1C-A80E-12CD3AFBFB8D}" name="Table156810210" displayName="Table156810210" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{88C3C7FF-7D66-4C1C-A80E-12CD3AFBFB8D}" name="Table156810210" displayName="Table156810210" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="105">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{5AC7EE20-3F52-40E0-87F1-21D82A7C3AA2}" name="Phase" dataDxfId="124"/>
-    <tableColumn id="1" xr3:uid="{9A9754BC-4FF9-4BBA-B750-B911CE430E6A}" name="Category" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{0A114B0A-D97E-4073-8E4E-5B16FB19520E}" name="Name" dataDxfId="122"/>
-    <tableColumn id="10" xr3:uid="{D1A72F97-70A3-4EEB-9316-B31F108E3FD5}" name="Description" dataDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{E8F09B1A-D952-4236-B6AD-8AC480554D73}" name="Units" dataDxfId="120"/>
-    <tableColumn id="4" xr3:uid="{B1DC9551-CBBD-4BF4-B876-9237E0FB121D}" name="Distribution Type" dataDxfId="119"/>
-    <tableColumn id="5" xr3:uid="{72C76302-CA88-4629-BF3A-72DD8971E0B7}" name="Parameter 1" dataDxfId="118"/>
-    <tableColumn id="6" xr3:uid="{C319BB6E-60FD-4F37-B898-C033C52FE070}" name="Parameter 2" dataDxfId="117"/>
-    <tableColumn id="7" xr3:uid="{B370DF9A-4768-49F1-B38B-F65D182A01B4}" name="Parameter 3" dataDxfId="116"/>
-    <tableColumn id="8" xr3:uid="{7BADEC71-6529-4D26-804E-5C9B93DA84E8}" name="Parameter 4" dataDxfId="115"/>
-    <tableColumn id="14" xr3:uid="{125149FE-86DA-4053-8A54-90E57B52F8B0}" name="Parameter 5" dataDxfId="114"/>
-    <tableColumn id="15" xr3:uid="{BAA75930-0A4F-4888-8CAF-A3AFA6F3FF44}" name="Parameter 6" dataDxfId="113"/>
-    <tableColumn id="11" xr3:uid="{7442F6EC-3907-41A8-BBEF-87C9374C67E5}" name="Lower Limit" dataDxfId="112"/>
-    <tableColumn id="12" xr3:uid="{86E2B2CA-B8F0-4FF5-8C59-2D3C44061DFD}" name="Upper Limit" dataDxfId="111"/>
-    <tableColumn id="13" xr3:uid="{C697FE06-06BB-49EC-93BB-FF753593319A}" name="Step" dataDxfId="110"/>
+    <tableColumn id="9" xr3:uid="{5AC7EE20-3F52-40E0-87F1-21D82A7C3AA2}" name="Phase" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{9A9754BC-4FF9-4BBA-B750-B911CE430E6A}" name="Category" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{0A114B0A-D97E-4073-8E4E-5B16FB19520E}" name="Name" dataDxfId="102"/>
+    <tableColumn id="10" xr3:uid="{D1A72F97-70A3-4EEB-9316-B31F108E3FD5}" name="Description" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{E8F09B1A-D952-4236-B6AD-8AC480554D73}" name="Units" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{B1DC9551-CBBD-4BF4-B876-9237E0FB121D}" name="Distribution Type" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{72C76302-CA88-4629-BF3A-72DD8971E0B7}" name="Parameter 1" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{C319BB6E-60FD-4F37-B898-C033C52FE070}" name="Parameter 2" dataDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{B370DF9A-4768-49F1-B38B-F65D182A01B4}" name="Parameter 3" dataDxfId="96"/>
+    <tableColumn id="8" xr3:uid="{7BADEC71-6529-4D26-804E-5C9B93DA84E8}" name="Parameter 4" dataDxfId="95"/>
+    <tableColumn id="14" xr3:uid="{125149FE-86DA-4053-8A54-90E57B52F8B0}" name="Parameter 5" dataDxfId="94"/>
+    <tableColumn id="15" xr3:uid="{BAA75930-0A4F-4888-8CAF-A3AFA6F3FF44}" name="Parameter 6" dataDxfId="93"/>
+    <tableColumn id="11" xr3:uid="{7442F6EC-3907-41A8-BBEF-87C9374C67E5}" name="Lower Limit" dataDxfId="92"/>
+    <tableColumn id="12" xr3:uid="{86E2B2CA-B8F0-4FF5-8C59-2D3C44061DFD}" name="Upper Limit" dataDxfId="91"/>
+    <tableColumn id="13" xr3:uid="{C697FE06-06BB-49EC-93BB-FF753593319A}" name="Step" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6794810C-E49F-4CB0-9B2F-0FA2655BD884}" name="Table15681021011" displayName="Table15681021011" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6794810C-E49F-4CB0-9B2F-0FA2655BD884}" name="Table15681021011" displayName="Table15681021011" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="87">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{5DEAB66E-0CAB-4BF7-B4EA-D8D12FB47328}" name="Phase" dataDxfId="108"/>
-    <tableColumn id="1" xr3:uid="{69C64F5C-9979-4ACA-9A42-C1032E3D98BA}" name="Category" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{D4385687-B64B-46FB-B987-6E74F19DC1AF}" name="Name" dataDxfId="106"/>
-    <tableColumn id="10" xr3:uid="{BE461B66-2B72-42A7-9F3F-5916187828CF}" name="Description" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{9EE711F7-7C5D-4C54-8A9A-D54F8833D434}" name="Units" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{6EAA6194-27E9-4B7C-8A4D-8C0FE7B617F4}" name="Distribution Type" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{75BC5E4C-C28D-4614-8AB6-165A9F7FE7CE}" name="Parameter 1" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{F5AD0C00-9187-4F91-ADA7-5B461FC355CE}" name="Parameter 2" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{34B0A2DF-5607-43F6-AA9E-1106CCB7621B}" name="Parameter 3" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{B0950426-083D-4CE9-A30E-9D71766BA154}" name="Parameter 4" dataDxfId="99"/>
-    <tableColumn id="14" xr3:uid="{88E7A84D-F80D-416C-9037-2E5927AE2697}" name="Parameter 5" dataDxfId="98"/>
-    <tableColumn id="15" xr3:uid="{E3DCF8BA-29B1-4A24-B6E6-DE9435CB3AC9}" name="Parameter 6" dataDxfId="97"/>
-    <tableColumn id="11" xr3:uid="{E8661EBF-62F4-4D4A-BCDC-7C8ABD4866B0}" name="Lower Limit" dataDxfId="96"/>
-    <tableColumn id="12" xr3:uid="{83DA3A0E-E097-4281-9822-6FE3F8FB0CDD}" name="Upper Limit" dataDxfId="95"/>
-    <tableColumn id="13" xr3:uid="{24B0E0E0-CA9C-4655-9B23-EA0BBD517B67}" name="Step" dataDxfId="94"/>
+    <tableColumn id="9" xr3:uid="{5DEAB66E-0CAB-4BF7-B4EA-D8D12FB47328}" name="Phase" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{69C64F5C-9979-4ACA-9A42-C1032E3D98BA}" name="Category" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{D4385687-B64B-46FB-B987-6E74F19DC1AF}" name="Name" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{BE461B66-2B72-42A7-9F3F-5916187828CF}" name="Description" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{9EE711F7-7C5D-4C54-8A9A-D54F8833D434}" name="Units" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{6EAA6194-27E9-4B7C-8A4D-8C0FE7B617F4}" name="Distribution Type" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{75BC5E4C-C28D-4614-8AB6-165A9F7FE7CE}" name="Parameter 1" dataDxfId="80"/>
+    <tableColumn id="6" xr3:uid="{F5AD0C00-9187-4F91-ADA7-5B461FC355CE}" name="Parameter 2" dataDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{34B0A2DF-5607-43F6-AA9E-1106CCB7621B}" name="Parameter 3" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{B0950426-083D-4CE9-A30E-9D71766BA154}" name="Parameter 4" dataDxfId="77"/>
+    <tableColumn id="14" xr3:uid="{88E7A84D-F80D-416C-9037-2E5927AE2697}" name="Parameter 5" dataDxfId="76"/>
+    <tableColumn id="15" xr3:uid="{E3DCF8BA-29B1-4A24-B6E6-DE9435CB3AC9}" name="Parameter 6" dataDxfId="75"/>
+    <tableColumn id="11" xr3:uid="{E8661EBF-62F4-4D4A-BCDC-7C8ABD4866B0}" name="Lower Limit" dataDxfId="74"/>
+    <tableColumn id="12" xr3:uid="{83DA3A0E-E097-4281-9822-6FE3F8FB0CDD}" name="Upper Limit" dataDxfId="73"/>
+    <tableColumn id="13" xr3:uid="{24B0E0E0-CA9C-4655-9B23-EA0BBD517B67}" name="Step" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{81C05191-4139-4D49-BA19-E7D2B74357F9}" name="Table15681021012" displayName="Table15681021012" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{81C05191-4139-4D49-BA19-E7D2B74357F9}" name="Table15681021012" displayName="Table15681021012" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="69">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{64A27C3D-2E18-40E6-9166-742BDA2B413C}" name="Phase" dataDxfId="92"/>
-    <tableColumn id="1" xr3:uid="{0243CFE4-EBE7-4500-A226-23C63BE2FB81}" name="Category" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{69F68BF8-9E6A-4766-AB29-A8B943A84522}" name="Name" dataDxfId="90"/>
-    <tableColumn id="10" xr3:uid="{1E4511F0-B286-4973-A437-9638677030CA}" name="Description" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{B80720A6-55E5-4A17-9FE9-9951AF480E02}" name="Units" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{54B33DED-7F55-4D76-B95F-B7050BBA4BD1}" name="Distribution Type" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{BC7C6514-68B9-48F6-9938-4088DF28B37C}" name="Parameter 1" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{4D372042-F7DE-4E72-A309-C4266E0FA9E8}" name="Parameter 2" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{8D92705D-1A42-46F5-89EA-C4113CC26587}" name="Parameter 3" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{13B56E18-7C36-4950-847A-A7544475E1D1}" name="Parameter 4" dataDxfId="83"/>
-    <tableColumn id="14" xr3:uid="{2649C7B2-1C48-4B13-969D-684D0045538B}" name="Parameter 5" dataDxfId="82"/>
-    <tableColumn id="15" xr3:uid="{5D6C4F8D-D31E-4EED-BABF-A0A688F3A916}" name="Parameter 6" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{1CB1896E-F77C-4DFC-9AB0-D0C102F3F80F}" name="Lower Limit" dataDxfId="80"/>
-    <tableColumn id="12" xr3:uid="{837665AD-748D-4B51-9CCA-780B67A76815}" name="Upper Limit" dataDxfId="79"/>
-    <tableColumn id="13" xr3:uid="{A8F2935C-D451-47EA-A1E1-1E4F0CAE8D87}" name="Step" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{64A27C3D-2E18-40E6-9166-742BDA2B413C}" name="Phase" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{0243CFE4-EBE7-4500-A226-23C63BE2FB81}" name="Category" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{69F68BF8-9E6A-4766-AB29-A8B943A84522}" name="Name" dataDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{1E4511F0-B286-4973-A437-9638677030CA}" name="Description" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{B80720A6-55E5-4A17-9FE9-9951AF480E02}" name="Units" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{54B33DED-7F55-4D76-B95F-B7050BBA4BD1}" name="Distribution Type" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{BC7C6514-68B9-48F6-9938-4088DF28B37C}" name="Parameter 1" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{4D372042-F7DE-4E72-A309-C4266E0FA9E8}" name="Parameter 2" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{8D92705D-1A42-46F5-89EA-C4113CC26587}" name="Parameter 3" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{13B56E18-7C36-4950-847A-A7544475E1D1}" name="Parameter 4" dataDxfId="59"/>
+    <tableColumn id="14" xr3:uid="{2649C7B2-1C48-4B13-969D-684D0045538B}" name="Parameter 5" dataDxfId="58"/>
+    <tableColumn id="15" xr3:uid="{5D6C4F8D-D31E-4EED-BABF-A0A688F3A916}" name="Parameter 6" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{1CB1896E-F77C-4DFC-9AB0-D0C102F3F80F}" name="Lower Limit" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{837665AD-748D-4B51-9CCA-780B67A76815}" name="Upper Limit" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{A8F2935C-D451-47EA-A1E1-1E4F0CAE8D87}" name="Step" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2EC220FC-5886-477C-8B2C-57082D8749AA}" name="Table1568102101213" displayName="Table1568102101213" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2EC220FC-5886-477C-8B2C-57082D8749AA}" name="Table1568102101213" displayName="Table1568102101213" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="51">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{525577E1-B46F-47FB-A042-A56D8D45D9AD}" name="Phase" dataDxfId="76"/>
-    <tableColumn id="1" xr3:uid="{30AFC0FE-4503-4A4B-91CA-E5B88AA24F98}" name="Category" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{6333C26F-3D36-4A65-8F1B-CC515ADCE181}" name="Name" dataDxfId="74"/>
-    <tableColumn id="10" xr3:uid="{057A52C2-DED0-48A5-8844-3950CD398F8D}" name="Description" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{EF447B65-8A6A-4F12-ABCB-7BFE84B734A9}" name="Units" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{6E658D46-B4D3-46B1-A15B-9F0095A7EADD}" name="Distribution Type" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{FE235A77-6EFF-4D9A-926F-ACE5D51D4BC8}" name="Parameter 1" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{26694561-3958-440C-BDDC-2DB16EB8A614}" name="Parameter 2" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{DA96F9A2-3DEB-4C42-BECF-B9C30ADA7428}" name="Parameter 3" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{5F8A48E3-9BBF-4210-88D8-F668C1FD845D}" name="Parameter 4" dataDxfId="67"/>
-    <tableColumn id="14" xr3:uid="{21514092-10F7-41E0-B078-A15175C73E93}" name="Parameter 5" dataDxfId="66"/>
-    <tableColumn id="15" xr3:uid="{8BFA8A6A-2BCB-4512-8B77-28D2C28FEEE3}" name="Parameter 6" dataDxfId="65"/>
-    <tableColumn id="11" xr3:uid="{9CB23DDB-2513-48F3-960F-EF0D57CD9724}" name="Lower Limit" dataDxfId="64"/>
-    <tableColumn id="12" xr3:uid="{EDE53E3A-8BAE-4FD6-9C38-CD4B63274C67}" name="Upper Limit" dataDxfId="63"/>
-    <tableColumn id="13" xr3:uid="{980D57FA-1EDD-484A-9D56-BF7EAA580C8D}" name="Step" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{525577E1-B46F-47FB-A042-A56D8D45D9AD}" name="Phase" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{30AFC0FE-4503-4A4B-91CA-E5B88AA24F98}" name="Category" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{6333C26F-3D36-4A65-8F1B-CC515ADCE181}" name="Name" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{057A52C2-DED0-48A5-8844-3950CD398F8D}" name="Description" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{EF447B65-8A6A-4F12-ABCB-7BFE84B734A9}" name="Units" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{6E658D46-B4D3-46B1-A15B-9F0095A7EADD}" name="Distribution Type" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{FE235A77-6EFF-4D9A-926F-ACE5D51D4BC8}" name="Parameter 1" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{26694561-3958-440C-BDDC-2DB16EB8A614}" name="Parameter 2" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{DA96F9A2-3DEB-4C42-BECF-B9C30ADA7428}" name="Parameter 3" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{5F8A48E3-9BBF-4210-88D8-F668C1FD845D}" name="Parameter 4" dataDxfId="41"/>
+    <tableColumn id="14" xr3:uid="{21514092-10F7-41E0-B078-A15175C73E93}" name="Parameter 5" dataDxfId="40"/>
+    <tableColumn id="15" xr3:uid="{8BFA8A6A-2BCB-4512-8B77-28D2C28FEEE3}" name="Parameter 6" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{9CB23DDB-2513-48F3-960F-EF0D57CD9724}" name="Lower Limit" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{EDE53E3A-8BAE-4FD6-9C38-CD4B63274C67}" name="Upper Limit" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{980D57FA-1EDD-484A-9D56-BF7EAA580C8D}" name="Step" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3DDD9CB2-968B-4A43-A20B-C749950155AA}" name="Table156810210121314" displayName="Table156810210121314" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3DDD9CB2-968B-4A43-A20B-C749950155AA}" name="Table156810210121314" displayName="Table156810210121314" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="33">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{6B814874-1824-4E56-A967-04F9F6F3E584}" name="Phase" dataDxfId="60"/>
-    <tableColumn id="1" xr3:uid="{FE1635BE-F6C3-4D5B-B06E-7A92EBAB074D}" name="Category" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{9C16A715-E236-4930-A633-7510E082392C}" name="Name" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{B556C16A-1909-46E7-BC6D-8479761F1F65}" name="Description" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{5EFB6F3C-9894-43AA-AFAC-1013F8F0714B}" name="Units" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{6E3C1049-1D84-4FD5-B7CF-1E130CD32BCA}" name="Distribution Type" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{57E979B1-A630-4AC5-8C4D-CED1A62F587D}" name="Parameter 1" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{C9EF8DDD-DA1F-44E2-AC90-B6993C60CF1F}" name="Parameter 2" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{6FEFD03F-983B-47E2-9525-7EDD875A9C7C}" name="Parameter 3" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{0B661DB2-D286-4AEE-88C3-124B37F1B246}" name="Parameter 4" dataDxfId="51"/>
-    <tableColumn id="14" xr3:uid="{08C4ACC8-5A7B-4864-96E4-CF69FD654892}" name="Parameter 5" dataDxfId="50"/>
-    <tableColumn id="15" xr3:uid="{5505BBCC-5C52-4400-9C19-9ED7DBB490B8}" name="Parameter 6" dataDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{E151AC3B-28ED-4186-A803-48B7F8B7AE5B}" name="Lower Limit" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{223709CC-AD09-4677-85AC-DF8A1619BF81}" name="Upper Limit" dataDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{5FAAB5F5-A70D-4A6B-BE36-5CC1FD787BC5}" name="Step" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{6B814874-1824-4E56-A967-04F9F6F3E584}" name="Phase" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{FE1635BE-F6C3-4D5B-B06E-7A92EBAB074D}" name="Category" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{9C16A715-E236-4930-A633-7510E082392C}" name="Name" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{B556C16A-1909-46E7-BC6D-8479761F1F65}" name="Description" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{5EFB6F3C-9894-43AA-AFAC-1013F8F0714B}" name="Units" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{6E3C1049-1D84-4FD5-B7CF-1E130CD32BCA}" name="Distribution Type" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{57E979B1-A630-4AC5-8C4D-CED1A62F587D}" name="Parameter 1" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{C9EF8DDD-DA1F-44E2-AC90-B6993C60CF1F}" name="Parameter 2" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{6FEFD03F-983B-47E2-9525-7EDD875A9C7C}" name="Parameter 3" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{0B661DB2-D286-4AEE-88C3-124B37F1B246}" name="Parameter 4" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{08C4ACC8-5A7B-4864-96E4-CF69FD654892}" name="Parameter 5" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{5505BBCC-5C52-4400-9C19-9ED7DBB490B8}" name="Parameter 6" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{E151AC3B-28ED-4186-A803-48B7F8B7AE5B}" name="Lower Limit" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{223709CC-AD09-4677-85AC-DF8A1619BF81}" name="Upper Limit" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{5FAAB5F5-A70D-4A6B-BE36-5CC1FD787BC5}" name="Step" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FBB513AC-2D2B-4552-8740-9D611743FE70}" name="Table15681021012131415" displayName="Table15681021012131415" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FBB513AC-2D2B-4552-8740-9D611743FE70}" name="Table15681021012131415" displayName="Table15681021012131415" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="15">
   <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{2035FE2F-0A32-497E-B1E0-30D237A0E150}" name="Phase" dataDxfId="44"/>
-    <tableColumn id="1" xr3:uid="{F814DF41-D024-449F-AF42-62D43153FFB7}" name="Category" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{7DC8FB15-5985-4C4F-ADF3-7A17F5076A68}" name="Name" dataDxfId="42"/>
-    <tableColumn id="10" xr3:uid="{614B9103-CB85-46A8-93A4-7DE4EBCB5D2B}" name="Description" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{E1C6CE34-10C1-4516-B6D9-58BC2F148637}" name="Units" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{2DC3C549-6825-4F8C-B404-F2995425599E}" name="Distribution Type" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{805795A1-E0DE-4FCC-9EBD-DDCCA12F0793}" name="Parameter 1" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{8AEEFD06-21CF-4496-9CA8-A505BA5018C8}" name="Parameter 2" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{81F9FC74-65BB-4D24-8C32-944022DBFF45}" name="Parameter 3" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{B80C3AAC-1FDC-42E7-B79C-4A7F876448A4}" name="Parameter 4" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{07C0D5EC-F968-40E1-8F17-889B90B82192}" name="Parameter 5" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{0302BE75-0A0F-489C-99C0-05DCDFC40A44}" name="Parameter 6" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{8B4A7C21-F1CF-4881-A5A6-4163F9C44F88}" name="Lower Limit" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{F4935CE7-6ADF-493E-B887-56BFE62D0ADC}" name="Upper Limit" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{5249EF7A-61B0-47D7-A1ED-48836EF45F76}" name="Step" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{2035FE2F-0A32-497E-B1E0-30D237A0E150}" name="Phase" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{F814DF41-D024-449F-AF42-62D43153FFB7}" name="Category" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{7DC8FB15-5985-4C4F-ADF3-7A17F5076A68}" name="Name" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{614B9103-CB85-46A8-93A4-7DE4EBCB5D2B}" name="Description" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{E1C6CE34-10C1-4516-B6D9-58BC2F148637}" name="Units" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{2DC3C549-6825-4F8C-B404-F2995425599E}" name="Distribution Type" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{805795A1-E0DE-4FCC-9EBD-DDCCA12F0793}" name="Parameter 1" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{8AEEFD06-21CF-4496-9CA8-A505BA5018C8}" name="Parameter 2" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{81F9FC74-65BB-4D24-8C32-944022DBFF45}" name="Parameter 3" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{B80C3AAC-1FDC-42E7-B79C-4A7F876448A4}" name="Parameter 4" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{07C0D5EC-F968-40E1-8F17-889B90B82192}" name="Parameter 5" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{0302BE75-0A0F-489C-99C0-05DCDFC40A44}" name="Parameter 6" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{8B4A7C21-F1CF-4881-A5A6-4163F9C44F88}" name="Lower Limit" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{F4935CE7-6ADF-493E-B887-56BFE62D0ADC}" name="Upper Limit" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{5249EF7A-61B0-47D7-A1ED-48836EF45F76}" name="Step" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4321,10 +4195,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4737,10 +4611,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5163,8 +5037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097870CC-1A0F-461E-BDFD-29BDDFDDF05C}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5443,7 +5317,7 @@
       <c r="C8" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -5480,7 +5354,7 @@
       <c r="C9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -5517,7 +5391,7 @@
       <c r="C10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="9" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -5554,7 +5428,7 @@
       <c r="C11" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -5591,7 +5465,7 @@
       <c r="C12" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -5628,7 +5502,7 @@
       <c r="C13" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -6398,10 +6272,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:L33">
-    <cfRule type="expression" dxfId="15" priority="43">
+    <cfRule type="expression" dxfId="143" priority="43">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="44">
+    <cfRule type="expression" dxfId="142" priority="44">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6814,10 +6688,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="125" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="124" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7230,10 +7104,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="107" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="106" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7646,10 +7520,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="89" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="88" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8062,10 +7936,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8478,10 +8352,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF94E6DA-6E64-47EF-BB5C-D8F87E1638DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE4FE90-1089-49B4-8F1D-E3C95D168FA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="649" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,9 +340,6 @@
     <t>Multiplier utilized to determine total loading in a residential building</t>
   </si>
   <si>
-    <t>log(pfu / m^2)</t>
-  </si>
-  <si>
     <t>Building Type Fraction</t>
   </si>
   <si>
@@ -509,6 +506,9 @@
   </si>
   <si>
     <t>The fraction of surface indoors which is building exterior</t>
+  </si>
+  <si>
+    <t>log(cfu / m^2)</t>
   </si>
 </sst>
 </file>
@@ -3905,13 +3905,13 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -3939,13 +3939,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -3976,13 +3976,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -4013,13 +4013,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -4050,13 +4050,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -4087,13 +4087,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -4124,13 +4124,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -4161,13 +4161,13 @@
         <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>68</v>
@@ -4321,13 +4321,13 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -4355,13 +4355,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -4392,13 +4392,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -4429,13 +4429,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -4466,13 +4466,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -4503,13 +4503,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -4540,13 +4540,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -4577,13 +4577,13 @@
         <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>68</v>
@@ -4874,12 +4874,12 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5037,8 +5037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097870CC-1A0F-461E-BDFD-29BDDFDDF05C}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5105,7 +5105,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>53</v>
@@ -5140,13 +5140,13 @@
         <v>70</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>3</v>
@@ -5175,7 +5175,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>52</v>
@@ -5210,13 +5210,13 @@
         <v>71</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>94</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>3</v>
@@ -5245,7 +5245,7 @@
         <v>72</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>73</v>
@@ -5280,13 +5280,13 @@
         <v>72</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>95</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>3</v>
@@ -5315,7 +5315,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>61</v>
@@ -5352,7 +5352,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>62</v>
@@ -5389,7 +5389,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>63</v>
@@ -5426,7 +5426,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>64</v>
@@ -5463,7 +5463,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>65</v>
@@ -5500,7 +5500,7 @@
         <v>59</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>66</v>
@@ -5537,7 +5537,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>67</v>
@@ -5571,13 +5571,13 @@
         <v>70</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>68</v>
@@ -5608,13 +5608,13 @@
         <v>70</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>68</v>
@@ -5645,13 +5645,13 @@
         <v>70</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>68</v>
@@ -5682,13 +5682,13 @@
         <v>70</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>68</v>
@@ -5719,13 +5719,13 @@
         <v>70</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>68</v>
@@ -5756,13 +5756,13 @@
         <v>70</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>68</v>
@@ -5793,13 +5793,13 @@
         <v>72</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>68</v>
@@ -5830,13 +5830,13 @@
         <v>72</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>68</v>
@@ -5867,13 +5867,13 @@
         <v>72</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>68</v>
@@ -5904,13 +5904,13 @@
         <v>72</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>68</v>
@@ -5941,13 +5941,13 @@
         <v>72</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>68</v>
@@ -5978,13 +5978,13 @@
         <v>72</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>68</v>
@@ -6015,13 +6015,13 @@
         <v>71</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>68</v>
@@ -6052,13 +6052,13 @@
         <v>71</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>68</v>
@@ -6089,13 +6089,13 @@
         <v>71</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>68</v>
@@ -6126,13 +6126,13 @@
         <v>71</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>68</v>
@@ -6163,13 +6163,13 @@
         <v>71</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>68</v>
@@ -6200,13 +6200,13 @@
         <v>71</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>68</v>
@@ -6237,13 +6237,13 @@
         <v>71</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>68</v>
@@ -6398,13 +6398,13 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -6432,13 +6432,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -6469,13 +6469,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -6506,13 +6506,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -6543,13 +6543,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -6580,13 +6580,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -6617,13 +6617,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -6654,13 +6654,13 @@
         <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>68</v>
@@ -6814,13 +6814,13 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -6848,13 +6848,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -6885,13 +6885,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -6922,13 +6922,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -6959,13 +6959,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -6996,13 +6996,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -7033,13 +7033,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -7070,13 +7070,13 @@
         <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>68</v>
@@ -7230,13 +7230,13 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -7264,13 +7264,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -7301,13 +7301,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -7338,13 +7338,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -7375,13 +7375,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -7412,13 +7412,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -7449,13 +7449,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -7486,13 +7486,13 @@
         <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>68</v>
@@ -7646,13 +7646,13 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -7680,13 +7680,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -7717,13 +7717,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -7754,13 +7754,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -7791,13 +7791,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -7828,13 +7828,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -7865,13 +7865,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -7902,13 +7902,13 @@
         <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>68</v>
@@ -8062,13 +8062,13 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -8096,13 +8096,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -8133,13 +8133,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -8170,13 +8170,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -8207,13 +8207,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -8244,13 +8244,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -8281,13 +8281,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -8318,13 +8318,13 @@
         <v>71</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>68</v>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE4FE90-1089-49B4-8F1D-E3C95D168FA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204B93E7-23E3-4049-A574-62388FC408A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="649" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="649" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="152">
   <si>
     <t>SCWAD</t>
   </si>
@@ -358,12 +358,6 @@
     <t>Surface Type Breakout</t>
   </si>
   <si>
-    <t>Indoor Interior</t>
-  </si>
-  <si>
-    <t>Indoor Exterior</t>
-  </si>
-  <si>
     <t>Indoor Ceilings</t>
   </si>
   <si>
@@ -382,9 +376,6 @@
     <t>Fraction of residential buildings that are interior walls</t>
   </si>
   <si>
-    <t>Fraction of residential buildings that are exterior walls</t>
-  </si>
-  <si>
     <t>Fraction of residential buildings that are ceilings walls</t>
   </si>
   <si>
@@ -442,9 +433,6 @@
     <t>Underground Surface Type Breakout</t>
   </si>
   <si>
-    <t>Underground Interior</t>
-  </si>
-  <si>
     <t>Underground Ceilings</t>
   </si>
   <si>
@@ -505,10 +493,13 @@
     <t>The fraction of surface outdoors which is building exterior</t>
   </si>
   <si>
-    <t>The fraction of surface indoors which is building exterior</t>
-  </si>
-  <si>
     <t>log(cfu / m^2)</t>
+  </si>
+  <si>
+    <t>Indoor Walls</t>
+  </si>
+  <si>
+    <t>Underground Walls</t>
   </si>
 </sst>
 </file>
@@ -779,300 +770,6 @@
   </cellStyles>
   <dxfs count="144">
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1091,300 +788,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1403,300 +806,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -1715,300 +824,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -2027,300 +842,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -2339,300 +860,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -2651,300 +878,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -2963,300 +896,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike/>
@@ -3273,6 +912,2358 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3288,192 +3279,192 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O33" totalsRowShown="0" tableBorderDxfId="141">
-  <autoFilter ref="A1:O33" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O32" totalsRowShown="0" tableBorderDxfId="143">
+  <autoFilter ref="A1:O32" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="140"/>
-    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="139"/>
-    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="138"/>
-    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="131"/>
-    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="130"/>
-    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="129"/>
-    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="128"/>
-    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="127"/>
-    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="126"/>
+    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="142"/>
+    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="140"/>
+    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="136"/>
+    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="135"/>
+    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="134"/>
+    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="133"/>
+    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="132"/>
+    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="131"/>
+    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="130"/>
+    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="129"/>
+    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F3CA1E-AAFF-44BC-A114-2AA862291D9E}" name="Table1568102" displayName="Table1568102" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="123">
-  <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F3CA1E-AAFF-44BC-A114-2AA862291D9E}" name="Table1568102" displayName="Table1568102" ref="A1:O9" totalsRowShown="0" tableBorderDxfId="127">
+  <autoFilter ref="A1:O9" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{8FD38CEB-1D1A-41E8-821F-58DD4FBD85EB}" name="Phase" dataDxfId="122"/>
-    <tableColumn id="1" xr3:uid="{574AE483-6154-4EC6-AC18-5FDEBC0931CD}" name="Category" dataDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{EC332146-FEF7-42A1-9698-0FB7656BE557}" name="Name" dataDxfId="120"/>
-    <tableColumn id="10" xr3:uid="{F0942CE2-9658-4EB8-A19F-B3B76B6A5F95}" name="Description" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{B909ADC8-9FD8-4714-A691-8AD0F1933057}" name="Units" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{F8B8B123-0CBC-450A-B098-9FFA08F7FC89}" name="Distribution Type" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{AADB8566-896F-40D4-8181-BB145E678F9B}" name="Parameter 1" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{13B0114C-55D3-4603-92C6-09319B7E315B}" name="Parameter 2" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{7548BB98-B29E-4F39-B198-D6F9994CC04D}" name="Parameter 3" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{355D4B98-B5B0-461B-90E8-3D81112B89E2}" name="Parameter 4" dataDxfId="113"/>
-    <tableColumn id="14" xr3:uid="{14667F24-6EC2-4F8F-8EAA-56B4FF372D98}" name="Parameter 5" dataDxfId="112"/>
-    <tableColumn id="15" xr3:uid="{B058DB6A-9C46-4ED3-9483-5713AD52AE40}" name="Parameter 6" dataDxfId="111"/>
-    <tableColumn id="11" xr3:uid="{0E22E7A3-8506-41E8-AC60-E103665C60A2}" name="Lower Limit" dataDxfId="110"/>
-    <tableColumn id="12" xr3:uid="{479761C6-7DBC-4557-9E7C-984A37ABCB8A}" name="Upper Limit" dataDxfId="109"/>
-    <tableColumn id="13" xr3:uid="{F96695B6-2ADD-458A-A424-B58482082C80}" name="Step" dataDxfId="108"/>
+    <tableColumn id="9" xr3:uid="{8FD38CEB-1D1A-41E8-821F-58DD4FBD85EB}" name="Phase" dataDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{574AE483-6154-4EC6-AC18-5FDEBC0931CD}" name="Category" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{EC332146-FEF7-42A1-9698-0FB7656BE557}" name="Name" dataDxfId="124"/>
+    <tableColumn id="10" xr3:uid="{F0942CE2-9658-4EB8-A19F-B3B76B6A5F95}" name="Description" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{B909ADC8-9FD8-4714-A691-8AD0F1933057}" name="Units" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{F8B8B123-0CBC-450A-B098-9FFA08F7FC89}" name="Distribution Type" dataDxfId="121"/>
+    <tableColumn id="5" xr3:uid="{AADB8566-896F-40D4-8181-BB145E678F9B}" name="Parameter 1" dataDxfId="120"/>
+    <tableColumn id="6" xr3:uid="{13B0114C-55D3-4603-92C6-09319B7E315B}" name="Parameter 2" dataDxfId="119"/>
+    <tableColumn id="7" xr3:uid="{7548BB98-B29E-4F39-B198-D6F9994CC04D}" name="Parameter 3" dataDxfId="118"/>
+    <tableColumn id="8" xr3:uid="{355D4B98-B5B0-461B-90E8-3D81112B89E2}" name="Parameter 4" dataDxfId="117"/>
+    <tableColumn id="14" xr3:uid="{14667F24-6EC2-4F8F-8EAA-56B4FF372D98}" name="Parameter 5" dataDxfId="116"/>
+    <tableColumn id="15" xr3:uid="{B058DB6A-9C46-4ED3-9483-5713AD52AE40}" name="Parameter 6" dataDxfId="115"/>
+    <tableColumn id="11" xr3:uid="{0E22E7A3-8506-41E8-AC60-E103665C60A2}" name="Lower Limit" dataDxfId="114"/>
+    <tableColumn id="12" xr3:uid="{479761C6-7DBC-4557-9E7C-984A37ABCB8A}" name="Upper Limit" dataDxfId="113"/>
+    <tableColumn id="13" xr3:uid="{F96695B6-2ADD-458A-A424-B58482082C80}" name="Step" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{88C3C7FF-7D66-4C1C-A80E-12CD3AFBFB8D}" name="Table156810210" displayName="Table156810210" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="105">
-  <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{88C3C7FF-7D66-4C1C-A80E-12CD3AFBFB8D}" name="Table156810210" displayName="Table156810210" ref="A1:O9" totalsRowShown="0" tableBorderDxfId="111">
+  <autoFilter ref="A1:O9" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{5AC7EE20-3F52-40E0-87F1-21D82A7C3AA2}" name="Phase" dataDxfId="104"/>
-    <tableColumn id="1" xr3:uid="{9A9754BC-4FF9-4BBA-B750-B911CE430E6A}" name="Category" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{0A114B0A-D97E-4073-8E4E-5B16FB19520E}" name="Name" dataDxfId="102"/>
-    <tableColumn id="10" xr3:uid="{D1A72F97-70A3-4EEB-9316-B31F108E3FD5}" name="Description" dataDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{E8F09B1A-D952-4236-B6AD-8AC480554D73}" name="Units" dataDxfId="100"/>
-    <tableColumn id="4" xr3:uid="{B1DC9551-CBBD-4BF4-B876-9237E0FB121D}" name="Distribution Type" dataDxfId="99"/>
-    <tableColumn id="5" xr3:uid="{72C76302-CA88-4629-BF3A-72DD8971E0B7}" name="Parameter 1" dataDxfId="98"/>
-    <tableColumn id="6" xr3:uid="{C319BB6E-60FD-4F37-B898-C033C52FE070}" name="Parameter 2" dataDxfId="97"/>
-    <tableColumn id="7" xr3:uid="{B370DF9A-4768-49F1-B38B-F65D182A01B4}" name="Parameter 3" dataDxfId="96"/>
-    <tableColumn id="8" xr3:uid="{7BADEC71-6529-4D26-804E-5C9B93DA84E8}" name="Parameter 4" dataDxfId="95"/>
-    <tableColumn id="14" xr3:uid="{125149FE-86DA-4053-8A54-90E57B52F8B0}" name="Parameter 5" dataDxfId="94"/>
-    <tableColumn id="15" xr3:uid="{BAA75930-0A4F-4888-8CAF-A3AFA6F3FF44}" name="Parameter 6" dataDxfId="93"/>
-    <tableColumn id="11" xr3:uid="{7442F6EC-3907-41A8-BBEF-87C9374C67E5}" name="Lower Limit" dataDxfId="92"/>
-    <tableColumn id="12" xr3:uid="{86E2B2CA-B8F0-4FF5-8C59-2D3C44061DFD}" name="Upper Limit" dataDxfId="91"/>
-    <tableColumn id="13" xr3:uid="{C697FE06-06BB-49EC-93BB-FF753593319A}" name="Step" dataDxfId="90"/>
+    <tableColumn id="9" xr3:uid="{5AC7EE20-3F52-40E0-87F1-21D82A7C3AA2}" name="Phase" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{9A9754BC-4FF9-4BBA-B750-B911CE430E6A}" name="Category" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{0A114B0A-D97E-4073-8E4E-5B16FB19520E}" name="Name" dataDxfId="108"/>
+    <tableColumn id="10" xr3:uid="{D1A72F97-70A3-4EEB-9316-B31F108E3FD5}" name="Description" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{E8F09B1A-D952-4236-B6AD-8AC480554D73}" name="Units" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{B1DC9551-CBBD-4BF4-B876-9237E0FB121D}" name="Distribution Type" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{72C76302-CA88-4629-BF3A-72DD8971E0B7}" name="Parameter 1" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{C319BB6E-60FD-4F37-B898-C033C52FE070}" name="Parameter 2" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{B370DF9A-4768-49F1-B38B-F65D182A01B4}" name="Parameter 3" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{7BADEC71-6529-4D26-804E-5C9B93DA84E8}" name="Parameter 4" dataDxfId="101"/>
+    <tableColumn id="14" xr3:uid="{125149FE-86DA-4053-8A54-90E57B52F8B0}" name="Parameter 5" dataDxfId="100"/>
+    <tableColumn id="15" xr3:uid="{BAA75930-0A4F-4888-8CAF-A3AFA6F3FF44}" name="Parameter 6" dataDxfId="99"/>
+    <tableColumn id="11" xr3:uid="{7442F6EC-3907-41A8-BBEF-87C9374C67E5}" name="Lower Limit" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{86E2B2CA-B8F0-4FF5-8C59-2D3C44061DFD}" name="Upper Limit" dataDxfId="97"/>
+    <tableColumn id="13" xr3:uid="{C697FE06-06BB-49EC-93BB-FF753593319A}" name="Step" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6794810C-E49F-4CB0-9B2F-0FA2655BD884}" name="Table15681021011" displayName="Table15681021011" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="87">
-  <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6794810C-E49F-4CB0-9B2F-0FA2655BD884}" name="Table15681021011" displayName="Table15681021011" ref="A1:O9" totalsRowShown="0" tableBorderDxfId="95">
+  <autoFilter ref="A1:O9" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{5DEAB66E-0CAB-4BF7-B4EA-D8D12FB47328}" name="Phase" dataDxfId="86"/>
-    <tableColumn id="1" xr3:uid="{69C64F5C-9979-4ACA-9A42-C1032E3D98BA}" name="Category" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{D4385687-B64B-46FB-B987-6E74F19DC1AF}" name="Name" dataDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{BE461B66-2B72-42A7-9F3F-5916187828CF}" name="Description" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{9EE711F7-7C5D-4C54-8A9A-D54F8833D434}" name="Units" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{6EAA6194-27E9-4B7C-8A4D-8C0FE7B617F4}" name="Distribution Type" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{75BC5E4C-C28D-4614-8AB6-165A9F7FE7CE}" name="Parameter 1" dataDxfId="80"/>
-    <tableColumn id="6" xr3:uid="{F5AD0C00-9187-4F91-ADA7-5B461FC355CE}" name="Parameter 2" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{34B0A2DF-5607-43F6-AA9E-1106CCB7621B}" name="Parameter 3" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{B0950426-083D-4CE9-A30E-9D71766BA154}" name="Parameter 4" dataDxfId="77"/>
-    <tableColumn id="14" xr3:uid="{88E7A84D-F80D-416C-9037-2E5927AE2697}" name="Parameter 5" dataDxfId="76"/>
-    <tableColumn id="15" xr3:uid="{E3DCF8BA-29B1-4A24-B6E6-DE9435CB3AC9}" name="Parameter 6" dataDxfId="75"/>
-    <tableColumn id="11" xr3:uid="{E8661EBF-62F4-4D4A-BCDC-7C8ABD4866B0}" name="Lower Limit" dataDxfId="74"/>
-    <tableColumn id="12" xr3:uid="{83DA3A0E-E097-4281-9822-6FE3F8FB0CDD}" name="Upper Limit" dataDxfId="73"/>
-    <tableColumn id="13" xr3:uid="{24B0E0E0-CA9C-4655-9B23-EA0BBD517B67}" name="Step" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{5DEAB66E-0CAB-4BF7-B4EA-D8D12FB47328}" name="Phase" dataDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{69C64F5C-9979-4ACA-9A42-C1032E3D98BA}" name="Category" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{D4385687-B64B-46FB-B987-6E74F19DC1AF}" name="Name" dataDxfId="92"/>
+    <tableColumn id="10" xr3:uid="{BE461B66-2B72-42A7-9F3F-5916187828CF}" name="Description" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{9EE711F7-7C5D-4C54-8A9A-D54F8833D434}" name="Units" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{6EAA6194-27E9-4B7C-8A4D-8C0FE7B617F4}" name="Distribution Type" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{75BC5E4C-C28D-4614-8AB6-165A9F7FE7CE}" name="Parameter 1" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{F5AD0C00-9187-4F91-ADA7-5B461FC355CE}" name="Parameter 2" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{34B0A2DF-5607-43F6-AA9E-1106CCB7621B}" name="Parameter 3" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{B0950426-083D-4CE9-A30E-9D71766BA154}" name="Parameter 4" dataDxfId="85"/>
+    <tableColumn id="14" xr3:uid="{88E7A84D-F80D-416C-9037-2E5927AE2697}" name="Parameter 5" dataDxfId="84"/>
+    <tableColumn id="15" xr3:uid="{E3DCF8BA-29B1-4A24-B6E6-DE9435CB3AC9}" name="Parameter 6" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{E8661EBF-62F4-4D4A-BCDC-7C8ABD4866B0}" name="Lower Limit" dataDxfId="82"/>
+    <tableColumn id="12" xr3:uid="{83DA3A0E-E097-4281-9822-6FE3F8FB0CDD}" name="Upper Limit" dataDxfId="81"/>
+    <tableColumn id="13" xr3:uid="{24B0E0E0-CA9C-4655-9B23-EA0BBD517B67}" name="Step" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{81C05191-4139-4D49-BA19-E7D2B74357F9}" name="Table15681021012" displayName="Table15681021012" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="69">
-  <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{81C05191-4139-4D49-BA19-E7D2B74357F9}" name="Table15681021012" displayName="Table15681021012" ref="A1:O9" totalsRowShown="0" tableBorderDxfId="79">
+  <autoFilter ref="A1:O9" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{64A27C3D-2E18-40E6-9166-742BDA2B413C}" name="Phase" dataDxfId="68"/>
-    <tableColumn id="1" xr3:uid="{0243CFE4-EBE7-4500-A226-23C63BE2FB81}" name="Category" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{69F68BF8-9E6A-4766-AB29-A8B943A84522}" name="Name" dataDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{1E4511F0-B286-4973-A437-9638677030CA}" name="Description" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{B80720A6-55E5-4A17-9FE9-9951AF480E02}" name="Units" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{54B33DED-7F55-4D76-B95F-B7050BBA4BD1}" name="Distribution Type" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{BC7C6514-68B9-48F6-9938-4088DF28B37C}" name="Parameter 1" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{4D372042-F7DE-4E72-A309-C4266E0FA9E8}" name="Parameter 2" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{8D92705D-1A42-46F5-89EA-C4113CC26587}" name="Parameter 3" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{13B56E18-7C36-4950-847A-A7544475E1D1}" name="Parameter 4" dataDxfId="59"/>
-    <tableColumn id="14" xr3:uid="{2649C7B2-1C48-4B13-969D-684D0045538B}" name="Parameter 5" dataDxfId="58"/>
-    <tableColumn id="15" xr3:uid="{5D6C4F8D-D31E-4EED-BABF-A0A688F3A916}" name="Parameter 6" dataDxfId="57"/>
-    <tableColumn id="11" xr3:uid="{1CB1896E-F77C-4DFC-9AB0-D0C102F3F80F}" name="Lower Limit" dataDxfId="56"/>
-    <tableColumn id="12" xr3:uid="{837665AD-748D-4B51-9CCA-780B67A76815}" name="Upper Limit" dataDxfId="55"/>
-    <tableColumn id="13" xr3:uid="{A8F2935C-D451-47EA-A1E1-1E4F0CAE8D87}" name="Step" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{64A27C3D-2E18-40E6-9166-742BDA2B413C}" name="Phase" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{0243CFE4-EBE7-4500-A226-23C63BE2FB81}" name="Category" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{69F68BF8-9E6A-4766-AB29-A8B943A84522}" name="Name" dataDxfId="76"/>
+    <tableColumn id="10" xr3:uid="{1E4511F0-B286-4973-A437-9638677030CA}" name="Description" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{B80720A6-55E5-4A17-9FE9-9951AF480E02}" name="Units" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{54B33DED-7F55-4D76-B95F-B7050BBA4BD1}" name="Distribution Type" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{BC7C6514-68B9-48F6-9938-4088DF28B37C}" name="Parameter 1" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{4D372042-F7DE-4E72-A309-C4266E0FA9E8}" name="Parameter 2" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{8D92705D-1A42-46F5-89EA-C4113CC26587}" name="Parameter 3" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{13B56E18-7C36-4950-847A-A7544475E1D1}" name="Parameter 4" dataDxfId="69"/>
+    <tableColumn id="14" xr3:uid="{2649C7B2-1C48-4B13-969D-684D0045538B}" name="Parameter 5" dataDxfId="68"/>
+    <tableColumn id="15" xr3:uid="{5D6C4F8D-D31E-4EED-BABF-A0A688F3A916}" name="Parameter 6" dataDxfId="67"/>
+    <tableColumn id="11" xr3:uid="{1CB1896E-F77C-4DFC-9AB0-D0C102F3F80F}" name="Lower Limit" dataDxfId="66"/>
+    <tableColumn id="12" xr3:uid="{837665AD-748D-4B51-9CCA-780B67A76815}" name="Upper Limit" dataDxfId="65"/>
+    <tableColumn id="13" xr3:uid="{A8F2935C-D451-47EA-A1E1-1E4F0CAE8D87}" name="Step" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2EC220FC-5886-477C-8B2C-57082D8749AA}" name="Table1568102101213" displayName="Table1568102101213" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="51">
-  <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2EC220FC-5886-477C-8B2C-57082D8749AA}" name="Table1568102101213" displayName="Table1568102101213" ref="A1:O9" totalsRowShown="0" tableBorderDxfId="63">
+  <autoFilter ref="A1:O9" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{525577E1-B46F-47FB-A042-A56D8D45D9AD}" name="Phase" dataDxfId="50"/>
-    <tableColumn id="1" xr3:uid="{30AFC0FE-4503-4A4B-91CA-E5B88AA24F98}" name="Category" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{6333C26F-3D36-4A65-8F1B-CC515ADCE181}" name="Name" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{057A52C2-DED0-48A5-8844-3950CD398F8D}" name="Description" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{EF447B65-8A6A-4F12-ABCB-7BFE84B734A9}" name="Units" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{6E658D46-B4D3-46B1-A15B-9F0095A7EADD}" name="Distribution Type" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{FE235A77-6EFF-4D9A-926F-ACE5D51D4BC8}" name="Parameter 1" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{26694561-3958-440C-BDDC-2DB16EB8A614}" name="Parameter 2" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{DA96F9A2-3DEB-4C42-BECF-B9C30ADA7428}" name="Parameter 3" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{5F8A48E3-9BBF-4210-88D8-F668C1FD845D}" name="Parameter 4" dataDxfId="41"/>
-    <tableColumn id="14" xr3:uid="{21514092-10F7-41E0-B078-A15175C73E93}" name="Parameter 5" dataDxfId="40"/>
-    <tableColumn id="15" xr3:uid="{8BFA8A6A-2BCB-4512-8B77-28D2C28FEEE3}" name="Parameter 6" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{9CB23DDB-2513-48F3-960F-EF0D57CD9724}" name="Lower Limit" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{EDE53E3A-8BAE-4FD6-9C38-CD4B63274C67}" name="Upper Limit" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{980D57FA-1EDD-484A-9D56-BF7EAA580C8D}" name="Step" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{525577E1-B46F-47FB-A042-A56D8D45D9AD}" name="Phase" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{30AFC0FE-4503-4A4B-91CA-E5B88AA24F98}" name="Category" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{6333C26F-3D36-4A65-8F1B-CC515ADCE181}" name="Name" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{057A52C2-DED0-48A5-8844-3950CD398F8D}" name="Description" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{EF447B65-8A6A-4F12-ABCB-7BFE84B734A9}" name="Units" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{6E658D46-B4D3-46B1-A15B-9F0095A7EADD}" name="Distribution Type" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{FE235A77-6EFF-4D9A-926F-ACE5D51D4BC8}" name="Parameter 1" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{26694561-3958-440C-BDDC-2DB16EB8A614}" name="Parameter 2" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{DA96F9A2-3DEB-4C42-BECF-B9C30ADA7428}" name="Parameter 3" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{5F8A48E3-9BBF-4210-88D8-F668C1FD845D}" name="Parameter 4" dataDxfId="53"/>
+    <tableColumn id="14" xr3:uid="{21514092-10F7-41E0-B078-A15175C73E93}" name="Parameter 5" dataDxfId="52"/>
+    <tableColumn id="15" xr3:uid="{8BFA8A6A-2BCB-4512-8B77-28D2C28FEEE3}" name="Parameter 6" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{9CB23DDB-2513-48F3-960F-EF0D57CD9724}" name="Lower Limit" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{EDE53E3A-8BAE-4FD6-9C38-CD4B63274C67}" name="Upper Limit" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{980D57FA-1EDD-484A-9D56-BF7EAA580C8D}" name="Step" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3DDD9CB2-968B-4A43-A20B-C749950155AA}" name="Table156810210121314" displayName="Table156810210121314" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="33">
-  <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3DDD9CB2-968B-4A43-A20B-C749950155AA}" name="Table156810210121314" displayName="Table156810210121314" ref="A1:O9" totalsRowShown="0" tableBorderDxfId="47">
+  <autoFilter ref="A1:O9" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{6B814874-1824-4E56-A967-04F9F6F3E584}" name="Phase" dataDxfId="32"/>
-    <tableColumn id="1" xr3:uid="{FE1635BE-F6C3-4D5B-B06E-7A92EBAB074D}" name="Category" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{9C16A715-E236-4930-A633-7510E082392C}" name="Name" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{B556C16A-1909-46E7-BC6D-8479761F1F65}" name="Description" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{5EFB6F3C-9894-43AA-AFAC-1013F8F0714B}" name="Units" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{6E3C1049-1D84-4FD5-B7CF-1E130CD32BCA}" name="Distribution Type" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{57E979B1-A630-4AC5-8C4D-CED1A62F587D}" name="Parameter 1" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{C9EF8DDD-DA1F-44E2-AC90-B6993C60CF1F}" name="Parameter 2" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{6FEFD03F-983B-47E2-9525-7EDD875A9C7C}" name="Parameter 3" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{0B661DB2-D286-4AEE-88C3-124B37F1B246}" name="Parameter 4" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{08C4ACC8-5A7B-4864-96E4-CF69FD654892}" name="Parameter 5" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{5505BBCC-5C52-4400-9C19-9ED7DBB490B8}" name="Parameter 6" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{E151AC3B-28ED-4186-A803-48B7F8B7AE5B}" name="Lower Limit" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{223709CC-AD09-4677-85AC-DF8A1619BF81}" name="Upper Limit" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{5FAAB5F5-A70D-4A6B-BE36-5CC1FD787BC5}" name="Step" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{6B814874-1824-4E56-A967-04F9F6F3E584}" name="Phase" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{FE1635BE-F6C3-4D5B-B06E-7A92EBAB074D}" name="Category" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{9C16A715-E236-4930-A633-7510E082392C}" name="Name" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{B556C16A-1909-46E7-BC6D-8479761F1F65}" name="Description" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{5EFB6F3C-9894-43AA-AFAC-1013F8F0714B}" name="Units" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{6E3C1049-1D84-4FD5-B7CF-1E130CD32BCA}" name="Distribution Type" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{57E979B1-A630-4AC5-8C4D-CED1A62F587D}" name="Parameter 1" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{C9EF8DDD-DA1F-44E2-AC90-B6993C60CF1F}" name="Parameter 2" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{6FEFD03F-983B-47E2-9525-7EDD875A9C7C}" name="Parameter 3" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{0B661DB2-D286-4AEE-88C3-124B37F1B246}" name="Parameter 4" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{08C4ACC8-5A7B-4864-96E4-CF69FD654892}" name="Parameter 5" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{5505BBCC-5C52-4400-9C19-9ED7DBB490B8}" name="Parameter 6" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{E151AC3B-28ED-4186-A803-48B7F8B7AE5B}" name="Lower Limit" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{223709CC-AD09-4677-85AC-DF8A1619BF81}" name="Upper Limit" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{5FAAB5F5-A70D-4A6B-BE36-5CC1FD787BC5}" name="Step" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FBB513AC-2D2B-4552-8740-9D611743FE70}" name="Table15681021012131415" displayName="Table15681021012131415" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="15">
-  <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FBB513AC-2D2B-4552-8740-9D611743FE70}" name="Table15681021012131415" displayName="Table15681021012131415" ref="A1:O9" totalsRowShown="0" tableBorderDxfId="31">
+  <autoFilter ref="A1:O9" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{2035FE2F-0A32-497E-B1E0-30D237A0E150}" name="Phase" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{F814DF41-D024-449F-AF42-62D43153FFB7}" name="Category" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7DC8FB15-5985-4C4F-ADF3-7A17F5076A68}" name="Name" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{614B9103-CB85-46A8-93A4-7DE4EBCB5D2B}" name="Description" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{E1C6CE34-10C1-4516-B6D9-58BC2F148637}" name="Units" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{2DC3C549-6825-4F8C-B404-F2995425599E}" name="Distribution Type" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{805795A1-E0DE-4FCC-9EBD-DDCCA12F0793}" name="Parameter 1" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{8AEEFD06-21CF-4496-9CA8-A505BA5018C8}" name="Parameter 2" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{81F9FC74-65BB-4D24-8C32-944022DBFF45}" name="Parameter 3" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{B80C3AAC-1FDC-42E7-B79C-4A7F876448A4}" name="Parameter 4" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{07C0D5EC-F968-40E1-8F17-889B90B82192}" name="Parameter 5" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{0302BE75-0A0F-489C-99C0-05DCDFC40A44}" name="Parameter 6" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{8B4A7C21-F1CF-4881-A5A6-4163F9C44F88}" name="Lower Limit" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{F4935CE7-6ADF-493E-B887-56BFE62D0ADC}" name="Upper Limit" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{5249EF7A-61B0-47D7-A1ED-48836EF45F76}" name="Step" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{2035FE2F-0A32-497E-B1E0-30D237A0E150}" name="Phase" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{F814DF41-D024-449F-AF42-62D43153FFB7}" name="Category" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{7DC8FB15-5985-4C4F-ADF3-7A17F5076A68}" name="Name" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{614B9103-CB85-46A8-93A4-7DE4EBCB5D2B}" name="Description" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{E1C6CE34-10C1-4516-B6D9-58BC2F148637}" name="Units" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{2DC3C549-6825-4F8C-B404-F2995425599E}" name="Distribution Type" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{805795A1-E0DE-4FCC-9EBD-DDCCA12F0793}" name="Parameter 1" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{8AEEFD06-21CF-4496-9CA8-A505BA5018C8}" name="Parameter 2" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{81F9FC74-65BB-4D24-8C32-944022DBFF45}" name="Parameter 3" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{B80C3AAC-1FDC-42E7-B79C-4A7F876448A4}" name="Parameter 4" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{07C0D5EC-F968-40E1-8F17-889B90B82192}" name="Parameter 5" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{0302BE75-0A0F-489C-99C0-05DCDFC40A44}" name="Parameter 6" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{8B4A7C21-F1CF-4881-A5A6-4163F9C44F88}" name="Lower Limit" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{F4935CE7-6ADF-493E-B887-56BFE62D0ADC}" name="Upper Limit" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{5249EF7A-61B0-47D7-A1ED-48836EF45F76}" name="Step" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3800,10 +3791,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E43DD9-157B-49FC-9197-883D6786BB87}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3911,7 +3902,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -3939,13 +3930,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -3954,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -3976,13 +3967,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -3991,7 +3982,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -4013,13 +4004,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -4028,7 +4019,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="12">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -4050,13 +4041,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -4065,7 +4056,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -4087,13 +4078,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -4124,13 +4115,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -4139,7 +4130,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="12">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -4156,54 +4147,17 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12">
-        <v>1</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="35" priority="1">
+  <conditionalFormatting sqref="A2:L9">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{31A8EBC6-6F05-479C-82BC-9274F3B72E56}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{31A8EBC6-6F05-479C-82BC-9274F3B72E56}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -4216,10 +4170,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EF9366-5AFF-4F5A-9471-F50914749AD6}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4327,7 +4281,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -4355,13 +4309,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -4370,7 +4324,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -4392,13 +4346,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -4407,7 +4361,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -4429,13 +4383,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -4444,7 +4398,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="12">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -4466,13 +4420,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -4481,7 +4435,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -4503,13 +4457,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -4540,13 +4494,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -4555,7 +4509,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="12">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -4572,54 +4526,17 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12">
-        <v>1</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="17" priority="1">
+  <conditionalFormatting sqref="A2:L9">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{FB9861EC-C1B9-4BC7-96DE-3903141525C5}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{FB9861EC-C1B9-4BC7-96DE-3903141525C5}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -5035,10 +4952,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097870CC-1A0F-461E-BDFD-29BDDFDDF05C}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5105,7 +5022,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>53</v>
@@ -5140,13 +5057,13 @@
         <v>70</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>3</v>
@@ -5175,7 +5092,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>52</v>
@@ -5210,13 +5127,13 @@
         <v>71</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>94</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>3</v>
@@ -5245,7 +5162,7 @@
         <v>72</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>73</v>
@@ -5280,13 +5197,13 @@
         <v>72</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>95</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>3</v>
@@ -5571,13 +5488,13 @@
         <v>70</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>68</v>
@@ -5608,13 +5525,13 @@
         <v>70</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>68</v>
@@ -5645,13 +5562,13 @@
         <v>70</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>68</v>
@@ -5682,13 +5599,13 @@
         <v>70</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>68</v>
@@ -5719,13 +5636,13 @@
         <v>70</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>68</v>
@@ -5756,13 +5673,13 @@
         <v>70</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>68</v>
@@ -5793,13 +5710,13 @@
         <v>72</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>68</v>
@@ -5830,13 +5747,13 @@
         <v>72</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>68</v>
@@ -5867,13 +5784,13 @@
         <v>72</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>68</v>
@@ -5904,13 +5821,13 @@
         <v>72</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>68</v>
@@ -5941,13 +5858,13 @@
         <v>72</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>68</v>
@@ -5978,13 +5895,13 @@
         <v>72</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>68</v>
@@ -6015,13 +5932,13 @@
         <v>71</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>68</v>
@@ -6030,7 +5947,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="12">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -6052,13 +5969,13 @@
         <v>71</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>153</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>68</v>
@@ -6067,7 +5984,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
@@ -6089,13 +6006,13 @@
         <v>71</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>68</v>
@@ -6104,7 +6021,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="12">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -6126,13 +6043,13 @@
         <v>71</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>68</v>
@@ -6141,7 +6058,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="12">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -6163,13 +6080,13 @@
         <v>71</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>68</v>
@@ -6178,7 +6095,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="12">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -6200,13 +6117,13 @@
         <v>71</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>68</v>
@@ -6215,7 +6132,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="12">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -6232,55 +6149,18 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="12">
-        <v>0</v>
-      </c>
-      <c r="N33" s="12">
-        <v>1</v>
-      </c>
-      <c r="O33" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L33">
-    <cfRule type="expression" dxfId="143" priority="43">
+  <conditionalFormatting sqref="A2:L32">
+    <cfRule type="expression" dxfId="15" priority="43">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="44">
+    <cfRule type="expression" dxfId="14" priority="44">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F33" xr:uid="{330BE9FB-867A-4350-A3CC-F1598E7F7C5E}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{330BE9FB-867A-4350-A3CC-F1598E7F7C5E}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -6293,10 +6173,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CC74AC-9C8A-4982-AAA7-A84AB700668C}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6404,7 +6284,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -6432,13 +6312,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -6447,7 +6327,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -6469,13 +6349,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -6484,7 +6364,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -6506,13 +6386,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -6521,7 +6401,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="12">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -6543,13 +6423,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -6558,7 +6438,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -6580,13 +6460,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -6617,13 +6497,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -6632,7 +6512,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="12">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -6649,54 +6529,17 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12">
-        <v>1</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="125" priority="1">
+  <conditionalFormatting sqref="A2:L9">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{715A25B3-8A34-4C57-B072-9E97752CB3B7}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{715A25B3-8A34-4C57-B072-9E97752CB3B7}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -6709,10 +6552,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7042F79-A311-45CE-9A65-4502414AAE8E}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6820,7 +6663,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -6848,13 +6691,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -6863,7 +6706,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -6885,13 +6728,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -6900,7 +6743,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -6922,13 +6765,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -6937,7 +6780,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="12">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -6959,13 +6802,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -6974,7 +6817,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -6996,13 +6839,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -7033,13 +6876,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -7048,7 +6891,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="12">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -7065,54 +6908,17 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12">
-        <v>1</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="107" priority="1">
+  <conditionalFormatting sqref="A2:L9">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{DA5A1EE8-224D-4BF6-A924-4AB90DE068C4}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{DA5A1EE8-224D-4BF6-A924-4AB90DE068C4}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -7125,10 +6931,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333733AB-F5E6-46AE-8B18-F38FE91E5E0A}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7236,7 +7042,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -7264,13 +7070,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -7279,7 +7085,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -7301,13 +7107,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -7316,7 +7122,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -7338,13 +7144,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -7353,7 +7159,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="12">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -7375,13 +7181,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -7390,7 +7196,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -7412,13 +7218,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -7449,13 +7255,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -7464,7 +7270,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="12">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -7481,54 +7287,17 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12">
-        <v>1</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="89" priority="1">
+  <conditionalFormatting sqref="A2:L9">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="2">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{BEA4092A-E6CF-486D-B7C9-E43ADA763306}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{BEA4092A-E6CF-486D-B7C9-E43ADA763306}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -7541,10 +7310,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550F5AA7-2C47-4C71-A36F-C83AF51A7B16}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7652,7 +7421,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -7680,13 +7449,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -7695,7 +7464,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -7717,13 +7486,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -7732,7 +7501,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -7754,13 +7523,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -7769,7 +7538,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="12">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -7791,13 +7560,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -7806,7 +7575,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -7828,13 +7597,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -7865,13 +7634,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -7880,7 +7649,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="12">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -7897,54 +7666,17 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12">
-        <v>1</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="71" priority="1">
+  <conditionalFormatting sqref="A2:L9">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{30BC8E04-688C-4141-80C9-C8E8CC43E159}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{30BC8E04-688C-4141-80C9-C8E8CC43E159}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -7957,10 +7689,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069E8A85-F700-42D5-83B0-8B7D70A63994}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8068,7 +7800,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -8096,13 +7828,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -8111,7 +7843,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -8133,13 +7865,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -8148,7 +7880,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -8170,13 +7902,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -8185,7 +7917,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="12">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -8207,13 +7939,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -8222,7 +7954,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -8244,13 +7976,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -8281,13 +8013,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -8296,7 +8028,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="12">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -8313,54 +8045,17 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12">
-        <v>1</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L10">
-    <cfRule type="expression" dxfId="53" priority="1">
+  <conditionalFormatting sqref="A2:L9">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{9D0136A2-A837-4385-ABB0-9D7AA0D4314C}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{9D0136A2-A837-4385-ABB0-9D7AA0D4314C}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>

--- a/InputFiles/DefineScenario.xlsx
+++ b/InputFiles/DefineScenario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204B93E7-23E3-4049-A574-62388FC408A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE4FE90-1089-49B4-8F1D-E3C95D168FA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="649" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="649" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="155">
   <si>
     <t>SCWAD</t>
   </si>
@@ -358,6 +358,12 @@
     <t>Surface Type Breakout</t>
   </si>
   <si>
+    <t>Indoor Interior</t>
+  </si>
+  <si>
+    <t>Indoor Exterior</t>
+  </si>
+  <si>
     <t>Indoor Ceilings</t>
   </si>
   <si>
@@ -376,6 +382,9 @@
     <t>Fraction of residential buildings that are interior walls</t>
   </si>
   <si>
+    <t>Fraction of residential buildings that are exterior walls</t>
+  </si>
+  <si>
     <t>Fraction of residential buildings that are ceilings walls</t>
   </si>
   <si>
@@ -433,6 +442,9 @@
     <t>Underground Surface Type Breakout</t>
   </si>
   <si>
+    <t>Underground Interior</t>
+  </si>
+  <si>
     <t>Underground Ceilings</t>
   </si>
   <si>
@@ -493,13 +505,10 @@
     <t>The fraction of surface outdoors which is building exterior</t>
   </si>
   <si>
+    <t>The fraction of surface indoors which is building exterior</t>
+  </si>
+  <si>
     <t>log(cfu / m^2)</t>
-  </si>
-  <si>
-    <t>Indoor Walls</t>
-  </si>
-  <si>
-    <t>Underground Walls</t>
   </si>
 </sst>
 </file>
@@ -770,6 +779,300 @@
   </cellStyles>
   <dxfs count="144">
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -788,6 +1091,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -806,6 +1403,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -824,6 +1715,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -842,6 +2027,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -860,6 +2339,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -878,6 +2651,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -896,6 +2963,300 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <i/>
         <strike/>
@@ -912,2358 +3273,6 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3279,192 +3288,192 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O32" totalsRowShown="0" tableBorderDxfId="143">
-  <autoFilter ref="A1:O32" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E3C927-1FC6-443B-87ED-00E2959DD317}" name="Table1568" displayName="Table1568" ref="A1:O33" totalsRowShown="0" tableBorderDxfId="141">
+  <autoFilter ref="A1:O33" xr:uid="{58F00973-C0E2-47D9-9C5E-C7B7F684A0C3}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="142"/>
-    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="140"/>
-    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="139"/>
-    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="137"/>
-    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="136"/>
-    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="135"/>
-    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="134"/>
-    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="133"/>
-    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="132"/>
-    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="131"/>
-    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="130"/>
-    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="129"/>
-    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="128"/>
+    <tableColumn id="9" xr3:uid="{62A6D655-D638-4005-9525-C140421ED9AB}" name="Phase" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{1BC04ADD-0426-4785-9F97-FCE0BCC1E547}" name="Category" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{3089FC2E-257C-4BA5-A9A7-5D0E01D5E6F5}" name="Name" dataDxfId="138"/>
+    <tableColumn id="10" xr3:uid="{E1A27E6E-82E5-4CF6-9164-A680FF7F05A5}" name="Description" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{BA85C23F-8236-43E3-885F-DF8CCDB84F06}" name="Units" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{9121EDDE-A8D8-4E28-AAAC-953CC1A14CB2}" name="Distribution Type" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{67D6DF1C-45B3-456F-B960-B8F495F6867D}" name="Parameter 1" dataDxfId="134"/>
+    <tableColumn id="6" xr3:uid="{A2BB8730-6626-47D8-AABB-90C19B218AFB}" name="Parameter 2" dataDxfId="133"/>
+    <tableColumn id="7" xr3:uid="{B7BC4EB1-7616-4A3A-899A-F01A87DD3B48}" name="Parameter 3" dataDxfId="132"/>
+    <tableColumn id="8" xr3:uid="{32D71C9B-2B39-4A83-9EB0-1934F2F6FC91}" name="Parameter 4" dataDxfId="131"/>
+    <tableColumn id="14" xr3:uid="{31AC778C-1A4A-45DD-8A12-F22858D3CD3A}" name="Parameter 5" dataDxfId="130"/>
+    <tableColumn id="15" xr3:uid="{91C3BDC4-4893-4CF7-9830-76CC4A9BF6F1}" name="Parameter 6" dataDxfId="129"/>
+    <tableColumn id="11" xr3:uid="{6BCEB05C-9FCE-48DE-91F0-D2ACC21C6C3E}" name="Lower Limit" dataDxfId="128"/>
+    <tableColumn id="12" xr3:uid="{CDC89704-43FE-407F-B8B4-079E5E991263}" name="Upper Limit" dataDxfId="127"/>
+    <tableColumn id="13" xr3:uid="{0758CB79-3F38-44D8-B78B-CC33BB1D2C70}" name="Step" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F3CA1E-AAFF-44BC-A114-2AA862291D9E}" name="Table1568102" displayName="Table1568102" ref="A1:O9" totalsRowShown="0" tableBorderDxfId="127">
-  <autoFilter ref="A1:O9" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72F3CA1E-AAFF-44BC-A114-2AA862291D9E}" name="Table1568102" displayName="Table1568102" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="123">
+  <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{8FD38CEB-1D1A-41E8-821F-58DD4FBD85EB}" name="Phase" dataDxfId="126"/>
-    <tableColumn id="1" xr3:uid="{574AE483-6154-4EC6-AC18-5FDEBC0931CD}" name="Category" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{EC332146-FEF7-42A1-9698-0FB7656BE557}" name="Name" dataDxfId="124"/>
-    <tableColumn id="10" xr3:uid="{F0942CE2-9658-4EB8-A19F-B3B76B6A5F95}" name="Description" dataDxfId="123"/>
-    <tableColumn id="3" xr3:uid="{B909ADC8-9FD8-4714-A691-8AD0F1933057}" name="Units" dataDxfId="122"/>
-    <tableColumn id="4" xr3:uid="{F8B8B123-0CBC-450A-B098-9FFA08F7FC89}" name="Distribution Type" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{AADB8566-896F-40D4-8181-BB145E678F9B}" name="Parameter 1" dataDxfId="120"/>
-    <tableColumn id="6" xr3:uid="{13B0114C-55D3-4603-92C6-09319B7E315B}" name="Parameter 2" dataDxfId="119"/>
-    <tableColumn id="7" xr3:uid="{7548BB98-B29E-4F39-B198-D6F9994CC04D}" name="Parameter 3" dataDxfId="118"/>
-    <tableColumn id="8" xr3:uid="{355D4B98-B5B0-461B-90E8-3D81112B89E2}" name="Parameter 4" dataDxfId="117"/>
-    <tableColumn id="14" xr3:uid="{14667F24-6EC2-4F8F-8EAA-56B4FF372D98}" name="Parameter 5" dataDxfId="116"/>
-    <tableColumn id="15" xr3:uid="{B058DB6A-9C46-4ED3-9483-5713AD52AE40}" name="Parameter 6" dataDxfId="115"/>
-    <tableColumn id="11" xr3:uid="{0E22E7A3-8506-41E8-AC60-E103665C60A2}" name="Lower Limit" dataDxfId="114"/>
-    <tableColumn id="12" xr3:uid="{479761C6-7DBC-4557-9E7C-984A37ABCB8A}" name="Upper Limit" dataDxfId="113"/>
-    <tableColumn id="13" xr3:uid="{F96695B6-2ADD-458A-A424-B58482082C80}" name="Step" dataDxfId="112"/>
+    <tableColumn id="9" xr3:uid="{8FD38CEB-1D1A-41E8-821F-58DD4FBD85EB}" name="Phase" dataDxfId="122"/>
+    <tableColumn id="1" xr3:uid="{574AE483-6154-4EC6-AC18-5FDEBC0931CD}" name="Category" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{EC332146-FEF7-42A1-9698-0FB7656BE557}" name="Name" dataDxfId="120"/>
+    <tableColumn id="10" xr3:uid="{F0942CE2-9658-4EB8-A19F-B3B76B6A5F95}" name="Description" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{B909ADC8-9FD8-4714-A691-8AD0F1933057}" name="Units" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{F8B8B123-0CBC-450A-B098-9FFA08F7FC89}" name="Distribution Type" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{AADB8566-896F-40D4-8181-BB145E678F9B}" name="Parameter 1" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{13B0114C-55D3-4603-92C6-09319B7E315B}" name="Parameter 2" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{7548BB98-B29E-4F39-B198-D6F9994CC04D}" name="Parameter 3" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{355D4B98-B5B0-461B-90E8-3D81112B89E2}" name="Parameter 4" dataDxfId="113"/>
+    <tableColumn id="14" xr3:uid="{14667F24-6EC2-4F8F-8EAA-56B4FF372D98}" name="Parameter 5" dataDxfId="112"/>
+    <tableColumn id="15" xr3:uid="{B058DB6A-9C46-4ED3-9483-5713AD52AE40}" name="Parameter 6" dataDxfId="111"/>
+    <tableColumn id="11" xr3:uid="{0E22E7A3-8506-41E8-AC60-E103665C60A2}" name="Lower Limit" dataDxfId="110"/>
+    <tableColumn id="12" xr3:uid="{479761C6-7DBC-4557-9E7C-984A37ABCB8A}" name="Upper Limit" dataDxfId="109"/>
+    <tableColumn id="13" xr3:uid="{F96695B6-2ADD-458A-A424-B58482082C80}" name="Step" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{88C3C7FF-7D66-4C1C-A80E-12CD3AFBFB8D}" name="Table156810210" displayName="Table156810210" ref="A1:O9" totalsRowShown="0" tableBorderDxfId="111">
-  <autoFilter ref="A1:O9" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{88C3C7FF-7D66-4C1C-A80E-12CD3AFBFB8D}" name="Table156810210" displayName="Table156810210" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="105">
+  <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{5AC7EE20-3F52-40E0-87F1-21D82A7C3AA2}" name="Phase" dataDxfId="110"/>
-    <tableColumn id="1" xr3:uid="{9A9754BC-4FF9-4BBA-B750-B911CE430E6A}" name="Category" dataDxfId="109"/>
-    <tableColumn id="2" xr3:uid="{0A114B0A-D97E-4073-8E4E-5B16FB19520E}" name="Name" dataDxfId="108"/>
-    <tableColumn id="10" xr3:uid="{D1A72F97-70A3-4EEB-9316-B31F108E3FD5}" name="Description" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{E8F09B1A-D952-4236-B6AD-8AC480554D73}" name="Units" dataDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{B1DC9551-CBBD-4BF4-B876-9237E0FB121D}" name="Distribution Type" dataDxfId="105"/>
-    <tableColumn id="5" xr3:uid="{72C76302-CA88-4629-BF3A-72DD8971E0B7}" name="Parameter 1" dataDxfId="104"/>
-    <tableColumn id="6" xr3:uid="{C319BB6E-60FD-4F37-B898-C033C52FE070}" name="Parameter 2" dataDxfId="103"/>
-    <tableColumn id="7" xr3:uid="{B370DF9A-4768-49F1-B38B-F65D182A01B4}" name="Parameter 3" dataDxfId="102"/>
-    <tableColumn id="8" xr3:uid="{7BADEC71-6529-4D26-804E-5C9B93DA84E8}" name="Parameter 4" dataDxfId="101"/>
-    <tableColumn id="14" xr3:uid="{125149FE-86DA-4053-8A54-90E57B52F8B0}" name="Parameter 5" dataDxfId="100"/>
-    <tableColumn id="15" xr3:uid="{BAA75930-0A4F-4888-8CAF-A3AFA6F3FF44}" name="Parameter 6" dataDxfId="99"/>
-    <tableColumn id="11" xr3:uid="{7442F6EC-3907-41A8-BBEF-87C9374C67E5}" name="Lower Limit" dataDxfId="98"/>
-    <tableColumn id="12" xr3:uid="{86E2B2CA-B8F0-4FF5-8C59-2D3C44061DFD}" name="Upper Limit" dataDxfId="97"/>
-    <tableColumn id="13" xr3:uid="{C697FE06-06BB-49EC-93BB-FF753593319A}" name="Step" dataDxfId="96"/>
+    <tableColumn id="9" xr3:uid="{5AC7EE20-3F52-40E0-87F1-21D82A7C3AA2}" name="Phase" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{9A9754BC-4FF9-4BBA-B750-B911CE430E6A}" name="Category" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{0A114B0A-D97E-4073-8E4E-5B16FB19520E}" name="Name" dataDxfId="102"/>
+    <tableColumn id="10" xr3:uid="{D1A72F97-70A3-4EEB-9316-B31F108E3FD5}" name="Description" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{E8F09B1A-D952-4236-B6AD-8AC480554D73}" name="Units" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{B1DC9551-CBBD-4BF4-B876-9237E0FB121D}" name="Distribution Type" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{72C76302-CA88-4629-BF3A-72DD8971E0B7}" name="Parameter 1" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{C319BB6E-60FD-4F37-B898-C033C52FE070}" name="Parameter 2" dataDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{B370DF9A-4768-49F1-B38B-F65D182A01B4}" name="Parameter 3" dataDxfId="96"/>
+    <tableColumn id="8" xr3:uid="{7BADEC71-6529-4D26-804E-5C9B93DA84E8}" name="Parameter 4" dataDxfId="95"/>
+    <tableColumn id="14" xr3:uid="{125149FE-86DA-4053-8A54-90E57B52F8B0}" name="Parameter 5" dataDxfId="94"/>
+    <tableColumn id="15" xr3:uid="{BAA75930-0A4F-4888-8CAF-A3AFA6F3FF44}" name="Parameter 6" dataDxfId="93"/>
+    <tableColumn id="11" xr3:uid="{7442F6EC-3907-41A8-BBEF-87C9374C67E5}" name="Lower Limit" dataDxfId="92"/>
+    <tableColumn id="12" xr3:uid="{86E2B2CA-B8F0-4FF5-8C59-2D3C44061DFD}" name="Upper Limit" dataDxfId="91"/>
+    <tableColumn id="13" xr3:uid="{C697FE06-06BB-49EC-93BB-FF753593319A}" name="Step" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6794810C-E49F-4CB0-9B2F-0FA2655BD884}" name="Table15681021011" displayName="Table15681021011" ref="A1:O9" totalsRowShown="0" tableBorderDxfId="95">
-  <autoFilter ref="A1:O9" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{6794810C-E49F-4CB0-9B2F-0FA2655BD884}" name="Table15681021011" displayName="Table15681021011" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="87">
+  <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{5DEAB66E-0CAB-4BF7-B4EA-D8D12FB47328}" name="Phase" dataDxfId="94"/>
-    <tableColumn id="1" xr3:uid="{69C64F5C-9979-4ACA-9A42-C1032E3D98BA}" name="Category" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{D4385687-B64B-46FB-B987-6E74F19DC1AF}" name="Name" dataDxfId="92"/>
-    <tableColumn id="10" xr3:uid="{BE461B66-2B72-42A7-9F3F-5916187828CF}" name="Description" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{9EE711F7-7C5D-4C54-8A9A-D54F8833D434}" name="Units" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{6EAA6194-27E9-4B7C-8A4D-8C0FE7B617F4}" name="Distribution Type" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{75BC5E4C-C28D-4614-8AB6-165A9F7FE7CE}" name="Parameter 1" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{F5AD0C00-9187-4F91-ADA7-5B461FC355CE}" name="Parameter 2" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{34B0A2DF-5607-43F6-AA9E-1106CCB7621B}" name="Parameter 3" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{B0950426-083D-4CE9-A30E-9D71766BA154}" name="Parameter 4" dataDxfId="85"/>
-    <tableColumn id="14" xr3:uid="{88E7A84D-F80D-416C-9037-2E5927AE2697}" name="Parameter 5" dataDxfId="84"/>
-    <tableColumn id="15" xr3:uid="{E3DCF8BA-29B1-4A24-B6E6-DE9435CB3AC9}" name="Parameter 6" dataDxfId="83"/>
-    <tableColumn id="11" xr3:uid="{E8661EBF-62F4-4D4A-BCDC-7C8ABD4866B0}" name="Lower Limit" dataDxfId="82"/>
-    <tableColumn id="12" xr3:uid="{83DA3A0E-E097-4281-9822-6FE3F8FB0CDD}" name="Upper Limit" dataDxfId="81"/>
-    <tableColumn id="13" xr3:uid="{24B0E0E0-CA9C-4655-9B23-EA0BBD517B67}" name="Step" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{5DEAB66E-0CAB-4BF7-B4EA-D8D12FB47328}" name="Phase" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{69C64F5C-9979-4ACA-9A42-C1032E3D98BA}" name="Category" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{D4385687-B64B-46FB-B987-6E74F19DC1AF}" name="Name" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{BE461B66-2B72-42A7-9F3F-5916187828CF}" name="Description" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{9EE711F7-7C5D-4C54-8A9A-D54F8833D434}" name="Units" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{6EAA6194-27E9-4B7C-8A4D-8C0FE7B617F4}" name="Distribution Type" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{75BC5E4C-C28D-4614-8AB6-165A9F7FE7CE}" name="Parameter 1" dataDxfId="80"/>
+    <tableColumn id="6" xr3:uid="{F5AD0C00-9187-4F91-ADA7-5B461FC355CE}" name="Parameter 2" dataDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{34B0A2DF-5607-43F6-AA9E-1106CCB7621B}" name="Parameter 3" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{B0950426-083D-4CE9-A30E-9D71766BA154}" name="Parameter 4" dataDxfId="77"/>
+    <tableColumn id="14" xr3:uid="{88E7A84D-F80D-416C-9037-2E5927AE2697}" name="Parameter 5" dataDxfId="76"/>
+    <tableColumn id="15" xr3:uid="{E3DCF8BA-29B1-4A24-B6E6-DE9435CB3AC9}" name="Parameter 6" dataDxfId="75"/>
+    <tableColumn id="11" xr3:uid="{E8661EBF-62F4-4D4A-BCDC-7C8ABD4866B0}" name="Lower Limit" dataDxfId="74"/>
+    <tableColumn id="12" xr3:uid="{83DA3A0E-E097-4281-9822-6FE3F8FB0CDD}" name="Upper Limit" dataDxfId="73"/>
+    <tableColumn id="13" xr3:uid="{24B0E0E0-CA9C-4655-9B23-EA0BBD517B67}" name="Step" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{81C05191-4139-4D49-BA19-E7D2B74357F9}" name="Table15681021012" displayName="Table15681021012" ref="A1:O9" totalsRowShown="0" tableBorderDxfId="79">
-  <autoFilter ref="A1:O9" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{81C05191-4139-4D49-BA19-E7D2B74357F9}" name="Table15681021012" displayName="Table15681021012" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="69">
+  <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{64A27C3D-2E18-40E6-9166-742BDA2B413C}" name="Phase" dataDxfId="78"/>
-    <tableColumn id="1" xr3:uid="{0243CFE4-EBE7-4500-A226-23C63BE2FB81}" name="Category" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{69F68BF8-9E6A-4766-AB29-A8B943A84522}" name="Name" dataDxfId="76"/>
-    <tableColumn id="10" xr3:uid="{1E4511F0-B286-4973-A437-9638677030CA}" name="Description" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{B80720A6-55E5-4A17-9FE9-9951AF480E02}" name="Units" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{54B33DED-7F55-4D76-B95F-B7050BBA4BD1}" name="Distribution Type" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{BC7C6514-68B9-48F6-9938-4088DF28B37C}" name="Parameter 1" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{4D372042-F7DE-4E72-A309-C4266E0FA9E8}" name="Parameter 2" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{8D92705D-1A42-46F5-89EA-C4113CC26587}" name="Parameter 3" dataDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{13B56E18-7C36-4950-847A-A7544475E1D1}" name="Parameter 4" dataDxfId="69"/>
-    <tableColumn id="14" xr3:uid="{2649C7B2-1C48-4B13-969D-684D0045538B}" name="Parameter 5" dataDxfId="68"/>
-    <tableColumn id="15" xr3:uid="{5D6C4F8D-D31E-4EED-BABF-A0A688F3A916}" name="Parameter 6" dataDxfId="67"/>
-    <tableColumn id="11" xr3:uid="{1CB1896E-F77C-4DFC-9AB0-D0C102F3F80F}" name="Lower Limit" dataDxfId="66"/>
-    <tableColumn id="12" xr3:uid="{837665AD-748D-4B51-9CCA-780B67A76815}" name="Upper Limit" dataDxfId="65"/>
-    <tableColumn id="13" xr3:uid="{A8F2935C-D451-47EA-A1E1-1E4F0CAE8D87}" name="Step" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{64A27C3D-2E18-40E6-9166-742BDA2B413C}" name="Phase" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{0243CFE4-EBE7-4500-A226-23C63BE2FB81}" name="Category" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{69F68BF8-9E6A-4766-AB29-A8B943A84522}" name="Name" dataDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{1E4511F0-B286-4973-A437-9638677030CA}" name="Description" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{B80720A6-55E5-4A17-9FE9-9951AF480E02}" name="Units" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{54B33DED-7F55-4D76-B95F-B7050BBA4BD1}" name="Distribution Type" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{BC7C6514-68B9-48F6-9938-4088DF28B37C}" name="Parameter 1" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{4D372042-F7DE-4E72-A309-C4266E0FA9E8}" name="Parameter 2" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{8D92705D-1A42-46F5-89EA-C4113CC26587}" name="Parameter 3" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{13B56E18-7C36-4950-847A-A7544475E1D1}" name="Parameter 4" dataDxfId="59"/>
+    <tableColumn id="14" xr3:uid="{2649C7B2-1C48-4B13-969D-684D0045538B}" name="Parameter 5" dataDxfId="58"/>
+    <tableColumn id="15" xr3:uid="{5D6C4F8D-D31E-4EED-BABF-A0A688F3A916}" name="Parameter 6" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{1CB1896E-F77C-4DFC-9AB0-D0C102F3F80F}" name="Lower Limit" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{837665AD-748D-4B51-9CCA-780B67A76815}" name="Upper Limit" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{A8F2935C-D451-47EA-A1E1-1E4F0CAE8D87}" name="Step" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2EC220FC-5886-477C-8B2C-57082D8749AA}" name="Table1568102101213" displayName="Table1568102101213" ref="A1:O9" totalsRowShown="0" tableBorderDxfId="63">
-  <autoFilter ref="A1:O9" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2EC220FC-5886-477C-8B2C-57082D8749AA}" name="Table1568102101213" displayName="Table1568102101213" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="51">
+  <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{525577E1-B46F-47FB-A042-A56D8D45D9AD}" name="Phase" dataDxfId="62"/>
-    <tableColumn id="1" xr3:uid="{30AFC0FE-4503-4A4B-91CA-E5B88AA24F98}" name="Category" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{6333C26F-3D36-4A65-8F1B-CC515ADCE181}" name="Name" dataDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{057A52C2-DED0-48A5-8844-3950CD398F8D}" name="Description" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{EF447B65-8A6A-4F12-ABCB-7BFE84B734A9}" name="Units" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{6E658D46-B4D3-46B1-A15B-9F0095A7EADD}" name="Distribution Type" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{FE235A77-6EFF-4D9A-926F-ACE5D51D4BC8}" name="Parameter 1" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{26694561-3958-440C-BDDC-2DB16EB8A614}" name="Parameter 2" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{DA96F9A2-3DEB-4C42-BECF-B9C30ADA7428}" name="Parameter 3" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{5F8A48E3-9BBF-4210-88D8-F668C1FD845D}" name="Parameter 4" dataDxfId="53"/>
-    <tableColumn id="14" xr3:uid="{21514092-10F7-41E0-B078-A15175C73E93}" name="Parameter 5" dataDxfId="52"/>
-    <tableColumn id="15" xr3:uid="{8BFA8A6A-2BCB-4512-8B77-28D2C28FEEE3}" name="Parameter 6" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{9CB23DDB-2513-48F3-960F-EF0D57CD9724}" name="Lower Limit" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{EDE53E3A-8BAE-4FD6-9C38-CD4B63274C67}" name="Upper Limit" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{980D57FA-1EDD-484A-9D56-BF7EAA580C8D}" name="Step" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{525577E1-B46F-47FB-A042-A56D8D45D9AD}" name="Phase" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{30AFC0FE-4503-4A4B-91CA-E5B88AA24F98}" name="Category" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{6333C26F-3D36-4A65-8F1B-CC515ADCE181}" name="Name" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{057A52C2-DED0-48A5-8844-3950CD398F8D}" name="Description" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{EF447B65-8A6A-4F12-ABCB-7BFE84B734A9}" name="Units" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{6E658D46-B4D3-46B1-A15B-9F0095A7EADD}" name="Distribution Type" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{FE235A77-6EFF-4D9A-926F-ACE5D51D4BC8}" name="Parameter 1" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{26694561-3958-440C-BDDC-2DB16EB8A614}" name="Parameter 2" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{DA96F9A2-3DEB-4C42-BECF-B9C30ADA7428}" name="Parameter 3" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{5F8A48E3-9BBF-4210-88D8-F668C1FD845D}" name="Parameter 4" dataDxfId="41"/>
+    <tableColumn id="14" xr3:uid="{21514092-10F7-41E0-B078-A15175C73E93}" name="Parameter 5" dataDxfId="40"/>
+    <tableColumn id="15" xr3:uid="{8BFA8A6A-2BCB-4512-8B77-28D2C28FEEE3}" name="Parameter 6" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{9CB23DDB-2513-48F3-960F-EF0D57CD9724}" name="Lower Limit" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{EDE53E3A-8BAE-4FD6-9C38-CD4B63274C67}" name="Upper Limit" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{980D57FA-1EDD-484A-9D56-BF7EAA580C8D}" name="Step" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3DDD9CB2-968B-4A43-A20B-C749950155AA}" name="Table156810210121314" displayName="Table156810210121314" ref="A1:O9" totalsRowShown="0" tableBorderDxfId="47">
-  <autoFilter ref="A1:O9" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3DDD9CB2-968B-4A43-A20B-C749950155AA}" name="Table156810210121314" displayName="Table156810210121314" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="33">
+  <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{6B814874-1824-4E56-A967-04F9F6F3E584}" name="Phase" dataDxfId="46"/>
-    <tableColumn id="1" xr3:uid="{FE1635BE-F6C3-4D5B-B06E-7A92EBAB074D}" name="Category" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{9C16A715-E236-4930-A633-7510E082392C}" name="Name" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{B556C16A-1909-46E7-BC6D-8479761F1F65}" name="Description" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{5EFB6F3C-9894-43AA-AFAC-1013F8F0714B}" name="Units" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{6E3C1049-1D84-4FD5-B7CF-1E130CD32BCA}" name="Distribution Type" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{57E979B1-A630-4AC5-8C4D-CED1A62F587D}" name="Parameter 1" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{C9EF8DDD-DA1F-44E2-AC90-B6993C60CF1F}" name="Parameter 2" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{6FEFD03F-983B-47E2-9525-7EDD875A9C7C}" name="Parameter 3" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{0B661DB2-D286-4AEE-88C3-124B37F1B246}" name="Parameter 4" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{08C4ACC8-5A7B-4864-96E4-CF69FD654892}" name="Parameter 5" dataDxfId="36"/>
-    <tableColumn id="15" xr3:uid="{5505BBCC-5C52-4400-9C19-9ED7DBB490B8}" name="Parameter 6" dataDxfId="35"/>
-    <tableColumn id="11" xr3:uid="{E151AC3B-28ED-4186-A803-48B7F8B7AE5B}" name="Lower Limit" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{223709CC-AD09-4677-85AC-DF8A1619BF81}" name="Upper Limit" dataDxfId="33"/>
-    <tableColumn id="13" xr3:uid="{5FAAB5F5-A70D-4A6B-BE36-5CC1FD787BC5}" name="Step" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{6B814874-1824-4E56-A967-04F9F6F3E584}" name="Phase" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{FE1635BE-F6C3-4D5B-B06E-7A92EBAB074D}" name="Category" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{9C16A715-E236-4930-A633-7510E082392C}" name="Name" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{B556C16A-1909-46E7-BC6D-8479761F1F65}" name="Description" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{5EFB6F3C-9894-43AA-AFAC-1013F8F0714B}" name="Units" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{6E3C1049-1D84-4FD5-B7CF-1E130CD32BCA}" name="Distribution Type" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{57E979B1-A630-4AC5-8C4D-CED1A62F587D}" name="Parameter 1" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{C9EF8DDD-DA1F-44E2-AC90-B6993C60CF1F}" name="Parameter 2" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{6FEFD03F-983B-47E2-9525-7EDD875A9C7C}" name="Parameter 3" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{0B661DB2-D286-4AEE-88C3-124B37F1B246}" name="Parameter 4" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{08C4ACC8-5A7B-4864-96E4-CF69FD654892}" name="Parameter 5" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{5505BBCC-5C52-4400-9C19-9ED7DBB490B8}" name="Parameter 6" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{E151AC3B-28ED-4186-A803-48B7F8B7AE5B}" name="Lower Limit" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{223709CC-AD09-4677-85AC-DF8A1619BF81}" name="Upper Limit" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{5FAAB5F5-A70D-4A6B-BE36-5CC1FD787BC5}" name="Step" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FBB513AC-2D2B-4552-8740-9D611743FE70}" name="Table15681021012131415" displayName="Table15681021012131415" ref="A1:O9" totalsRowShown="0" tableBorderDxfId="31">
-  <autoFilter ref="A1:O9" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FBB513AC-2D2B-4552-8740-9D611743FE70}" name="Table15681021012131415" displayName="Table15681021012131415" ref="A1:O10" totalsRowShown="0" tableBorderDxfId="15">
+  <autoFilter ref="A1:O10" xr:uid="{6517A09C-F3AC-4B68-94FA-1AD3D2AE52FD}"/>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{2035FE2F-0A32-497E-B1E0-30D237A0E150}" name="Phase" dataDxfId="30"/>
-    <tableColumn id="1" xr3:uid="{F814DF41-D024-449F-AF42-62D43153FFB7}" name="Category" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{7DC8FB15-5985-4C4F-ADF3-7A17F5076A68}" name="Name" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{614B9103-CB85-46A8-93A4-7DE4EBCB5D2B}" name="Description" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{E1C6CE34-10C1-4516-B6D9-58BC2F148637}" name="Units" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{2DC3C549-6825-4F8C-B404-F2995425599E}" name="Distribution Type" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{805795A1-E0DE-4FCC-9EBD-DDCCA12F0793}" name="Parameter 1" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{8AEEFD06-21CF-4496-9CA8-A505BA5018C8}" name="Parameter 2" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{81F9FC74-65BB-4D24-8C32-944022DBFF45}" name="Parameter 3" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{B80C3AAC-1FDC-42E7-B79C-4A7F876448A4}" name="Parameter 4" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{07C0D5EC-F968-40E1-8F17-889B90B82192}" name="Parameter 5" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{0302BE75-0A0F-489C-99C0-05DCDFC40A44}" name="Parameter 6" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{8B4A7C21-F1CF-4881-A5A6-4163F9C44F88}" name="Lower Limit" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{F4935CE7-6ADF-493E-B887-56BFE62D0ADC}" name="Upper Limit" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{5249EF7A-61B0-47D7-A1ED-48836EF45F76}" name="Step" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{2035FE2F-0A32-497E-B1E0-30D237A0E150}" name="Phase" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{F814DF41-D024-449F-AF42-62D43153FFB7}" name="Category" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{7DC8FB15-5985-4C4F-ADF3-7A17F5076A68}" name="Name" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{614B9103-CB85-46A8-93A4-7DE4EBCB5D2B}" name="Description" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{E1C6CE34-10C1-4516-B6D9-58BC2F148637}" name="Units" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{2DC3C549-6825-4F8C-B404-F2995425599E}" name="Distribution Type" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{805795A1-E0DE-4FCC-9EBD-DDCCA12F0793}" name="Parameter 1" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{8AEEFD06-21CF-4496-9CA8-A505BA5018C8}" name="Parameter 2" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{81F9FC74-65BB-4D24-8C32-944022DBFF45}" name="Parameter 3" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{B80C3AAC-1FDC-42E7-B79C-4A7F876448A4}" name="Parameter 4" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{07C0D5EC-F968-40E1-8F17-889B90B82192}" name="Parameter 5" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{0302BE75-0A0F-489C-99C0-05DCDFC40A44}" name="Parameter 6" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{8B4A7C21-F1CF-4881-A5A6-4163F9C44F88}" name="Lower Limit" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{F4935CE7-6ADF-493E-B887-56BFE62D0ADC}" name="Upper Limit" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{5249EF7A-61B0-47D7-A1ED-48836EF45F76}" name="Step" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3791,10 +3800,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E43DD9-157B-49FC-9197-883D6786BB87}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3902,7 +3911,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -3930,13 +3939,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -3945,7 +3954,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -3967,13 +3976,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -3982,7 +3991,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -4004,13 +4013,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -4019,7 +4028,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="12">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -4041,13 +4050,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -4056,7 +4065,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -4078,13 +4087,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -4115,13 +4124,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -4130,7 +4139,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="12">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -4147,17 +4156,54 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>1</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L9">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="A2:L10">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{31A8EBC6-6F05-479C-82BC-9274F3B72E56}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{31A8EBC6-6F05-479C-82BC-9274F3B72E56}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -4170,10 +4216,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EF9366-5AFF-4F5A-9471-F50914749AD6}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4281,7 +4327,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -4309,13 +4355,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -4324,7 +4370,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -4346,13 +4392,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -4361,7 +4407,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -4383,13 +4429,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -4398,7 +4444,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="12">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -4420,13 +4466,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -4435,7 +4481,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -4457,13 +4503,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -4494,13 +4540,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -4509,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="12">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -4526,17 +4572,54 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>1</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L9">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A2:L10">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{FB9861EC-C1B9-4BC7-96DE-3903141525C5}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{FB9861EC-C1B9-4BC7-96DE-3903141525C5}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -4952,10 +5035,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097870CC-1A0F-461E-BDFD-29BDDFDDF05C}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5022,7 +5105,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>53</v>
@@ -5057,13 +5140,13 @@
         <v>70</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>3</v>
@@ -5092,7 +5175,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>52</v>
@@ -5127,13 +5210,13 @@
         <v>71</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>94</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>3</v>
@@ -5162,7 +5245,7 @@
         <v>72</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>73</v>
@@ -5197,13 +5280,13 @@
         <v>72</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>95</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>3</v>
@@ -5488,13 +5571,13 @@
         <v>70</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>68</v>
@@ -5525,13 +5608,13 @@
         <v>70</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>68</v>
@@ -5562,13 +5645,13 @@
         <v>70</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>116</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>68</v>
@@ -5599,13 +5682,13 @@
         <v>70</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>68</v>
@@ -5636,13 +5719,13 @@
         <v>70</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>68</v>
@@ -5673,13 +5756,13 @@
         <v>70</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>68</v>
@@ -5710,13 +5793,13 @@
         <v>72</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>68</v>
@@ -5747,13 +5830,13 @@
         <v>72</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>68</v>
@@ -5784,13 +5867,13 @@
         <v>72</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>68</v>
@@ -5821,13 +5904,13 @@
         <v>72</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="D24" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>68</v>
@@ -5858,13 +5941,13 @@
         <v>72</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>68</v>
@@ -5895,13 +5978,13 @@
         <v>72</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>68</v>
@@ -5932,13 +6015,13 @@
         <v>71</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>68</v>
@@ -5947,7 +6030,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -5969,13 +6052,13 @@
         <v>71</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>68</v>
@@ -5984,7 +6067,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
@@ -6006,13 +6089,13 @@
         <v>71</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>68</v>
@@ -6021,7 +6104,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="12">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -6043,13 +6126,13 @@
         <v>71</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>68</v>
@@ -6058,7 +6141,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="12">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -6080,13 +6163,13 @@
         <v>71</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>68</v>
@@ -6095,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="12">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -6117,13 +6200,13 @@
         <v>71</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>68</v>
@@ -6132,7 +6215,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="12">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -6149,18 +6232,55 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="12">
+        <v>0</v>
+      </c>
+      <c r="N33" s="12">
+        <v>1</v>
+      </c>
+      <c r="O33" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L32">
-    <cfRule type="expression" dxfId="15" priority="43">
+  <conditionalFormatting sqref="A2:L33">
+    <cfRule type="expression" dxfId="143" priority="43">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="44">
+    <cfRule type="expression" dxfId="142" priority="44">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{330BE9FB-867A-4350-A3CC-F1598E7F7C5E}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F33" xr:uid="{330BE9FB-867A-4350-A3CC-F1598E7F7C5E}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -6173,10 +6293,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CC74AC-9C8A-4982-AAA7-A84AB700668C}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6284,7 +6404,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -6312,13 +6432,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -6327,7 +6447,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -6349,13 +6469,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -6364,7 +6484,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -6386,13 +6506,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -6401,7 +6521,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="12">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -6423,13 +6543,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -6438,7 +6558,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -6460,13 +6580,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -6497,13 +6617,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -6512,7 +6632,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="12">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -6529,17 +6649,54 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>1</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L9">
-    <cfRule type="expression" dxfId="13" priority="1">
+  <conditionalFormatting sqref="A2:L10">
+    <cfRule type="expression" dxfId="125" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="124" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{715A25B3-8A34-4C57-B072-9E97752CB3B7}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{715A25B3-8A34-4C57-B072-9E97752CB3B7}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -6552,10 +6709,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7042F79-A311-45CE-9A65-4502414AAE8E}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6663,7 +6820,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -6691,13 +6848,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -6706,7 +6863,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -6728,13 +6885,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -6743,7 +6900,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -6765,13 +6922,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -6780,7 +6937,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="12">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -6802,13 +6959,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -6817,7 +6974,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -6839,13 +6996,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -6876,13 +7033,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -6891,7 +7048,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="12">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -6908,17 +7065,54 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>1</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L9">
-    <cfRule type="expression" dxfId="11" priority="1">
+  <conditionalFormatting sqref="A2:L10">
+    <cfRule type="expression" dxfId="107" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="106" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{DA5A1EE8-224D-4BF6-A924-4AB90DE068C4}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{DA5A1EE8-224D-4BF6-A924-4AB90DE068C4}">
       <formula1>Validation_Distribution_Types</formula1>
     </dataValidation>
   </dataValidations>
@@ -6931,10 +7125,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333733AB-F5E6-46AE-8B18-F38FE91E5E0A}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7042,7 +7236,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>3</v>
@@ -7070,13 +7264,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>68</v>
@@ -7085,7 +7279,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -7107,13 +7301,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>68</v>
@@ -7122,7 +7316,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="12">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -7144,13 +7338,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>68</v>
@@ -7159,7 +7353,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="12">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -7181,13 +7375,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>68</v>
@@ -7196,7 +7390,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -7218,13 +7412,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>68</v>
@@ -7255,13 +7449,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>68</v>
@@ -7270,7 +7464,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="12">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -7287,17 +7481,54 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>1</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L9">
-    <cfRule type="expression" dxfId="9" priority="3">
+  <conditionalFormatting sqref="A2:L10">
+    <cfRule type="expression" dxfId="89" priority="1">
       <formula>ISBLANK($F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="88" priority="2">
       <formula>NOT((COLUMN(A2)-COLUMN($F:$F))&lt;=IFERROR(VLOOKUP($F2, Validation_Distribution_Parameter_Count, 2, FALSE), 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations cou